--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A3:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,165 +434,165 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N3" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>10/01/2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Vayechi</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>12:45</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>14:35</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>15:20</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>16:05</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>17/01/2025</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>16:40</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:P4"/>
+  <dimension ref="A5:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,165 +434,165 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H5" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J5" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K5" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L5" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="M5" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="N5" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="O5" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="P5" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>10/01/2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Vayechi</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>12:45</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>14:35</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>15:20</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>16:05</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>17/01/2025</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>16:40</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A3:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,167 +434,167 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N3" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>10/01/2025</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Vayechi</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>16:20</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16:36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>16:36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>17/01/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Shemot</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16:42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>16:42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>12:45</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>14:35</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>16:05</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>16:10</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>17/01/2025</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>16:40</t>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>17:41</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>16:50</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:P4"/>
+  <dimension ref="A5:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,165 +434,165 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H5" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J5" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K5" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L5" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="M5" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="N5" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="O5" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="P5" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>17/01/2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Shemot</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>16:25</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>16:42</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>16:42</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>12:45</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>14:40</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>15:25</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>16:10</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>17:41</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>24/01/2025</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>16:50</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:P6"/>
+  <dimension ref="A7:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,167 +434,167 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E7" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="H7" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I7" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J7" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K7" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
+      <c r="L7" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M5" s="1" t="inlineStr">
+      <c r="M7" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N5" s="1" t="inlineStr">
+      <c r="N7" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O5" s="1" t="inlineStr">
+      <c r="O7" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P5" s="1" t="inlineStr">
+      <c r="P7" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>17/01/2025</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Shemot</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>16:25</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16:42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>16:42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yitro</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>12:45</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>14:40</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>15:25</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>16:10</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>17:41</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>24/01/2025</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>16:50</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>18:04</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>21/02/2025</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>17:10</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:P8"/>
+  <dimension ref="A9:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,167 +434,167 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D9" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E9" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F9" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G9" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
+      <c r="H9" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="I9" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J9" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K9" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L7" s="1" t="inlineStr">
+      <c r="L9" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M7" s="1" t="inlineStr">
+      <c r="M9" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N7" s="1" t="inlineStr">
+      <c r="N9" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O7" s="1" t="inlineStr">
+      <c r="O9" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P7" s="1" t="inlineStr">
+      <c r="P9" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>14/02/2025</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Yitro</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>14/03/2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ki Tisa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>16:10</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>16:55</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>17:08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>17:08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>07:45</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>12:45</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>15:05</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>15:50</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>16:35</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>18:04</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>21/02/2025</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>17:10</t>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>18:25</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>17:30</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A9:P10"/>
+  <dimension ref="A13:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,165 +434,165 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D13" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E13" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F13" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G13" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
+      <c r="H13" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="I13" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J13" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K13" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L9" s="1" t="inlineStr">
+      <c r="L13" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M9" s="1" t="inlineStr">
+      <c r="M13" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N9" s="1" t="inlineStr">
+      <c r="N13" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O9" s="1" t="inlineStr">
+      <c r="O13" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P9" s="1" t="inlineStr">
+      <c r="P13" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>14/03/2025</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ki Tisa</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vayakhel</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>12:45</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>15:25</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>16:10</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>16:55</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>18:20</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>18:25</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>21/03/2025</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -17,7 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,11 +59,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A13:P14"/>
+  <dimension ref="A17:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,167 +439,167 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D17" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E17" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F17" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G17" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
+      <c r="H17" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="I17" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J17" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K17" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L13" s="1" t="inlineStr">
+      <c r="L17" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M13" s="1" t="inlineStr">
+      <c r="M17" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N13" s="1" t="inlineStr">
+      <c r="N17" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O13" s="1" t="inlineStr">
+      <c r="O17" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P13" s="1" t="inlineStr">
+      <c r="P17" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>21/03/2025</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Vayakhel</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pekudei</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>18:25</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18:39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>18:39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>07:45</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>12:45</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>18:25</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>28/03/2025</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>17:30</t>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>18:05</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>18:35</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A17:P18"/>
+  <dimension ref="A27:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,165 +439,165 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="D27" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E27" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F27" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
+      <c r="H27" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="I27" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J27" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K27" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L17" s="1" t="inlineStr">
+      <c r="L27" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M17" s="1" t="inlineStr">
+      <c r="M27" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N17" s="1" t="inlineStr">
+      <c r="N27" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O17" s="1" t="inlineStr">
+      <c r="O27" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P17" s="1" t="inlineStr">
+      <c r="P27" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Pekudei</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>18:25</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>18:39</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>18:39</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>18:05</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>04/04/2025</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>18:35</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A27:P28"/>
+  <dimension ref="A33:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,165 +439,165 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="D33" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E33" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F33" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G33" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
+      <c r="H33" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="I33" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J33" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K33" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L27" s="1" t="inlineStr">
+      <c r="L33" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M27" s="1" t="inlineStr">
+      <c r="M33" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N27" s="1" t="inlineStr">
+      <c r="N33" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O27" s="1" t="inlineStr">
+      <c r="O33" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P27" s="1" t="inlineStr">
+      <c r="P33" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Pekudei</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>18:25</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>18:39</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>18:39</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>18:05</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>04/04/2025</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>18:35</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A33:P34"/>
+  <dimension ref="A41:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,165 +439,165 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="D41" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E41" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F41" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G41" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
+      <c r="H41" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="I41" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J41" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K41" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L33" s="1" t="inlineStr">
+      <c r="L41" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M33" s="1" t="inlineStr">
+      <c r="M41" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N33" s="1" t="inlineStr">
+      <c r="N41" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O33" s="1" t="inlineStr">
+      <c r="O41" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P33" s="1" t="inlineStr">
+      <c r="P41" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Pekudei</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>18:25</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>18:39</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>18:39</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>17:20</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>18:05</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>17:55</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>04/04/2025</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>18:35</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A41:P42"/>
+  <dimension ref="A63:P64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,167 +439,167 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B63" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="D63" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E63" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F63" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G63" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
+      <c r="H63" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="I63" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J63" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K63" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L41" s="1" t="inlineStr">
+      <c r="L63" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M41" s="1" t="inlineStr">
+      <c r="M63" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N41" s="1" t="inlineStr">
+      <c r="N63" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O41" s="1" t="inlineStr">
+      <c r="O63" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P41" s="1" t="inlineStr">
+      <c r="P63" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>28/03/2025</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Pekudei</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>18:25</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>18:39</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>18:39</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Vayikra</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>18:44</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>18:44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>16:35</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>17:10</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>17:55</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>19:35</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>04/04/2025</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>18:35</t>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>13:45/17:00</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>18:40</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:P8"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,165 +434,165 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L7" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M7" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N7" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O7" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P7" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>04/04/2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Vayikra</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>18:44</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>18:44</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>19:40</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>11/04/2025</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A3:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,165 +434,165 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N3" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>04/04/2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Vayikra</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>18:44</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>18:44</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>19:40</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>11/04/2025</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:P4"/>
+  <dimension ref="A5:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,165 +434,165 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H5" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J5" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K5" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L5" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="M5" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="N5" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="O5" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="P5" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>04/04/2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Vayikra</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>18:44</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>18:44</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>19:40</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>11/04/2025</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:P6"/>
+  <dimension ref="A7:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,165 +434,165 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E7" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="H7" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I7" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J7" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K7" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
+      <c r="L7" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M5" s="1" t="inlineStr">
+      <c r="M7" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N5" s="1" t="inlineStr">
+      <c r="N7" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O5" s="1" t="inlineStr">
+      <c r="O7" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P5" s="1" t="inlineStr">
+      <c r="P7" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>04/04/2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Vayikra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>18:44</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>18:44</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>19:40</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>11/04/2025</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -519,27 +519,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04/04/2025</t>
+          <t>11/04/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vayikra</t>
+          <t>Tzav</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18:44</t>
+          <t>18:49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18:44</t>
+          <t>18:49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -564,37 +564,37 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:05</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>11/04/2025</t>
+          <t>18/04/2025</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>18:45</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,11 @@
           <t>18:49</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>19:08</t>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:P4"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,167 +434,177 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>API_parasha_hebrew</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>11/04/2025</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Tzav</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>18:35</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18:49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>18:49</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>18/04/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>פסח</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>פסח</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>18:54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>18:54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>13:45</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>17:20</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>18:05</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>19:35</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>18/04/2025</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>18:45</t>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>19:51</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>18:50</t>
         </is>
       </c>
     </row>
@@ -672,7 +682,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vayetzei</t>
+          <t>ויצא</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -719,7 +729,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vayishlach</t>
+          <t>וישלח</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -766,7 +776,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vayeshev</t>
+          <t>וישב</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -813,7 +823,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Miketz</t>
+          <t>מקץ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -848,7 +858,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:25</t>
         </is>
       </c>
     </row>
@@ -860,7 +870,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vayigash</t>
+          <t>ויגש</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -907,7 +917,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vayechi</t>
+          <t>ויחי</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -954,7 +964,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Shemot</t>
+          <t>שמות</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1001,7 +1011,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vaera</t>
+          <t>וארא</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1036,7 +1046,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:50</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1058,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bo</t>
+          <t>בא</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1095,7 +1105,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Beshalach</t>
+          <t>בשלח</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1142,7 +1152,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Yitro</t>
+          <t>יתרו</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1189,7 +1199,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mishpatim</t>
+          <t>משפטים</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1224,7 +1234,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>17:15</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1246,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Terumah</t>
+          <t>תרומה</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1271,7 +1281,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:20</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1293,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tetzaveh</t>
+          <t>תצוה</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1318,7 +1328,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:25</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1340,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ki Tisa</t>
+          <t>כי-תשא</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1365,7 +1375,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>17:30</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1387,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Vayakhel</t>
+          <t>ויקהל</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1412,7 +1422,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:35</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1434,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pekudei</t>
+          <t>פקודי</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1459,7 +1469,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>18:40</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1481,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Vayikra</t>
+          <t>ויקרא</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1506,7 +1516,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>18:45</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1528,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tzav</t>
+          <t>צו</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1553,7 +1563,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>18:50</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1575,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pesach</t>
+          <t>פסח</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1600,7 +1610,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>18:55</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1622,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Shmini</t>
+          <t>שמיני</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1647,7 +1657,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>19:00</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1669,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tazria-Metzora</t>
+          <t>תזריע-מצורע</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1694,7 +1704,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:05</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1716,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Achrei Mot-Kedoshim</t>
+          <t>אחרי-מות קדושים</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1741,7 +1751,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:10</t>
         </is>
       </c>
     </row>
@@ -1753,7 +1763,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Emor</t>
+          <t>אמור</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1788,7 +1798,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:15</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1810,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Behar-Bechukotai</t>
+          <t>בהר-בחוקותי</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1847,7 +1857,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bamidbar</t>
+          <t>במדבר</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1894,7 +1904,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nasso</t>
+          <t>נשא</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1941,7 +1951,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Beha’alotcha</t>
+          <t>בהעלותך</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1976,7 +1986,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:30</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1998,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sh’lach</t>
+          <t>שלח</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2035,7 +2045,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Korach</t>
+          <t>קרח</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2082,7 +2092,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chukat</t>
+          <t>חוקת</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2117,7 +2127,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:30</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2139,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Balak</t>
+          <t>בלק</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2176,7 +2186,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pinchas</t>
+          <t>פינחס</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2211,7 +2221,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:25</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2233,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Matot-Masei</t>
+          <t>מטות-מסעי</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2258,7 +2268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:20</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2280,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Devarim</t>
+          <t>דברים</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2317,7 +2327,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Vaetchanan</t>
+          <t>ואתחנן</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2364,7 +2374,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Eikev</t>
+          <t>עקב</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2411,7 +2421,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Re’eh</t>
+          <t>ראה</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2446,7 +2456,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>18:50</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2468,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Shoftim</t>
+          <t>שופטים</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2505,7 +2515,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ki Teitzei</t>
+          <t>כי-תצא</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2552,7 +2562,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ki Tavo</t>
+          <t>כי-תבוא</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2599,7 +2609,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nitzavim</t>
+          <t>ניצבים</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2634,7 +2644,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>18:15</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A3:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,177 +434,177 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>API_parasha_hebrew</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N3" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q3" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>18/04/2025</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>פסח</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>פסח</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18:40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>18:54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>18:54</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>פָּרָשַׁת שְּׁמִינִי</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>פרשת שמיני</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>18:59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>18:59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>13:45</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>16:50</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>17:25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>18:10</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>19:40</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>19:51</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>25/04/2025</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>18:50</t>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>19:56</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>02/05/2025</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>18:55</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:Q4"/>
+  <dimension ref="A5:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,175 +434,175 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>API_parasha_hebrew</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H5" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J5" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K5" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L5" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="M5" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="N5" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="O5" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="P5" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
+      <c r="Q5" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>25/04/2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>פָּרָשַׁת שְּׁמִינִי</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>פרשת שמיני</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>18:45</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>18:59</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>18:59</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>13:45</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>16:55</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>19:56</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>02/05/2025</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:Q6"/>
+  <dimension ref="A3:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,175 +434,175 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>API_parasha_hebrew</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="M5" s="1" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="N5" s="1" t="inlineStr">
+      <c r="N3" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="O5" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="P5" s="1" t="inlineStr">
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="Q5" s="1" t="inlineStr">
+      <c r="Q3" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>25/04/2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>פָּרָשַׁת שְּׁמִינִי</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>פרשת שמיני</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>18:45</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>18:59</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>18:59</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>13:45</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>16:55</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>19:56</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>02/05/2025</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:Q4"/>
+  <dimension ref="A7:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,177 +434,177 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>API_parasha_hebrew</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E7" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H7" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I7" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J7" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K7" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L7" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="M7" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="N7" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="O7" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="P7" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
+      <c r="Q7" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>25/04/2025</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>פָּרָשַׁת שְּׁמִינִי</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>פרשת שמיני</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18:45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>18:59</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>18:59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>02/05/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>פָּרָשַׁת תַזְרִיעַ־מְּצֹרָע</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>פרשת תזריע־מצרע</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>19:04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>19:04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>13:45</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>16:55</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>18:15</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>19:56</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>02/05/2025</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>18:55</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>20:02</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>19:00</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A7:Q8"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,177 +434,177 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>API_parasha_hebrew</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="L7" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="M7" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="N7" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="O7" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="P7" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="Q7" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>02/05/2025</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>פָּרָשַׁת תַזְרִיעַ־מְּצֹרָע</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>פרשת תזריע־מצרע</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>18:50</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>19:04</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>19:04</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>פָּרָשַׁת אֱמוֹר</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>פרשת אמור</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>19:14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>19:14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>18:20</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>20:02</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>09/05/2025</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>19:00</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>20:13</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>19:10</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A5:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,175 +434,175 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>API_parasha_hebrew</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H5" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J5" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K5" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L5" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M5" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N5" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O5" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P5" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q5" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>16/05/2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>פָּרָשַׁת אֱמוֹר</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>פרשת אמור</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>19:14</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>19:14</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>17:45</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>20:13</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>23/05/2025</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:P6"/>
+  <dimension ref="A11:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,167 +434,167 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E11" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G11" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="H11" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I11" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J11" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K11" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
+      <c r="L11" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M5" s="1" t="inlineStr">
+      <c r="M11" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N5" s="1" t="inlineStr">
+      <c r="N11" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O5" s="1" t="inlineStr">
+      <c r="O11" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P5" s="1" t="inlineStr">
+      <c r="P11" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>17/01/2025</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Shemot</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>16:25</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16:42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>16:42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Yitro</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>12:45</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>14:40</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>15:25</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>16:10</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>17:41</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>24/01/2025</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>16:50</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>18:04</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>21/02/2025</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>17:15</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:Q6"/>
+  <dimension ref="A9:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,175 +434,175 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>API_parasha_hebrew</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D9" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E9" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F9" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G9" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="H9" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I9" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J9" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K9" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
+      <c r="L9" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="M5" s="1" t="inlineStr">
+      <c r="M9" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="N5" s="1" t="inlineStr">
+      <c r="N9" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="O5" s="1" t="inlineStr">
+      <c r="O9" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="P5" s="1" t="inlineStr">
+      <c r="P9" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="Q5" s="1" t="inlineStr">
+      <c r="Q9" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>16/05/2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>פָּרָשַׁת אֱמוֹר</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>פרשת אמור</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>19:14</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>19:14</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>17:45</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>20:13</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>23/05/2025</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A11:P12"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,167 +434,177 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>API_parasha_hebrew</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="L11" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="M11" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="N11" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת קודש</t>
         </is>
       </c>
-      <c r="O11" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="P11" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>14/02/2025</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Yitro</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16:55</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>17:08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>17:08</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>פָּרָשַׁת אֱמוֹר</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>פרשת אמור</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>19:14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>19:14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>12:45</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>15:05</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>15:50</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>16:35</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>18:04</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>21/02/2025</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>17:15</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>20:13</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>19:10</t>
         </is>
       </c>
     </row>
@@ -609,7 +619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,6 +648,31 @@
           <t>צאת שבת</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>שקיעה Dimanche</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>שקיעה Jeudi</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>צאת הכוכבים Dimanche</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>צאת הכוכבים Jeudi</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>מנחה ביניים</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -647,7 +682,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vayetzei</t>
+          <t>ויצא</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -658,6 +693,31 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>17:16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>17:04</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>16:15</t>
         </is>
       </c>
     </row>
@@ -669,7 +729,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vayishlach</t>
+          <t>וישלח</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -680,6 +740,31 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>17:17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16:37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16:39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17:06</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>16:15</t>
         </is>
       </c>
     </row>
@@ -691,7 +776,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vayeshev</t>
+          <t>וישב</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -702,6 +787,31 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>17:20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16:43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>16:20</t>
         </is>
       </c>
     </row>
@@ -713,7 +823,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Miketz</t>
+          <t>מקץ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -724,6 +834,31 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>17:24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16:44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16:47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>17:12</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>16:25</t>
         </is>
       </c>
     </row>
@@ -735,7 +870,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vayigash</t>
+          <t>ויגש</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -746,6 +881,31 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>17:29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>16:53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>16:30</t>
         </is>
       </c>
     </row>
@@ -757,7 +917,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vayechi</t>
+          <t>ויחי</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -768,6 +928,31 @@
       <c r="D7" t="inlineStr">
         <is>
           <t>17:35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>16:56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>16:59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>17:23</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>17:26</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>16:35</t>
         </is>
       </c>
     </row>
@@ -779,7 +964,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Shemot</t>
+          <t>שמות</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -790,6 +975,31 @@
       <c r="D8" t="inlineStr">
         <is>
           <t>17:41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>17:06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>16:40</t>
         </is>
       </c>
     </row>
@@ -801,7 +1011,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vaera</t>
+          <t>וארא</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -812,6 +1022,31 @@
       <c r="D9" t="inlineStr">
         <is>
           <t>17:47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17:12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>16:50</t>
         </is>
       </c>
     </row>
@@ -823,7 +1058,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bo</t>
+          <t>בא</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -834,6 +1069,31 @@
       <c r="D10" t="inlineStr">
         <is>
           <t>17:53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>17:41</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>17:44</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>16:55</t>
         </is>
       </c>
     </row>
@@ -845,7 +1105,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Beshalach</t>
+          <t>בשלח</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -856,6 +1116,31 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>17:58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>17:21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>17:47</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -867,7 +1152,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Yitro</t>
+          <t>יתרו</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -878,6 +1163,31 @@
       <c r="D12" t="inlineStr">
         <is>
           <t>18:04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17:27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>17:31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>17:53</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>17:56</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>17:05</t>
         </is>
       </c>
     </row>
@@ -889,7 +1199,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mishpatim</t>
+          <t>משפטים</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -900,6 +1210,31 @@
       <c r="D13" t="inlineStr">
         <is>
           <t>18:10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>17:33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>17:36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>17:58</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>18:01</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>17:15</t>
         </is>
       </c>
     </row>
@@ -911,7 +1246,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Terumah</t>
+          <t>תרומה</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -922,6 +1257,31 @@
       <c r="D14" t="inlineStr">
         <is>
           <t>18:15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>17:42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>18:04</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>18:06</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>17:20</t>
         </is>
       </c>
     </row>
@@ -933,7 +1293,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tetzaveh</t>
+          <t>תצוה</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -944,6 +1304,31 @@
       <c r="D15" t="inlineStr">
         <is>
           <t>18:20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>17:44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>17:47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>18:09</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>18:11</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>17:25</t>
         </is>
       </c>
     </row>
@@ -955,7 +1340,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ki Tisa</t>
+          <t>כי-תשא</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -966,6 +1351,31 @@
       <c r="D16" t="inlineStr">
         <is>
           <t>18:25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>17:49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>17:52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>18:14</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>18:16</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>17:30</t>
         </is>
       </c>
     </row>
@@ -977,7 +1387,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Vayakhel</t>
+          <t>ויקהל</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -988,6 +1398,31 @@
       <c r="D17" t="inlineStr">
         <is>
           <t>18:30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>17:54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>17:56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>18:19</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>18:21</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>17:35</t>
         </is>
       </c>
     </row>
@@ -999,7 +1434,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pekudei</t>
+          <t>פקודי</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1010,6 +1445,31 @@
       <c r="D18" t="inlineStr">
         <is>
           <t>19:35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>19:01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>18:40</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1481,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Vayikra</t>
+          <t>ויקרא</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1032,6 +1492,31 @@
       <c r="D19" t="inlineStr">
         <is>
           <t>19:40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>19:06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>18:45</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1528,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tzav</t>
+          <t>צו</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1051,7 +1536,36 @@
           <t>18:49</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>19:08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>19:11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>19:36</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1061,7 +1575,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pesach</t>
+          <t>פסח</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1072,6 +1586,31 @@
       <c r="D21" t="inlineStr">
         <is>
           <t>19:51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>19:13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>19:16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>19:39</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>19:42</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>18:55</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1622,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Shmini</t>
+          <t>שמיני</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1094,6 +1633,31 @@
       <c r="D22" t="inlineStr">
         <is>
           <t>19:56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>19:18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>19:21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>19:47</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>19:00</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1669,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tazria-Metzora</t>
+          <t>תזריע-מצורע</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1116,6 +1680,31 @@
       <c r="D23" t="inlineStr">
         <is>
           <t>20:02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>19:53</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>19:05</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1716,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Achrei Mot-Kedoshim</t>
+          <t>אחרי-מות קדושים</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1138,6 +1727,31 @@
       <c r="D24" t="inlineStr">
         <is>
           <t>20:08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>19:58</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>19:10</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1763,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Emor</t>
+          <t>אמור</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1160,6 +1774,31 @@
       <c r="D25" t="inlineStr">
         <is>
           <t>20:13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>20:03</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>19:15</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1810,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Behar-Bechukotai</t>
+          <t>בהר-בחוקותי</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1182,6 +1821,31 @@
       <c r="D26" t="inlineStr">
         <is>
           <t>20:19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>19:37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>20:08</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>19:15</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1857,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bamidbar</t>
+          <t>במדבר</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1204,6 +1868,31 @@
       <c r="D27" t="inlineStr">
         <is>
           <t>20:23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>20:12</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>19:20</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1904,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nasso</t>
+          <t>נשא</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1226,6 +1915,31 @@
       <c r="D28" t="inlineStr">
         <is>
           <t>20:28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>19:47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>20:14</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>19:25</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1951,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Beha’alotcha</t>
+          <t>בהעלותך</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1248,6 +1962,31 @@
       <c r="D29" t="inlineStr">
         <is>
           <t>20:31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>20:17</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>20:18</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>19:30</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1998,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sh’lach</t>
+          <t>שלח</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1270,6 +2009,31 @@
       <c r="D30" t="inlineStr">
         <is>
           <t>20:33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>20:18</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>19:30</t>
         </is>
       </c>
     </row>
@@ -1281,7 +2045,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Korach</t>
+          <t>קרח</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1292,6 +2056,31 @@
       <c r="D31" t="inlineStr">
         <is>
           <t>20:33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>19:30</t>
         </is>
       </c>
     </row>
@@ -1303,7 +2092,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chukat</t>
+          <t>חוקת</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1314,6 +2103,31 @@
       <c r="D32" t="inlineStr">
         <is>
           <t>20:33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>20:18</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>20:17</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>19:30</t>
         </is>
       </c>
     </row>
@@ -1325,7 +2139,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Balak</t>
+          <t>בלק</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1336,6 +2150,31 @@
       <c r="D33" t="inlineStr">
         <is>
           <t>20:31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>19:46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>20:16</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>20:14</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>19:25</t>
         </is>
       </c>
     </row>
@@ -1347,7 +2186,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pinchas</t>
+          <t>פינחס</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1358,6 +2197,31 @@
       <c r="D34" t="inlineStr">
         <is>
           <t>20:27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>20:13</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>19:25</t>
         </is>
       </c>
     </row>
@@ -1369,7 +2233,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Matot-Masei</t>
+          <t>מטות-מסעי</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1380,6 +2244,31 @@
       <c r="D35" t="inlineStr">
         <is>
           <t>20:23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>19:38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>20:08</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>19:20</t>
         </is>
       </c>
     </row>
@@ -1391,7 +2280,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Devarim</t>
+          <t>דברים</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1402,6 +2291,31 @@
       <c r="D36" t="inlineStr">
         <is>
           <t>20:17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>20:02</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>19:59</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>19:10</t>
         </is>
       </c>
     </row>
@@ -1413,7 +2327,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Vaetchanan</t>
+          <t>ואתחנן</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1424,6 +2338,31 @@
       <c r="D37" t="inlineStr">
         <is>
           <t>20:10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>19:56</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>19:51</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>19:05</t>
         </is>
       </c>
     </row>
@@ -1435,7 +2374,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Eikev</t>
+          <t>עקב</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1446,6 +2385,31 @@
       <c r="D38" t="inlineStr">
         <is>
           <t>20:02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>19:17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>18:55</t>
         </is>
       </c>
     </row>
@@ -1457,7 +2421,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Re’eh</t>
+          <t>ראה</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1468,6 +2432,31 @@
       <c r="D39" t="inlineStr">
         <is>
           <t>19:54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>19:14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>19:09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>18:50</t>
         </is>
       </c>
     </row>
@@ -1479,7 +2468,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Shoftim</t>
+          <t>שופטים</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1490,6 +2479,31 @@
       <c r="D40" t="inlineStr">
         <is>
           <t>19:45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>18:40</t>
         </is>
       </c>
     </row>
@@ -1501,7 +2515,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ki Teitzei</t>
+          <t>כי-תצא</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1512,6 +2526,31 @@
       <c r="D41" t="inlineStr">
         <is>
           <t>19:35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>18:56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>18:51</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>19:16</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>18:30</t>
         </is>
       </c>
     </row>
@@ -1523,7 +2562,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ki Tavo</t>
+          <t>כי-תבוא</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1534,6 +2573,31 @@
       <c r="D42" t="inlineStr">
         <is>
           <t>19:26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>18:47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>18:42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>19:12</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>19:07</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>18:20</t>
         </is>
       </c>
     </row>
@@ -1545,7 +2609,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nitzavim</t>
+          <t>ניצבים</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1556,6 +2620,31 @@
       <c r="D43" t="inlineStr">
         <is>
           <t>19:16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>18:38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>18:33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>18:15</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A29:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,175 +434,175 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>API_parasha_hebrew</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D29" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E29" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F29" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G29" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H29" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I29" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J29" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K29" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L29" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M29" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N29" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>מוצאי שבת קודש</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="O29" s="1" t="inlineStr">
+        <is>
+          <t>מוצאי שבת Kodch</t>
+        </is>
+      </c>
+      <c r="P29" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q29" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>16/05/2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>פָּרָשַׁת אֱמוֹר</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>פרשת אמור</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>19:14</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>19:14</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>17:45</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>19:55</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>17:55</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>20:13</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>23/05/2025</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
@@ -764,7 +764,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:20</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>16:45</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:10</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:20</t>
         </is>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:15</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>19:00</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>18:25</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A29:Q30"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,175 +434,175 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>API_parasha_hebrew</t>
         </is>
       </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>כנסית שבת</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>תהילים לילדים</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשת השבוע</t>
         </is>
       </c>
-      <c r="L29" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="M29" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="N29" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצ"ש</t>
         </is>
       </c>
-      <c r="O29" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת Kodch</t>
         </is>
       </c>
-      <c r="P29" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Date)</t>
         </is>
       </c>
-      <c r="Q29" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>שבת הבאה (Heure)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>16/05/2025</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>פָּרָשַׁת אֱמוֹר</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>פרשת אמור</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>19:14</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>19:14</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>17:55</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20:13</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>23/05/2025</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,36 @@
           <t>צאת שבת</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>שקיעה Dimanche</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>שקיעה Jeudi</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>צאת הכוכבים Dimanche</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>צאת הכוכבים Jeudi</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>מנחה חול</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ערבית חול</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -480,6 +510,36 @@
           <t>17:16</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>17:04</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -502,6 +562,36 @@
           <t>17:17</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16:37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16:39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17:06</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -524,6 +614,36 @@
           <t>17:20</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16:43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -546,6 +666,36 @@
           <t>17:24</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16:44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16:47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>17:12</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -568,6 +718,36 @@
           <t>17:29</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>16:53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -590,6 +770,36 @@
           <t>17:35</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>16:56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>16:59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>17:23</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>17:26</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -612,6 +822,36 @@
           <t>17:41</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>17:06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -634,6 +874,36 @@
           <t>17:47</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17:12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -656,6 +926,36 @@
           <t>17:53</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>17:41</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>17:44</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -678,6 +978,36 @@
           <t>17:58</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>17:21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>17:47</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -700,6 +1030,36 @@
           <t>18:04</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17:27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>17:31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>17:53</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>17:56</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -722,6 +1082,36 @@
           <t>18:10</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>17:33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>17:36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>17:58</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>18:01</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>17:55</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -744,6 +1134,36 @@
           <t>18:15</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>17:42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>18:04</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>18:06</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>18:05</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -766,6 +1186,36 @@
           <t>18:20</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>17:44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>17:47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>18:09</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>18:11</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -788,6 +1238,36 @@
           <t>18:25</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>17:49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>17:52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>18:14</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>18:16</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -810,6 +1290,36 @@
           <t>18:30</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>17:54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>17:56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>18:19</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>18:21</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -832,6 +1342,36 @@
           <t>19:35</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>19:01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -854,6 +1394,36 @@
           <t>19:40</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>19:06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -876,6 +1446,36 @@
           <t>19:45</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>19:08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>19:11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>19:36</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -898,6 +1498,36 @@
           <t>19:51</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>19:13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>19:16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>19:39</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>19:42</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -920,6 +1550,36 @@
           <t>19:56</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>19:18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>19:21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>19:47</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -942,6 +1602,36 @@
           <t>20:02</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>19:53</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -964,6 +1654,36 @@
           <t>20:08</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>19:58</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -986,6 +1706,36 @@
           <t>20:13</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>20:03</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1008,6 +1758,36 @@
           <t>20:19</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>19:37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>20:08</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1030,6 +1810,36 @@
           <t>20:23</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>20:12</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1052,6 +1862,36 @@
           <t>20:28</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>19:47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>20:14</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1074,6 +1914,36 @@
           <t>20:31</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>20:17</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>20:18</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1096,6 +1966,36 @@
           <t>20:33</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>20:18</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1118,6 +2018,36 @@
           <t>20:33</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1140,6 +2070,36 @@
           <t>20:33</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>20:18</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>20:17</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1162,6 +2122,36 @@
           <t>20:31</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>19:46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>20:16</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>20:14</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1184,6 +2174,36 @@
           <t>20:27</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>20:13</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1206,6 +2226,36 @@
           <t>20:23</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>19:38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>20:08</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1228,6 +2278,36 @@
           <t>20:17</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>20:02</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>19:59</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1250,6 +2330,36 @@
           <t>20:10</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>19:56</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>19:51</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1272,6 +2382,36 @@
           <t>20:02</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>19:17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1294,6 +2434,36 @@
           <t>19:54</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>19:14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>19:09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1316,6 +2486,36 @@
           <t>19:45</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1338,6 +2538,36 @@
           <t>19:35</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>18:56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>18:51</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>19:16</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1360,6 +2590,36 @@
           <t>19:26</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>18:47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>18:42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>19:12</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>19:07</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>18:25</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1380,6 +2640,36 @@
       <c r="D43" t="inlineStr">
         <is>
           <t>19:16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>18:38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>18:33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>19:00</t>
         </is>
       </c>
     </row>
@@ -1394,7 +2684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:U4"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,215 +2692,209 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>API_parasha_hebrew</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>כניסת שבת</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>מנחה אחרי צהריים</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>תהילים</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשה</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצאי שבת</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ערבית חול</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>מנחה חול</t>
         </is>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת Kodch</t>
         </is>
       </c>
-      <c r="R3" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sabbath suivant (Date)</t>
         </is>
       </c>
-      <c r="S3" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sabbath suivant (Heure)</t>
         </is>
       </c>
-      <c r="T3" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>שבת מברכין</t>
         </is>
       </c>
-      <c r="U3" s="1" t="inlineStr">
-        <is>
-          <t>מולד</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>06/06/2025</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>נשא</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>נשא</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>19:26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>19:10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>14:20</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>15:50</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>פָּרָשַׁת בְּהַר־בְּחֻקֹּתַי</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>פרשת בהר־בחקתי</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>19:18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>19:18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>20:35</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>19:05</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>20:28</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Oui</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,36 +458,6 @@
           <t>צאת שבת</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>שקיעה Dimanche</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>שקיעה Jeudi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>צאת הכוכבים Dimanche</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>צאת הכוכבים Jeudi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>מנחה חול</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>ערבית חול</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -510,36 +480,6 @@
           <t>17:16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>16:35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>16:36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>17:03</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>17:04</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -562,36 +502,6 @@
           <t>17:17</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>16:37</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>16:39</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>17:05</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>17:06</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>16:20</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>17:05</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -614,36 +524,6 @@
           <t>17:20</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>16:40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>16:43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>17:08</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>17:10</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>16:20</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>17:05</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -666,36 +546,6 @@
           <t>17:24</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>16:44</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>16:47</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>17:12</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>16:25</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>17:10</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -718,36 +568,6 @@
           <t>17:29</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>16:50</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>16:53</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>17:17</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>17:20</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>17:15</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -770,36 +590,6 @@
           <t>17:35</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>16:56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>16:59</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>17:23</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>17:26</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>16:35</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>17:20</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -822,36 +612,6 @@
           <t>17:41</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>17:02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>17:06</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>17:29</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>17:32</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -874,36 +634,6 @@
           <t>17:47</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>17:08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>17:12</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>17:38</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>16:50</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>17:35</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -926,36 +656,6 @@
           <t>17:53</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>17:18</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>17:41</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>17:44</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>16:55</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>17:40</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -978,36 +678,6 @@
           <t>17:58</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>17:21</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>17:25</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>17:47</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>17:50</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>17:45</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1030,36 +700,6 @@
           <t>18:04</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>17:27</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>17:31</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>17:53</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>17:56</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>17:10</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>17:50</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1082,36 +722,6 @@
           <t>18:10</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>17:33</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>17:36</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>17:58</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>18:01</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>17:55</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1134,36 +744,6 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>17:38</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>17:42</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>18:04</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>18:06</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>17:20</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>18:05</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1186,36 +766,6 @@
           <t>18:20</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>17:44</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>17:47</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>18:09</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>18:11</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>17:25</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>18:10</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1238,36 +788,6 @@
           <t>18:25</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>17:49</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>17:52</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>18:14</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>18:16</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>18:15</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1290,36 +810,6 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>17:54</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>17:56</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>18:19</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>18:21</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>18:20</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1342,36 +832,6 @@
           <t>19:35</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>18:58</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>19:01</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>19:23</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>19:26</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>18:40</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>19:20</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1394,36 +854,6 @@
           <t>19:40</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>19:03</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>19:06</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>19:28</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>19:31</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>18:45</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>19:25</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1446,36 +876,6 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>19:08</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>19:11</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>19:34</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>19:36</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>18:50</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>19:35</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1498,36 +898,6 @@
           <t>19:51</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>19:13</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>19:16</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>19:39</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>19:42</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>18:55</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>19:40</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1550,36 +920,6 @@
           <t>19:56</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>19:18</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>19:21</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>19:44</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>19:47</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1602,36 +942,6 @@
           <t>20:02</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>19:23</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>19:26</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>19:53</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>19:05</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1654,36 +964,6 @@
           <t>20:08</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>19:28</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>19:31</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>19:55</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>19:58</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>19:10</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>19:55</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1706,36 +986,6 @@
           <t>20:13</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>19:33</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>19:35</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>20:03</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>19:15</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1758,36 +1008,6 @@
           <t>20:19</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>19:37</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>19:40</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>20:05</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>20:08</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>19:20</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>20:05</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1810,36 +1030,6 @@
           <t>20:23</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>19:41</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>19:44</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>20:10</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>20:12</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>19:20</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>20:10</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1862,36 +1052,6 @@
           <t>20:28</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>19:47</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>20:14</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>20:15</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>20:15</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1914,36 +1074,6 @@
           <t>20:31</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>19:48</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>19:49</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>20:17</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>20:18</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>20:15</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1966,36 +1096,6 @@
           <t>20:33</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>20:18</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>20:19</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>20:15</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2018,36 +1118,6 @@
           <t>20:33</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>20:19</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>20:19</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>20:20</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2070,36 +1140,6 @@
           <t>20:33</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>19:49</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>20:18</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>20:17</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>20:15</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2122,36 +1162,6 @@
           <t>20:31</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>19:48</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>19:46</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>20:16</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>20:14</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>20:15</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2174,36 +1184,6 @@
           <t>20:27</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>19:43</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>20:13</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>20:10</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>20:10</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2226,36 +1206,6 @@
           <t>20:23</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>19:41</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>19:38</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>20:08</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>20:05</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>19:20</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>20:05</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2278,36 +1228,6 @@
           <t>20:17</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>19:35</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>19:32</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>20:02</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>19:59</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>19:15</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2330,36 +1250,6 @@
           <t>20:10</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>19:29</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>19:56</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>19:51</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>19:05</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2382,36 +1272,6 @@
           <t>20:02</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>19:22</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>19:17</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>19:48</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>19:43</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2434,36 +1294,6 @@
           <t>19:54</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>19:14</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>19:09</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>19:40</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>19:35</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>18:50</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>19:35</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2486,36 +1316,6 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>19:05</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>19:31</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>19:26</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>18:40</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>19:25</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2538,36 +1338,6 @@
           <t>19:35</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>18:56</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>18:51</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>19:22</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>19:16</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>19:15</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2590,36 +1360,6 @@
           <t>19:26</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>18:47</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>18:42</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>19:12</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>19:07</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>18:25</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>19:05</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2640,36 +1380,6 @@
       <c r="D43" t="inlineStr">
         <is>
           <t>19:16</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>18:38</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>18:33</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>19:03</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>18:58</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>18:15</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>19:00</t>
         </is>
       </c>
     </row>
@@ -2684,7 +1394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,65 +1440,60 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>מנחה אחרי צהריים</t>
+          <t>מנחה גדולה</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>תהילים</t>
+          <t>תהילים קיץ</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>תהילים חורף</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשה</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצאי שבת</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ערבית חול</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>מנחה חול</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת Kodch</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sabbath suivant (Date)</t>
-        </is>
-      </c>
       <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sabbath suivant (Heure)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>שבת מברכין</t>
         </is>
@@ -2802,12 +1507,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>פָּרָשַׁת בְּהַר־בְּחֻקֹּתַי</t>
+          <t>בהר-בחוקותי</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>פרשת בהר־בחקתי</t>
+          <t>בהר-בחוקותי</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2837,60 +1542,55 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>18:45</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>20:19</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>30/05/2025</t>
-        </is>
-      </c>
       <c r="S2" t="inlineStr">
-        <is>
-          <t>19:15</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
         <is>
           <t>Oui</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,31 @@
           <t>צאת שבת</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>שקיעה Dimanche</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>שקיעה Jeudi</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>צאת הכוכבים Dimanche</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>צאת הכוכבים Jeudi</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>מנחה ביניים</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -480,6 +505,31 @@
           <t>17:16</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>17:04</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -502,6 +552,31 @@
           <t>17:17</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16:37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16:39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17:06</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -524,6 +599,31 @@
           <t>17:20</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16:43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -546,6 +646,31 @@
           <t>17:24</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16:44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16:47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>17:12</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -568,6 +693,31 @@
           <t>17:29</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>16:53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -590,6 +740,31 @@
           <t>17:35</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>16:56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>16:59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>17:23</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>17:26</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -612,6 +787,31 @@
           <t>17:41</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>17:06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -634,6 +834,31 @@
           <t>17:47</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17:12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -656,6 +881,31 @@
           <t>17:53</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>17:41</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>17:44</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -678,6 +928,31 @@
           <t>17:58</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>17:21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>17:47</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -700,6 +975,31 @@
           <t>18:04</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17:27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>17:31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>17:53</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>17:56</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -722,6 +1022,31 @@
           <t>18:10</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>17:33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>17:36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>17:58</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>18:01</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -744,6 +1069,31 @@
           <t>18:15</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>17:42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>18:04</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>18:06</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -766,6 +1116,31 @@
           <t>18:20</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>17:44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>17:47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>18:09</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>18:11</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -788,6 +1163,31 @@
           <t>18:25</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>17:49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>17:52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>18:14</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>18:16</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -810,6 +1210,31 @@
           <t>18:30</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>17:54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>17:56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>18:19</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>18:21</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -832,6 +1257,31 @@
           <t>19:35</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>19:01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -854,6 +1304,31 @@
           <t>19:40</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>19:06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -876,6 +1351,31 @@
           <t>19:45</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>19:08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>19:11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>19:36</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -898,6 +1398,31 @@
           <t>19:51</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>19:13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>19:16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>19:39</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>19:42</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -920,6 +1445,31 @@
           <t>19:56</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>19:18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>19:21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>19:47</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -942,6 +1492,31 @@
           <t>20:02</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>19:53</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -964,6 +1539,31 @@
           <t>20:08</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>19:58</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -986,6 +1586,31 @@
           <t>20:13</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>20:03</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1008,6 +1633,31 @@
           <t>20:19</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>19:37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>20:08</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1030,6 +1680,31 @@
           <t>20:23</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>20:12</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1052,6 +1727,31 @@
           <t>20:28</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>19:47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>20:14</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1074,6 +1774,31 @@
           <t>20:31</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>20:17</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>20:18</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1096,6 +1821,31 @@
           <t>20:33</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>20:18</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1118,6 +1868,31 @@
           <t>20:33</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1140,6 +1915,31 @@
           <t>20:33</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>20:18</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>20:17</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1162,6 +1962,31 @@
           <t>20:31</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>19:46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>20:16</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>20:14</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1184,6 +2009,31 @@
           <t>20:27</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>20:13</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1206,6 +2056,31 @@
           <t>20:23</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>19:38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>20:08</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1228,6 +2103,31 @@
           <t>20:17</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>20:02</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>19:59</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1250,6 +2150,31 @@
           <t>20:10</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>19:56</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>19:51</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1272,6 +2197,31 @@
           <t>20:02</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>19:17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1294,6 +2244,31 @@
           <t>19:54</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>19:14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>19:09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1316,6 +2291,31 @@
           <t>19:45</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1338,6 +2338,31 @@
           <t>19:35</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>18:56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>18:51</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>19:16</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1360,6 +2385,31 @@
           <t>19:26</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>18:47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>18:42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>19:12</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>19:07</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>18:25</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1380,6 +2430,31 @@
       <c r="D43" t="inlineStr">
         <is>
           <t>19:16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>18:38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>18:33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>18:15</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -2577,32 +2577,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>בהר-בחוקותי</t>
+          <t>במדבר</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>בהר-בחוקותי</t>
+          <t>במדבר</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19:18</t>
+          <t>19:23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19:18</t>
+          <t>19:23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2632,29 +2632,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:05</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>20:05</t>
-        </is>
-      </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>19:20</t>
@@ -2662,12 +2662,12 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>20:19</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Oui</t>
+          <t>Non</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -2627,7 +2627,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>20:10</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -2627,7 +2627,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -641,7 +641,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:50</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2369,21 +2369,21 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45821</v>
+        <v>45814</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>בהעלותך</t>
+          <t>נשא</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>בהעלותך</t>
+          <t>נשא</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2393,12 +2393,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2428,22 +2428,22 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>20:31</t>
+          <t>20:28</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,50 +449,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>תאריך</t>
+          <t>פרשה</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>פרשה</t>
+          <t>כנסית שבת</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>כנסית שבת</t>
+          <t>צאת שבת</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>צאת שבת</t>
+          <t>שקיעה Dimanche</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>שקיעה Dimanche</t>
+          <t>שקיעה Jeudi</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>שקיעה Jeudi</t>
+          <t>מנחה ביניים</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>מנחה ביניים</t>
+          <t>ערבית ביניים</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ערבית ביניים</t>
+          <t>שבת מברכין</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>שבת מברכין</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>מולד</t>
         </is>
@@ -504,22 +499,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>06/12/2024</t>
+          <t>ויצא</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ויצא</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -529,25 +524,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16:36</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2024-11-30 18:54</t>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2024-12-01 04:49</t>
         </is>
       </c>
     </row>
@@ -557,50 +547,45 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13/12/2024</t>
+          <t>וישלח</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>וישלח</t>
+          <t>16:19</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16:19</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>16:37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>16:20</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2024-11-30 18:54</t>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2024-12-01 04:49</t>
         </is>
       </c>
     </row>
@@ -610,50 +595,45 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20/12/2024</t>
+          <t>וישב</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>וישב</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16:42</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>16:20</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
           <t>17:05</t>
         </is>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2024-11-30 18:54</t>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2024-12-01 04:49</t>
         </is>
       </c>
     </row>
@@ -663,50 +643,45 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>27/12/2024</t>
+          <t>מקץ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>מקץ</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>17:24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16:44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16:47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>16:25</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>17:24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>16:46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>16:47</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>16:25</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
           <t>17:10</t>
         </is>
       </c>
-      <c r="J5" t="b">
+      <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2024-11-30 18:54</t>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2024-12-01 04:49</t>
         </is>
       </c>
     </row>
@@ -716,50 +691,45 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>ויגש</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ויגש</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>17:29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>16:53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>17:29</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>16:51</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>16:52</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
           <t>17:15</t>
         </is>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2024-12-30 05:08</t>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2024-12-30 17:33</t>
         </is>
       </c>
     </row>
@@ -769,50 +739,45 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10/01/2025</t>
+          <t>ויחי</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ויחי</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16:36</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>16:57</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>16:35</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
           <t>17:20</t>
         </is>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2024-12-30 05:08</t>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2024-12-30 17:33</t>
         </is>
       </c>
     </row>
@@ -822,50 +787,45 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17/01/2025</t>
+          <t>שמות</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>שמות</t>
+          <t>16:42</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16:42</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>17:04</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>17:25</t>
-        </is>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2024-12-30 05:08</t>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2024-12-30 17:33</t>
         </is>
       </c>
     </row>
@@ -875,50 +835,45 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24/01/2025</t>
+          <t>וארא</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>וארא</t>
+          <t>16:49</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16:49</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>17:12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>17:11</t>
+          <t>16:50</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>16:50</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
           <t>17:35</t>
         </is>
       </c>
-      <c r="J9" t="b">
+      <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2024-12-30 05:08</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2024-12-30 17:33</t>
         </is>
       </c>
     </row>
@@ -928,50 +883,45 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>31/01/2025</t>
+          <t>בא</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>בא</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>17:53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>16:55</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>17:53</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>17:17</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>17:18</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>16:55</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
           <t>17:40</t>
         </is>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2025-01-28 13:10</t>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-01-29 06:17</t>
         </is>
       </c>
     </row>
@@ -981,50 +931,45 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>07/02/2025</t>
+          <t>בשלח</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>בשלח</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>17:58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17:58</t>
+          <t>17:21</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>17:05</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
           <t>17:45</t>
         </is>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2025-01-28 13:10</t>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-01-29 06:17</t>
         </is>
       </c>
     </row>
@@ -1034,50 +979,45 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14/02/2025</t>
+          <t>יתרו</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>יתרו</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>18:04</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18:04</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17:10</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>17:50</t>
-        </is>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2025-01-28 13:10</t>
+          <t>17:55</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-01-29 06:17</t>
         </is>
       </c>
     </row>
@@ -1087,50 +1027,45 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21/02/2025</t>
+          <t>משפטים</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>משפטים</t>
+          <t>17:14</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17:14</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>17:36</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>17:55</t>
-        </is>
-      </c>
-      <c r="J13" t="b">
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
         <v>1</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2025-01-28 13:10</t>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-01-29 06:17</t>
         </is>
       </c>
     </row>
@@ -1140,50 +1075,45 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>28/02/2025</t>
+          <t>תרומה</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>תרומה</t>
+          <t>17:19</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17:19</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>17:42</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>17:20</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
           <t>18:05</t>
         </is>
       </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2025-02-26 20:01</t>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-02-28 19:02</t>
         </is>
       </c>
     </row>
@@ -1193,50 +1123,45 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>07/03/2025</t>
+          <t>תצוה</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>תצוה</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>17:44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>17:47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>17:25</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>18:20</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>17:45</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>17:46</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>17:25</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
           <t>18:10</t>
         </is>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2025-02-26 20:01</t>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-02-28 19:02</t>
         </is>
       </c>
     </row>
@@ -1246,50 +1171,45 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14/03/2025</t>
+          <t>כי-תשא</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>כי-תשא</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>18:25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>17:49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>17:52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>18:25</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>17:50</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>17:51</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2025-02-26 20:01</t>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-02-28 19:02</t>
         </is>
       </c>
     </row>
@@ -1299,50 +1219,45 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>ויקהל</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ויקהל</t>
+          <t>17:34</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>17:34</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:54</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:56</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>17:56</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
           <t>18:20</t>
         </is>
       </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2025-02-26 20:01</t>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-02-28 19:02</t>
         </is>
       </c>
     </row>
@@ -1352,50 +1267,45 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>28/03/2025</t>
+          <t>פקודי</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>פקודי</t>
+          <t>18:39</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>18:39</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>18:58</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:01</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>18:40</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>19:20</t>
-        </is>
-      </c>
-      <c r="J18" t="b">
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
         <v>1</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2025-03-28 02:43</t>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-02-28 19:02</t>
         </is>
       </c>
     </row>
@@ -1405,50 +1315,45 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>04/04/2025</t>
+          <t>ויקרא</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ויקרא</t>
+          <t>18:44</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18:44</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:03</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>18:45</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2025-03-28 02:43</t>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2025-03-29 07:46</t>
         </is>
       </c>
     </row>
@@ -1458,50 +1363,45 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11/04/2025</t>
+          <t>צו</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>צו</t>
+          <t>18:49</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>18:49</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>19:09</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>18:50</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2025-03-28 02:43</t>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2025-03-29 07:46</t>
         </is>
       </c>
     </row>
@@ -1511,50 +1411,45 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>18/04/2025</t>
+          <t>פסח</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>פסח</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>19:51</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>19:51</t>
+          <t>19:13</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>19:14</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>18:55</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>19:35</t>
-        </is>
-      </c>
-      <c r="J21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2025-03-28 02:43</t>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-03-29 07:46</t>
         </is>
       </c>
     </row>
@@ -1564,50 +1459,45 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>25/04/2025</t>
+          <t>שמיני</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>שמיני</t>
+          <t>18:59</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>18:59</t>
+          <t>19:56</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>19:56</t>
+          <t>19:18</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>19:19</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>19:40</t>
-        </is>
-      </c>
-      <c r="J22" t="b">
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
         <v>1</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2025-03-28 02:43</t>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-03-29 07:46</t>
         </is>
       </c>
     </row>
@@ -1617,50 +1507,45 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>02/05/2025</t>
+          <t>תזריע-מצורע</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>תזריע-מצורע</t>
+          <t>19:04</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>19:04</t>
+          <t>20:02</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20:02</t>
+          <t>19:23</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>19:24</t>
+          <t>19:26</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>19:05</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2025-04-26 08:19</t>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2025-04-28 20:30</t>
         </is>
       </c>
     </row>
@@ -1670,50 +1555,45 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>09/05/2025</t>
+          <t>אחרי-מות קדושים</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>אחרי-מות קדושים</t>
+          <t>19:09</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>19:09</t>
+          <t>20:08</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>20:08</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:31</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>19:10</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
-      <c r="J24" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2025-04-26 08:19</t>
+          <t>19:55</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-04-28 20:30</t>
         </is>
       </c>
     </row>
@@ -1723,50 +1603,45 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16/05/2025</t>
+          <t>אמור</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>אמור</t>
+          <t>19:14</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19:14</t>
+          <t>20:13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20:13</t>
+          <t>19:33</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>19:15</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
           <t>19:55</t>
         </is>
       </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2025-04-26 08:19</t>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-04-28 20:30</t>
         </is>
       </c>
     </row>
@@ -1776,50 +1651,45 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>בהר-בחוקותי</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>בהר-בחוקותי</t>
+          <t>19:18</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19:18</t>
+          <t>20:19</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20:19</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>19:38</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19:39</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>19:20</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
           <t>20:00</t>
         </is>
       </c>
-      <c r="J26" t="b">
+      <c r="I26" t="b">
         <v>1</v>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2025-04-26 08:19</t>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2025-04-28 20:30</t>
         </is>
       </c>
     </row>
@@ -1829,50 +1699,45 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>במדבר</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>במדבר</t>
+          <t>19:23</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19:23</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>19:41</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
           <t>20:05</t>
         </is>
       </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>2025-05-25 13:01</t>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2025-05-27 09:14</t>
         </is>
       </c>
     </row>
@@ -1882,50 +1747,45 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>נשא</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>נשא</t>
+          <t>19:26</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>19:26</t>
+          <t>20:28</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20:28</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>19:47</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>2025-05-25 13:01</t>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2025-05-27 09:14</t>
         </is>
       </c>
     </row>
@@ -1935,50 +1795,45 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>בהעלותך</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>בהעלותך</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>20:31</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20:31</t>
+          <t>19:48</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>19:48</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2025-05-25 13:01</t>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2025-05-27 09:14</t>
         </is>
       </c>
     </row>
@@ -1988,22 +1843,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>שלח</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>שלח</t>
+          <t>19:32</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>20:33</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20:33</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2013,25 +1868,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J30" t="b">
+      <c r="I30" t="b">
         <v>1</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>2025-05-25 13:01</t>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2025-05-27 09:14</t>
         </is>
       </c>
     </row>
@@ -2041,22 +1891,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>קרח</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>קרח</t>
+          <t>19:33</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19:33</t>
+          <t>20:33</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20:33</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2066,25 +1916,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>2025-06-24 16:59</t>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2025-06-26 21:58</t>
         </is>
       </c>
     </row>
@@ -2094,22 +1939,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>חוקת</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>חוקת</t>
+          <t>19:32</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>20:33</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20:33</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2119,25 +1964,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J32" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>2025-06-24 16:59</t>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2025-06-26 21:58</t>
         </is>
       </c>
     </row>
@@ -2147,50 +1987,45 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>בלק</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>בלק</t>
+          <t>19:31</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>20:31</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>20:31</t>
+          <t>19:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>19:47</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>19:47</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J33" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>2025-06-24 16:59</t>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2025-06-26 21:58</t>
         </is>
       </c>
     </row>
@@ -2200,50 +2035,45 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>18/07/2025</t>
+          <t>פינחס</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>פינחס</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
           <t>20:05</t>
         </is>
       </c>
-      <c r="J34" t="b">
+      <c r="I34" t="b">
         <v>1</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>2025-06-24 16:59</t>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2025-06-26 21:58</t>
         </is>
       </c>
     </row>
@@ -2253,50 +2083,45 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>25/07/2025</t>
+          <t>מטות-מסעי</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>מטות-מסעי</t>
+          <t>19:24</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>19:24</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>19:41</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>19:39</t>
+          <t>19:38</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19:39</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>19:20</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="J35" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>2025-07-24 20:26</t>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:42</t>
         </is>
       </c>
     </row>
@@ -2306,50 +2131,45 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01/08/2025</t>
+          <t>דברים</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>דברים</t>
+          <t>19:19</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>19:19</t>
+          <t>20:17</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20:17</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>19:32</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19:33</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>19:15</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
           <t>19:55</t>
         </is>
       </c>
-      <c r="J36" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>2025-07-24 20:26</t>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:42</t>
         </is>
       </c>
     </row>
@@ -2359,50 +2179,45 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>08/08/2025</t>
+          <t>ואתחנן</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ואתחנן</t>
+          <t>19:13</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>19:13</t>
+          <t>20:10</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19:26</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>19:05</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="J37" t="b">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>2025-07-24 20:26</t>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:42</t>
         </is>
       </c>
     </row>
@@ -2412,50 +2227,45 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>עקב</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>עקב</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>20:02</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>20:02</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:17</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19:18</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>19:40</t>
-        </is>
-      </c>
-      <c r="J38" t="b">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>2025-07-24 20:26</t>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:42</t>
         </is>
       </c>
     </row>
@@ -2465,50 +2275,45 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>22/08/2025</t>
+          <t>ראה</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ראה</t>
+          <t>18:59</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>18:59</t>
+          <t>19:54</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>19:54</t>
+          <t>19:14</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>19:09</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>18:50</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="J39" t="b">
+      <c r="I39" t="b">
         <v>1</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>2025-07-24 20:26</t>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:42</t>
         </is>
       </c>
     </row>
@@ -2518,50 +2323,45 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>29/08/2025</t>
+          <t>שופטים</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>שופטים</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>19:03</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19:02</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>18:40</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="J40" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>2025-08-23 23:21</t>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2025-08-24 23:26</t>
         </is>
       </c>
     </row>
@@ -2571,50 +2371,45 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>05/09/2025</t>
+          <t>כי-תצא</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>כי-תצא</t>
+          <t>18:41</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>18:41</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>18:56</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>18:51</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>18:53</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>18:35</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>19:15</t>
-        </is>
-      </c>
-      <c r="J41" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>2025-08-23 23:21</t>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2025-08-24 23:26</t>
         </is>
       </c>
     </row>
@@ -2624,50 +2419,45 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>12/09/2025</t>
+          <t>כי-תבוא</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>כי-תבוא</t>
+          <t>18:32</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>18:32</t>
+          <t>19:26</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>19:26</t>
+          <t>18:47</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>18:25</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>19:05</t>
-        </is>
-      </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>2025-08-23 23:21</t>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2025-08-24 23:26</t>
         </is>
       </c>
     </row>
@@ -2677,50 +2467,45 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>19/09/2025</t>
+          <t>ניצבים</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ניצבים</t>
+          <t>18:23</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>18:23</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>18:38</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18:34</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>18:15</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>18:55</t>
-        </is>
-      </c>
-      <c r="J43" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>2025-08-23 23:21</t>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2025-08-24 23:26</t>
         </is>
       </c>
     </row>
@@ -2735,7 +2520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2849,49 +2634,39 @@
           <t>מולד</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>שקיעה Dimanche</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>שקיעה Jeudi</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>45828</v>
+        <v>45821</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>שלח</t>
+          <t>בהעלותך</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>שלח</t>
+          <t>בהעלותך</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2951,27 +2726,17 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>20:33</t>
+          <t>20:31</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Oui</t>
+          <t>Non</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2025-05-25 13:01</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>19:50</t>
+          <t>2025-05-27 09:14</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -60,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -433,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,20 +481,12 @@
           <t>ערבית ביניים</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>שבת מברכין</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>מולד</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>45632</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-12-06 00:00:00</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -532,18 +523,12 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2024-12-01 04:49</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>45639</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-12-13 00:00:00</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -580,18 +565,12 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2024-12-01 04:49</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>45646</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-12-20 00:00:00</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -628,18 +607,12 @@
           <t>17:05</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2024-12-01 04:49</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>45653</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-12-27 00:00:00</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -676,18 +649,12 @@
           <t>17:10</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2024-12-01 04:49</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45660</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-01-03 00:00:00</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -724,18 +691,12 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2024-12-30 17:33</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>45667</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-01-10 00:00:00</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -772,18 +733,12 @@
           <t>17:20</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2024-12-30 17:33</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>45674</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-01-17 00:00:00</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -820,18 +775,12 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2024-12-30 17:33</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>45681</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-01-24 00:00:00</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -868,18 +817,12 @@
           <t>17:35</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2024-12-30 17:33</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>45688</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-01-31 00:00:00</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -916,18 +859,12 @@
           <t>17:40</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2025-01-29 06:17</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>45695</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-02-07 00:00:00</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -964,18 +901,12 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2025-01-29 06:17</t>
-        </is>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>45702</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-02-14 00:00:00</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1012,18 +943,12 @@
           <t>17:55</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>2025-01-29 06:17</t>
-        </is>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>45709</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-02-21 00:00:00</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1060,18 +985,12 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>2025-01-29 06:17</t>
-        </is>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>45716</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-02-28 00:00:00</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1108,18 +1027,12 @@
           <t>18:05</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>2025-02-28 19:02</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>45723</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-07 00:00:00</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1156,18 +1069,12 @@
           <t>18:10</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>2025-02-28 19:02</t>
-        </is>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>45730</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-14 00:00:00</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1204,18 +1111,12 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>2025-02-28 19:02</t>
-        </is>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>45737</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-21 00:00:00</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1252,18 +1153,12 @@
           <t>18:20</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2025-02-28 19:02</t>
-        </is>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>45744</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1300,18 +1195,12 @@
           <t>19:25</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>2025-02-28 19:02</t>
-        </is>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>45751</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-04 00:00:00</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1348,18 +1237,12 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2025-03-29 07:46</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>45758</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-04-11 00:00:00</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1396,18 +1279,12 @@
           <t>19:35</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2025-03-29 07:46</t>
-        </is>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>45765</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-04-18 00:00:00</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1444,18 +1321,12 @@
           <t>19:40</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>2025-03-29 07:46</t>
-        </is>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>45772</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-25 00:00:00</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1492,18 +1363,12 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>2025-03-29 07:46</t>
-        </is>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>45779</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-05-02 00:00:00</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1540,18 +1405,12 @@
           <t>19:50</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>2025-04-28 20:30</t>
-        </is>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>45786</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1588,18 +1447,12 @@
           <t>19:55</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>2025-04-28 20:30</t>
-        </is>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>45793</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-05-16 00:00:00</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1636,18 +1489,12 @@
           <t>19:55</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>2025-04-28 20:30</t>
-        </is>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>45800</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-05-23 00:00:00</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1684,18 +1531,12 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2025-04-28 20:30</t>
-        </is>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>45807</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-05-30 00:00:00</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1732,18 +1573,12 @@
           <t>20:05</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>2025-05-27 09:14</t>
-        </is>
-      </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>45814</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-06-06 00:00:00</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1780,18 +1615,12 @@
           <t>20:10</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>2025-05-27 09:14</t>
-        </is>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>45821</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-06-13 00:00:00</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1828,18 +1657,12 @@
           <t>20:10</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>2025-05-27 09:14</t>
-        </is>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>45828</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-06-20 00:00:00</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1876,18 +1699,12 @@
           <t>20:10</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>2025-05-27 09:14</t>
-        </is>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>45835</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-06-27 00:00:00</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1924,18 +1741,12 @@
           <t>20:10</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>2025-06-26 21:58</t>
-        </is>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>45842</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-07-04 00:00:00</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1972,18 +1783,12 @@
           <t>20:10</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>2025-06-26 21:58</t>
-        </is>
-      </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>45849</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-07-11 00:00:00</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2020,18 +1825,12 @@
           <t>20:10</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>2025-06-26 21:58</t>
-        </is>
-      </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>45856</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-07-18 00:00:00</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2068,18 +1867,12 @@
           <t>20:05</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>2025-06-26 21:58</t>
-        </is>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n">
-        <v>45863</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-07-25 00:00:00</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2116,18 +1909,12 @@
           <t>20:05</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:42</t>
-        </is>
-      </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>45870</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-08-01 00:00:00</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2164,18 +1951,12 @@
           <t>19:55</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:42</t>
-        </is>
-      </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n">
-        <v>45877</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-08-08 00:00:00</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2212,18 +1993,12 @@
           <t>19:50</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:42</t>
-        </is>
-      </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n">
-        <v>45884</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-08-15 00:00:00</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2260,18 +2035,12 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:42</t>
-        </is>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
-        <v>45891</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-08-22 00:00:00</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2308,18 +2077,12 @@
           <t>19:35</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:42</t>
-        </is>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
-        <v>45898</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-08-29 00:00:00</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2356,18 +2119,12 @@
           <t>19:25</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>2025-08-24 23:26</t>
-        </is>
-      </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
-        <v>45905</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-09-05 00:00:00</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2404,18 +2161,12 @@
           <t>19:20</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>2025-08-24 23:26</t>
-        </is>
-      </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n">
-        <v>45912</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-09-12 00:00:00</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2452,18 +2203,12 @@
           <t>19:10</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>2025-08-24 23:26</t>
-        </is>
-      </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
-        <v>45919</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-09-19 00:00:00</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2498,14 +2243,6 @@
       <c r="H43" t="inlineStr">
         <is>
           <t>19:00</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>2025-08-24 23:26</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2621,7 +2358,7 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>מוצאי שבת קודש</t>
+          <t>מוצאי שבת</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -2629,14 +2366,9 @@
           <t>שבת מברכין</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>מולד</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="3" t="n">
         <v>45821</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -2731,12 +2463,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>2025-05-27 09:14</t>
+          <t>לא</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -17,8 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,17 +473,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>צאת הכוכבים Dimanche</t>
+          <t>מנחה ביניים</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>צאת הכוכבים Jeudi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>מנחה ביניים</t>
+          <t>ערבית ביניים</t>
         </is>
       </c>
     </row>
@@ -517,17 +515,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>17:04</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>16:15</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -564,17 +557,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>17:06</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>16:20</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -611,17 +599,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>17:10</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>16:20</t>
+          <t>17:05</t>
         </is>
       </c>
     </row>
@@ -658,17 +641,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>17:12</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>16:25</t>
+          <t>17:10</t>
         </is>
       </c>
     </row>
@@ -705,17 +683,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>17:20</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>16:30</t>
+          <t>17:15</t>
         </is>
       </c>
     </row>
@@ -752,17 +725,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>17:26</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>16:35</t>
+          <t>17:20</t>
         </is>
       </c>
     </row>
@@ -799,17 +767,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>17:32</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>16:45</t>
+          <t>17:30</t>
         </is>
       </c>
     </row>
@@ -846,17 +809,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>17:35</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>17:38</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>16:50</t>
         </is>
       </c>
     </row>
@@ -893,17 +851,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>17:44</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>16:55</t>
+          <t>17:40</t>
         </is>
       </c>
     </row>
@@ -940,17 +893,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>17:50</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>17:00</t>
+          <t>17:45</t>
         </is>
       </c>
     </row>
@@ -987,17 +935,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17:53</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17:56</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>17:10</t>
+          <t>17:55</t>
         </is>
       </c>
     </row>
@@ -1034,17 +977,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17:58</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>18:01</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>17:15</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -1081,17 +1019,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18:04</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>18:06</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>17:20</t>
+          <t>18:05</t>
         </is>
       </c>
     </row>
@@ -1128,17 +1061,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>18:11</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>17:25</t>
+          <t>18:10</t>
         </is>
       </c>
     </row>
@@ -1175,17 +1103,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>18:16</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>17:30</t>
+          <t>18:15</t>
         </is>
       </c>
     </row>
@@ -1222,17 +1145,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>18:21</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>17:35</t>
+          <t>18:20</t>
         </is>
       </c>
     </row>
@@ -1269,17 +1187,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19:23</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>19:26</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>18:40</t>
+          <t>19:25</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1229,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>19:31</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>18:45</t>
+          <t>19:30</t>
         </is>
       </c>
     </row>
@@ -1363,17 +1271,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>19:36</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>18:50</t>
+          <t>19:35</t>
         </is>
       </c>
     </row>
@@ -1410,17 +1313,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19:39</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>19:42</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>18:55</t>
+          <t>19:40</t>
         </is>
       </c>
     </row>
@@ -1457,17 +1355,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>19:47</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>19:00</t>
+          <t>19:45</t>
         </is>
       </c>
     </row>
@@ -1504,17 +1397,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>19:50</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>19:53</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>19:05</t>
         </is>
       </c>
     </row>
@@ -1551,17 +1439,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>19:55</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>19:58</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>19:10</t>
         </is>
       </c>
     </row>
@@ -1598,17 +1481,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>20:03</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>19:15</t>
+          <t>19:55</t>
         </is>
       </c>
     </row>
@@ -1645,17 +1523,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>20:08</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>19:20</t>
+          <t>20:00</t>
         </is>
       </c>
     </row>
@@ -1692,17 +1565,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>20:12</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>19:20</t>
+          <t>20:05</t>
         </is>
       </c>
     </row>
@@ -1739,17 +1607,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20:14</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>20:15</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>19:25</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -1786,17 +1649,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20:17</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>20:18</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>19:30</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -1833,17 +1691,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20:18</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>20:19</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>19:30</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -1880,17 +1733,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20:19</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>20:19</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>19:30</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -1927,17 +1775,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20:18</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>20:17</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>19:30</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -1974,17 +1817,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20:16</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>20:14</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>19:25</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
@@ -2021,17 +1859,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20:13</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>20:10</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>19:25</t>
+          <t>20:05</t>
         </is>
       </c>
     </row>
@@ -2068,17 +1901,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20:08</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>20:05</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>19:20</t>
         </is>
       </c>
     </row>
@@ -2115,17 +1943,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20:02</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>19:59</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>19:15</t>
+          <t>19:55</t>
         </is>
       </c>
     </row>
@@ -2162,17 +1985,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19:56</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>19:51</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>19:05</t>
+          <t>19:50</t>
         </is>
       </c>
     </row>
@@ -2209,17 +2027,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19:48</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>19:43</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>19:00</t>
+          <t>19:45</t>
         </is>
       </c>
     </row>
@@ -2256,17 +2069,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>19:35</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>18:50</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2111,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>19:26</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>18:40</t>
+          <t>19:25</t>
         </is>
       </c>
     </row>
@@ -2350,17 +2153,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>19:16</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>18:30</t>
+          <t>19:20</t>
         </is>
       </c>
     </row>
@@ -2397,17 +2195,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>19:12</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>19:07</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>18:25</t>
+          <t>19:10</t>
         </is>
       </c>
     </row>
@@ -2444,17 +2237,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>19:03</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>18:58</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>18:15</t>
+          <t>19:00</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2480,192 +2268,200 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>תאריך</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>פרשה</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>API_parasha_hebrew</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>שיר השירים</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>כניסת שבת</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>מנחה</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>שחרית</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>מנחה גדולה</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>תהילים קיץ</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>תהילים חורף</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>שיעור לנשים</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>שיעור פרשה</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>שיעור עם הרב</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>מנחה 2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ערבית מוצאי שבת</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ערבית חול</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>מנחה חול</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>מוצאי שבת Kodch</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>שבת מברכין</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>30/05/2025</t>
-        </is>
+      <c r="A2" s="3" t="n">
+        <v>45821</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>במדבר</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>במדבר</t>
+          <t>בהעלותך</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>בהעלותך</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19:23</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19:23</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>07:45</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>17:20</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18:05</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>20:10</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>19:20</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
+        <is>
+          <t>20:31</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Non</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -60,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +482,20 @@
           <t>ערבית ביניים</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>שבת מברכין</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>מולד</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2024-12-06 00:00:00</t>
-        </is>
+      <c r="A2" s="3" t="n">
+        <v>45632</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,12 +532,18 @@
           <t>17:00</t>
         </is>
       </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2024-12-01 04:49</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-12-13 00:00:00</t>
-        </is>
+      <c r="A3" s="3" t="n">
+        <v>45639</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -565,12 +580,18 @@
           <t>17:00</t>
         </is>
       </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2024-12-01 04:49</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-12-20 00:00:00</t>
-        </is>
+      <c r="A4" s="3" t="n">
+        <v>45646</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -607,12 +628,18 @@
           <t>17:05</t>
         </is>
       </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2024-12-01 04:49</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024-12-27 00:00:00</t>
-        </is>
+      <c r="A5" s="3" t="n">
+        <v>45653</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -649,12 +676,18 @@
           <t>17:10</t>
         </is>
       </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2024-12-01 04:49</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-01-03 00:00:00</t>
-        </is>
+      <c r="A6" s="3" t="n">
+        <v>45660</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -691,12 +724,18 @@
           <t>17:15</t>
         </is>
       </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2024-12-30 17:33</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-01-10 00:00:00</t>
-        </is>
+      <c r="A7" s="3" t="n">
+        <v>45667</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -733,12 +772,18 @@
           <t>17:20</t>
         </is>
       </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2024-12-30 17:33</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-01-17 00:00:00</t>
-        </is>
+      <c r="A8" s="3" t="n">
+        <v>45674</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -775,12 +820,18 @@
           <t>17:30</t>
         </is>
       </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2024-12-30 17:33</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-01-24 00:00:00</t>
-        </is>
+      <c r="A9" s="3" t="n">
+        <v>45681</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -817,12 +868,18 @@
           <t>17:35</t>
         </is>
       </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2024-12-30 17:33</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-01-31 00:00:00</t>
-        </is>
+      <c r="A10" s="3" t="n">
+        <v>45688</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -859,12 +916,18 @@
           <t>17:40</t>
         </is>
       </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-01-29 06:17</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-02-07 00:00:00</t>
-        </is>
+      <c r="A11" s="3" t="n">
+        <v>45695</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -901,12 +964,18 @@
           <t>17:45</t>
         </is>
       </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-01-29 06:17</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-02-14 00:00:00</t>
-        </is>
+      <c r="A12" s="3" t="n">
+        <v>45702</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -943,12 +1012,18 @@
           <t>17:55</t>
         </is>
       </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-01-29 06:17</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-02-21 00:00:00</t>
-        </is>
+      <c r="A13" s="3" t="n">
+        <v>45709</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -985,12 +1060,18 @@
           <t>18:00</t>
         </is>
       </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-01-29 06:17</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-02-28 00:00:00</t>
-        </is>
+      <c r="A14" s="3" t="n">
+        <v>45716</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1027,12 +1108,18 @@
           <t>18:05</t>
         </is>
       </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-02-28 19:02</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-07 00:00:00</t>
-        </is>
+      <c r="A15" s="3" t="n">
+        <v>45723</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1069,12 +1156,18 @@
           <t>18:10</t>
         </is>
       </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-02-28 19:02</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-14 00:00:00</t>
-        </is>
+      <c r="A16" s="3" t="n">
+        <v>45730</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1111,12 +1204,18 @@
           <t>18:15</t>
         </is>
       </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-02-28 19:02</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-03-21 00:00:00</t>
-        </is>
+      <c r="A17" s="3" t="n">
+        <v>45737</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,12 +1252,18 @@
           <t>18:20</t>
         </is>
       </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-02-28 19:02</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-28 00:00:00</t>
-        </is>
+      <c r="A18" s="3" t="n">
+        <v>45744</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1195,12 +1300,18 @@
           <t>19:25</t>
         </is>
       </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-02-28 19:02</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-04-04 00:00:00</t>
-        </is>
+      <c r="A19" s="3" t="n">
+        <v>45751</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1237,12 +1348,18 @@
           <t>19:30</t>
         </is>
       </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2025-03-29 07:46</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-04-11 00:00:00</t>
-        </is>
+      <c r="A20" s="3" t="n">
+        <v>45758</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1279,12 +1396,18 @@
           <t>19:35</t>
         </is>
       </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2025-03-29 07:46</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-04-18 00:00:00</t>
-        </is>
+      <c r="A21" s="3" t="n">
+        <v>45765</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1321,12 +1444,18 @@
           <t>19:40</t>
         </is>
       </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-03-29 07:46</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-04-25 00:00:00</t>
-        </is>
+      <c r="A22" s="3" t="n">
+        <v>45772</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1363,12 +1492,18 @@
           <t>19:45</t>
         </is>
       </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-03-29 07:46</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-05-02 00:00:00</t>
-        </is>
+      <c r="A23" s="3" t="n">
+        <v>45779</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1405,12 +1540,18 @@
           <t>19:50</t>
         </is>
       </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2025-04-28 20:30</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-05-09 00:00:00</t>
-        </is>
+      <c r="A24" s="3" t="n">
+        <v>45786</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1447,12 +1588,18 @@
           <t>19:55</t>
         </is>
       </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-04-28 20:30</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-05-16 00:00:00</t>
-        </is>
+      <c r="A25" s="3" t="n">
+        <v>45793</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1489,12 +1636,18 @@
           <t>19:55</t>
         </is>
       </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-04-28 20:30</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-05-23 00:00:00</t>
-        </is>
+      <c r="A26" s="3" t="n">
+        <v>45800</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1531,12 +1684,18 @@
           <t>20:00</t>
         </is>
       </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2025-04-28 20:30</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-05-30 00:00:00</t>
-        </is>
+      <c r="A27" s="3" t="n">
+        <v>45807</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1573,12 +1732,18 @@
           <t>20:05</t>
         </is>
       </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2025-05-27 09:14</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-06-06 00:00:00</t>
-        </is>
+      <c r="A28" s="3" t="n">
+        <v>45814</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1615,12 +1780,18 @@
           <t>20:10</t>
         </is>
       </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2025-05-27 09:14</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-06-13 00:00:00</t>
-        </is>
+      <c r="A29" s="3" t="n">
+        <v>45821</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1657,12 +1828,18 @@
           <t>20:10</t>
         </is>
       </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2025-05-27 09:14</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-06-20 00:00:00</t>
-        </is>
+      <c r="A30" s="3" t="n">
+        <v>45828</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1699,12 +1876,18 @@
           <t>20:10</t>
         </is>
       </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2025-05-27 09:14</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-06-27 00:00:00</t>
-        </is>
+      <c r="A31" s="3" t="n">
+        <v>45835</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1741,12 +1924,18 @@
           <t>20:10</t>
         </is>
       </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2025-06-26 21:58</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-07-04 00:00:00</t>
-        </is>
+      <c r="A32" s="3" t="n">
+        <v>45842</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1783,12 +1972,18 @@
           <t>20:10</t>
         </is>
       </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2025-06-26 21:58</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-07-11 00:00:00</t>
-        </is>
+      <c r="A33" s="3" t="n">
+        <v>45849</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1825,12 +2020,18 @@
           <t>20:10</t>
         </is>
       </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2025-06-26 21:58</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-07-18 00:00:00</t>
-        </is>
+      <c r="A34" s="3" t="n">
+        <v>45856</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1867,12 +2068,18 @@
           <t>20:05</t>
         </is>
       </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2025-06-26 21:58</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-07-25 00:00:00</t>
-        </is>
+      <c r="A35" s="3" t="n">
+        <v>45863</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1909,12 +2116,18 @@
           <t>20:05</t>
         </is>
       </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:42</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-08-01 00:00:00</t>
-        </is>
+      <c r="A36" s="3" t="n">
+        <v>45870</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1951,12 +2164,18 @@
           <t>19:55</t>
         </is>
       </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:42</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-08-08 00:00:00</t>
-        </is>
+      <c r="A37" s="3" t="n">
+        <v>45877</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1993,12 +2212,18 @@
           <t>19:50</t>
         </is>
       </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:42</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-08-15 00:00:00</t>
-        </is>
+      <c r="A38" s="3" t="n">
+        <v>45884</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2035,12 +2260,18 @@
           <t>19:45</t>
         </is>
       </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:42</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-08-22 00:00:00</t>
-        </is>
+      <c r="A39" s="3" t="n">
+        <v>45891</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2077,12 +2308,18 @@
           <t>19:35</t>
         </is>
       </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:42</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-08-29 00:00:00</t>
-        </is>
+      <c r="A40" s="3" t="n">
+        <v>45898</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2119,12 +2356,18 @@
           <t>19:25</t>
         </is>
       </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2025-08-24 23:26</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-09-05 00:00:00</t>
-        </is>
+      <c r="A41" s="3" t="n">
+        <v>45905</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2161,12 +2404,18 @@
           <t>19:20</t>
         </is>
       </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2025-08-24 23:26</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-09-12 00:00:00</t>
-        </is>
+      <c r="A42" s="3" t="n">
+        <v>45912</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2203,12 +2452,18 @@
           <t>19:10</t>
         </is>
       </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2025-08-24 23:26</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2025-09-19 00:00:00</t>
-        </is>
+      <c r="A43" s="3" t="n">
+        <v>45919</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2243,6 +2498,14 @@
       <c r="H43" t="inlineStr">
         <is>
           <t>19:00</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2025-08-24 23:26</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2358,7 +2621,7 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>מוצאי שבת</t>
+          <t>מוצאי שבת קודש</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -2366,39 +2629,44 @@
           <t>שבת מברכין</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>מולד</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>45821</v>
+      <c r="A2" s="4" t="n">
+        <v>45828</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>20/06/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>בהעלותך</t>
+          <t>שלח</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>בהעלותך</t>
+          <t>שלח</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2458,12 +2726,17 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>20:31</t>
+          <t>20:33</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>לא</t>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>2025-05-27 09:14</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -2637,21 +2637,21 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>שלח</t>
+          <t>קרח</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>שלח</t>
+          <t>קרח</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2661,12 +2661,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>19:33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>19:33</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Oui</t>
+          <t>Non</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2025-05-27 09:14</t>
+          <t>2025-06-26 21:58</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -17,10 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,14 +59,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -464,38 +462,40 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>tekufa_str</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tekufa</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>שקיעה Dimanche</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>שקיעה Jeudi</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>מנחה ביניים</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ערבית ביניים</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>שבת מברכין</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>מולד</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>45632</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-12-06 00:00:00</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -512,38 +512,34 @@
           <t>17:16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2024-12-01 04:49</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>45639</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-12-13 00:00:00</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -560,38 +556,34 @@
           <t>17:17</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>16:37</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>16:39</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2024-12-01 04:49</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>45646</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-12-20 00:00:00</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -608,38 +600,34 @@
           <t>17:20</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>16:43</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2024-12-01 04:49</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>45653</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-12-27 00:00:00</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -656,38 +644,34 @@
           <t>17:24</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>16:44</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>16:47</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>16:25</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2024-12-01 04:49</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45660</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-01-03 00:00:00</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -706,36 +690,40 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>תקופה ניסן ביום 6 בשעה 09:39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{'date': datetime.datetime(2025, 1, 6, 9, 39, tzinfo=&lt;DstTzInfo 'Asia/Jerusalem' LMT+2:21:00 STD&gt;), 'nom': 'Tekufat Tevet 2025'}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>16:50</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>16:53</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2024-12-30 17:33</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>45667</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-01-10 00:00:00</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -752,38 +740,34 @@
           <t>17:35</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>16:56</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>16:59</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2024-12-30 17:33</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>45674</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-01-17 00:00:00</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -800,38 +784,34 @@
           <t>17:41</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>17:02</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>17:06</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2024-12-30 17:33</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>45681</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-01-24 00:00:00</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -848,38 +828,34 @@
           <t>17:47</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>17:08</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>17:12</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>16:50</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2024-12-30 17:33</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>45688</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-01-31 00:00:00</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -896,38 +872,34 @@
           <t>17:53</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>17:18</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>16:55</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>17:40</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2025-01-29 06:17</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>45695</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-02-07 00:00:00</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -944,38 +916,34 @@
           <t>17:58</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>17:21</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>17:25</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>17:45</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2025-01-29 06:17</t>
-        </is>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>45702</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-02-14 00:00:00</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -992,38 +960,34 @@
           <t>18:04</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>17:27</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>17:31</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>17:55</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>2025-01-29 06:17</t>
-        </is>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>45709</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-02-21 00:00:00</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1040,38 +1004,34 @@
           <t>18:10</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>17:33</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>17:36</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>2025-01-29 06:17</t>
-        </is>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>45716</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-02-28 00:00:00</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1088,38 +1048,34 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>17:38</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>17:42</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>18:05</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>2025-02-28 19:02</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>45723</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-03-07 00:00:00</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1136,38 +1092,34 @@
           <t>18:20</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>17:44</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>17:47</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>17:25</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>18:10</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>2025-02-28 19:02</t>
-        </is>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>45730</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-03-14 00:00:00</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1184,38 +1136,34 @@
           <t>18:25</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>17:49</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>17:52</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>2025-02-28 19:02</t>
-        </is>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>45737</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-21 00:00:00</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1232,38 +1180,34 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>17:54</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>17:56</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>18:20</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2025-02-28 19:02</t>
-        </is>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>45744</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1280,38 +1224,34 @@
           <t>19:35</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>18:58</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>19:01</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>2025-02-28 19:02</t>
-        </is>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>45751</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-04 00:00:00</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1330,36 +1270,40 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>תקופה תמוז ביום 7 בשעה 18:09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>{'date': datetime.datetime(2025, 4, 7, 18, 9, tzinfo=&lt;DstTzInfo 'Asia/Jerusalem' LMT+2:21:00 STD&gt;), 'nom': 'Tekufat Nisan 2025'}</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>19:03</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>19:06</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>18:45</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2025-03-29 07:46</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>45758</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-04-11 00:00:00</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1376,38 +1320,34 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>19:08</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>19:11</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2025-03-29 07:46</t>
-        </is>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>45765</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-04-18 00:00:00</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1424,38 +1364,34 @@
           <t>19:51</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>19:13</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>19:16</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>19:40</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>2025-03-29 07:46</t>
-        </is>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>45772</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-25 00:00:00</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1472,38 +1408,34 @@
           <t>19:56</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>19:18</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>19:21</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>2025-03-29 07:46</t>
-        </is>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>45779</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-05-02 00:00:00</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1520,38 +1452,34 @@
           <t>20:02</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>19:23</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>19:26</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>2025-04-28 20:30</t>
-        </is>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>45786</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1568,38 +1496,34 @@
           <t>20:08</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>19:28</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>19:31</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>2025-04-28 20:30</t>
-        </is>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>45793</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-05-16 00:00:00</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1616,38 +1540,34 @@
           <t>20:13</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>19:33</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>2025-04-28 20:30</t>
-        </is>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>45800</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-05-23 00:00:00</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1664,38 +1584,34 @@
           <t>20:19</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>19:37</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>19:40</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2025-04-28 20:30</t>
-        </is>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>45807</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-05-30 00:00:00</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1712,38 +1628,34 @@
           <t>20:23</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>19:41</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>19:44</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>2025-05-27 09:14</t>
-        </is>
-      </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>45814</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-06-06 00:00:00</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1760,38 +1672,34 @@
           <t>20:28</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>19:47</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>2025-05-27 09:14</t>
-        </is>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>45821</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-06-13 00:00:00</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1808,38 +1716,34 @@
           <t>20:31</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>19:48</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>2025-05-27 09:14</t>
-        </is>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>45828</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-06-20 00:00:00</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1856,38 +1760,34 @@
           <t>20:33</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>2025-05-27 09:14</t>
-        </is>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>45835</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-06-27 00:00:00</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1904,38 +1804,34 @@
           <t>20:33</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>2025-06-26 21:58</t>
-        </is>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>45842</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-07-04 00:00:00</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1952,38 +1848,34 @@
           <t>20:33</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>2025-06-26 21:58</t>
-        </is>
-      </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>45849</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-07-11 00:00:00</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2002,36 +1894,40 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>תקופה תשרי ביום 8 בשעה 01:39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>{'date': datetime.datetime(2025, 7, 8, 1, 39, tzinfo=&lt;DstTzInfo 'Asia/Jerusalem' LMT+2:21:00 STD&gt;), 'nom': 'Tekufat Tamuz 2025'}</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>19:48</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>19:46</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>2025-06-26 21:58</t>
-        </is>
-      </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>45856</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-07-18 00:00:00</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2048,38 +1944,34 @@
           <t>20:27</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>19:43</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>2025-06-26 21:58</t>
-        </is>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n">
-        <v>45863</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-07-25 00:00:00</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2096,38 +1988,34 @@
           <t>20:23</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>19:41</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>19:38</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:42</t>
-        </is>
-      </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>45870</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-08-01 00:00:00</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2144,38 +2032,34 @@
           <t>20:17</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>19:32</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:42</t>
-        </is>
-      </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n">
-        <v>45877</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-08-08 00:00:00</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2192,38 +2076,34 @@
           <t>20:10</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>19:29</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:42</t>
-        </is>
-      </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n">
-        <v>45884</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-08-15 00:00:00</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2240,38 +2120,34 @@
           <t>20:02</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>19:22</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>19:17</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:42</t>
-        </is>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
-        <v>45891</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-08-22 00:00:00</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2288,38 +2164,34 @@
           <t>19:54</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>19:14</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>19:09</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:42</t>
-        </is>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
-        <v>45898</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-08-29 00:00:00</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2336,38 +2208,34 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>2025-08-24 23:26</t>
-        </is>
-      </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
-        <v>45905</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-09-05 00:00:00</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2384,38 +2252,34 @@
           <t>19:35</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>18:56</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>18:51</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>2025-08-24 23:26</t>
-        </is>
-      </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n">
-        <v>45912</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-09-12 00:00:00</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2432,38 +2296,34 @@
           <t>19:26</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>18:47</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>18:42</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>18:20</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>2025-08-24 23:26</t>
-        </is>
-      </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
-        <v>45919</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-09-19 00:00:00</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2480,32 +2340,26 @@
           <t>19:16</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>18:38</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>18:33</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>19:00</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>2025-08-24 23:26</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2621,7 +2475,7 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>מוצאי שבת קודש</t>
+          <t>מוצאי שבת</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -2629,29 +2483,24 @@
           <t>שבת מברכין</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>מולד</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>45835</v>
+      <c r="A2" s="3" t="n">
+        <v>45842</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>קרח</t>
+          <t>חוקת</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>קרח</t>
+          <t>חוקת</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2661,12 +2510,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19:33</t>
+          <t>19:32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:33</t>
+          <t>19:32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2731,12 +2580,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Non</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>2025-06-26 21:58</t>
+          <t>לא</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="שבתות השנה" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -462,12 +460,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>tekufa_str</t>
+          <t>שבת מברכין</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>tekufa</t>
+          <t>tekoufa</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,10 +490,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2024-12-06 00:00:00</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45632</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -512,7 +508,9 @@
           <t>17:16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
@@ -536,10 +534,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-12-13 00:00:00</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45639</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -556,7 +552,9 @@
           <t>17:17</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
@@ -580,10 +578,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-12-20 00:00:00</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45646</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -600,7 +596,9 @@
           <t>17:20</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
@@ -624,10 +622,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024-12-27 00:00:00</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45653</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -644,7 +640,9 @@
           <t>17:24</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
@@ -668,10 +666,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-01-03 00:00:00</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45660</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -688,14 +684,12 @@
           <t>17:29</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>תקופה ניסן ביום 6 בשעה 09:39</t>
-        </is>
+      <c r="E6" t="b">
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'date': datetime.datetime(2025, 1, 6, 9, 39, tzinfo=&lt;DstTzInfo 'Asia/Jerusalem' LMT+2:21:00 STD&gt;), 'nom': 'Tekufat Tevet 2025'}</t>
+          <t>2025-01-06 09:39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -720,10 +714,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-01-10 00:00:00</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45667</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -740,7 +732,9 @@
           <t>17:35</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
@@ -764,10 +758,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-01-17 00:00:00</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>45674</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -784,7 +776,9 @@
           <t>17:41</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
@@ -808,10 +802,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-01-24 00:00:00</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>45681</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -828,7 +820,9 @@
           <t>17:47</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
@@ -852,10 +846,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-01-31 00:00:00</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>45688</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -872,7 +864,9 @@
           <t>17:53</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
@@ -896,10 +890,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-02-07 00:00:00</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>45695</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -916,7 +908,9 @@
           <t>17:58</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
@@ -940,10 +934,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-02-14 00:00:00</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>45702</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -960,7 +952,9 @@
           <t>18:04</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
@@ -984,10 +978,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-02-21 00:00:00</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>45709</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1004,7 +996,9 @@
           <t>18:10</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
@@ -1028,10 +1022,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-02-28 00:00:00</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>45716</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1048,7 +1040,9 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
@@ -1072,10 +1066,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-07 00:00:00</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>45723</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1092,7 +1084,9 @@
           <t>18:20</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
@@ -1116,10 +1110,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-14 00:00:00</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>45730</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1136,7 +1128,9 @@
           <t>18:25</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
@@ -1160,10 +1154,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-03-21 00:00:00</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>45737</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1180,7 +1172,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
@@ -1204,10 +1198,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-28 00:00:00</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>45744</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1224,7 +1216,9 @@
           <t>19:35</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
@@ -1248,10 +1242,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-04-04 00:00:00</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>45751</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1268,14 +1260,12 @@
           <t>19:40</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>תקופה תמוז ביום 7 בשעה 18:09</t>
-        </is>
+      <c r="E19" t="b">
+        <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>{'date': datetime.datetime(2025, 4, 7, 18, 9, tzinfo=&lt;DstTzInfo 'Asia/Jerusalem' LMT+2:21:00 STD&gt;), 'nom': 'Tekufat Nisan 2025'}</t>
+          <t>2025-04-07 18:09</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1300,10 +1290,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-04-11 00:00:00</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>45758</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1320,7 +1308,9 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
@@ -1344,10 +1334,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-04-18 00:00:00</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>45765</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1364,7 +1352,9 @@
           <t>19:51</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
@@ -1388,10 +1378,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-04-25 00:00:00</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>45772</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1408,7 +1396,9 @@
           <t>19:56</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
@@ -1432,10 +1422,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-05-02 00:00:00</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>45779</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1452,7 +1440,9 @@
           <t>20:02</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
@@ -1476,10 +1466,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-05-09 00:00:00</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>45786</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1496,7 +1484,9 @@
           <t>20:08</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
@@ -1520,10 +1510,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-05-16 00:00:00</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>45793</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1540,7 +1528,9 @@
           <t>20:13</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
@@ -1564,10 +1554,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-05-23 00:00:00</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>45800</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1584,7 +1572,9 @@
           <t>20:19</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
@@ -1608,10 +1598,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-05-30 00:00:00</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>45807</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1628,7 +1616,9 @@
           <t>20:23</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,10 +1642,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-06-06 00:00:00</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>45814</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1672,7 +1660,9 @@
           <t>20:28</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
@@ -1696,10 +1686,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-06-13 00:00:00</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>45821</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1716,7 +1704,9 @@
           <t>20:31</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
@@ -1740,10 +1730,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-06-20 00:00:00</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>45828</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1760,7 +1748,9 @@
           <t>20:33</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
@@ -1784,10 +1774,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-06-27 00:00:00</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>45835</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1804,7 +1792,9 @@
           <t>20:33</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
@@ -1828,10 +1818,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-07-04 00:00:00</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>45842</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1848,8 +1836,14 @@
           <t>20:33</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-07-08 02:09</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>19:50</t>
@@ -1872,10 +1866,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-07-11 00:00:00</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>45849</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1892,16 +1884,10 @@
           <t>20:31</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>תקופה תשרי ביום 8 בשעה 01:39</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>{'date': datetime.datetime(2025, 7, 8, 1, 39, tzinfo=&lt;DstTzInfo 'Asia/Jerusalem' LMT+2:21:00 STD&gt;), 'nom': 'Tekufat Tamuz 2025'}</t>
-        </is>
-      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>19:48</t>
@@ -1924,10 +1910,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-07-18 00:00:00</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>45856</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1944,7 +1928,9 @@
           <t>20:27</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
@@ -1968,10 +1954,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-07-25 00:00:00</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>45863</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1988,7 +1972,9 @@
           <t>20:23</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
@@ -2012,10 +1998,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-08-01 00:00:00</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>45870</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2032,7 +2016,9 @@
           <t>20:17</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
@@ -2056,10 +2042,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-08-08 00:00:00</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>45877</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2076,7 +2060,9 @@
           <t>20:10</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
@@ -2100,10 +2086,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-08-15 00:00:00</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>45884</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2120,7 +2104,9 @@
           <t>20:02</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
@@ -2144,10 +2130,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-08-22 00:00:00</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>45891</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2164,7 +2148,9 @@
           <t>19:54</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
@@ -2188,10 +2174,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-08-29 00:00:00</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>45898</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2208,7 +2192,9 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
@@ -2232,10 +2218,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-09-05 00:00:00</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>45905</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2252,7 +2236,9 @@
           <t>19:35</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
@@ -2276,10 +2262,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-09-12 00:00:00</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>45912</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2296,7 +2280,9 @@
           <t>19:26</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
@@ -2320,10 +2306,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2025-09-19 00:00:00</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>45919</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2340,7 +2324,9 @@
           <t>19:16</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
@@ -2360,227 +2346,6 @@
       <c r="J43" t="inlineStr">
         <is>
           <t>19:00</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>תאריך</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>פרשה</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>API_parasha_hebrew</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>שיר השירים</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>כניסת שבת</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>מנחה</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>שחרית</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>מנחה גדולה</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>תהילים קיץ</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>תהילים חורף</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>שיעור לנשים</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>שיעור פרשה</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>שיעור עם הרב</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>מנחה 2</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>ערבית מוצאי שבת</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>ערבית חול</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>מנחה חול</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>מוצאי שבת</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>שבת מברכין</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>45842</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>04/07/2025</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>חוקת</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>חוקת</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>19:20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>19:32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>19:32</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>07:45</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>18:15</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>20:20</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>20:10</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>20:33</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>לא</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="שבתות השנה" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -689,7 +690,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-01-06 09:39</t>
+          <t>2025-01-06 10:09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -2346,6 +2347,219 @@
       <c r="J43" t="inlineStr">
         <is>
           <t>19:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>תאריך</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>פרשה</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>API_parasha_hebrew</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>שיר השירים</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>כניסת שבת</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>מנחה</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>שחרית</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>מנחה גדולה</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>תהילים קיץ</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>תהילים חורף</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>שיעור לנשים</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>שיעור פרשה</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>שיעור עם הרב</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>מנחה 2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ערבית מוצאי שבת</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ערבית חול</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>מנחה חול</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>מוצאי שבת Kodch</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>שבת מברכין</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>נשא</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>נשא</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>20:28</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Non</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="שבתות השנה" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,11 +60,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -465,37 +470,37 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>molad</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>שקיעה Dimanche</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>שקיעה Jeudi</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>מנחה ביניים</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ערבית ביניים</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>tekoufa</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>molad</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>שקיעה Dimanche</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>שקיעה Jeudi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>מנחה ביניים</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ערבית ביניים</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="4" t="n">
         <v>45632</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -516,84 +521,72 @@
       <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>מולד: יום שלישי בשעה 17:33 + 16</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>16:36</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>וישלח</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16:19</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>16:37</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>16:39</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45639</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>וישלח</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>16:19</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17:17</t>
-        </is>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>מולד: יום שלישי בשעה 17:33 + 16</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>16:37</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>16:39</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-    </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="4" t="n">
         <v>45646</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -614,35 +607,29 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>מולד: יום שלישי בשעה 17:33 + 16</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16:20</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
           <t>17:05</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="4" t="n">
         <v>45653</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -663,35 +650,34 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שלישי בשעה 17:33 + 16</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>מולד: יום שלישי בשעה 17:33 + 16</t>
+          <t>16:44</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>16:44</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>16:25</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
           <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="4" t="n">
         <v>45660</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -712,39 +698,34 @@
       <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>16:53</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>2025-01-06 10:09</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>מולד: יום רביעי בשעה 6:17 + 17</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>16:50</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>16:53</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>17:15</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="4" t="n">
         <v>45667</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -765,35 +746,29 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>מולד: יום רביעי בשעה 6:17 + 17</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>16:35</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
           <t>17:20</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -814,35 +789,29 @@
       <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>מולד: יום רביעי בשעה 6:17 + 17</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>16:40</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
           <t>17:30</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="4" t="n">
         <v>45681</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -863,145 +832,132 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום רביעי בשעה 6:17 + 17</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>מולד: יום רביעי בשעה 6:17 + 17</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>17:12</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>בא</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17:53</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>בשלח</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17:58</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>17:21</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>יתרו</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>17:08</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>17:12</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>16:50</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>17:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45688</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>בא</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>16:55</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17:53</t>
-        </is>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>מולד: יום שישי בשעה 19:02 + 0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>17:18</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>16:55</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>17:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45695</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>בשלח</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>17:02</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>17:58</t>
-        </is>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>מולד: יום שישי בשעה 19:02 + 0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>17:21</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>17:25</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>17:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45702</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>יתרו</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>17:08</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>18:04</t>
@@ -1010,35 +966,29 @@
       <c r="E12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>מולד: יום שישי בשעה 19:02 + 0</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>17:05</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
           <t>17:55</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="4" t="n">
         <v>45709</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -1059,35 +1009,34 @@
       <c r="E13" t="b">
         <v>1</v>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שישי בשעה 19:02 + 0</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>מולד: יום שישי בשעה 19:02 + 0</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>17:36</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>17:36</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
           <t>18:00</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="4" t="n">
         <v>45716</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -1108,35 +1057,29 @@
       <c r="E14" t="b">
         <v>0</v>
       </c>
-      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>מולד: יום שישי בשעה 19:02 + 0</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:42</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>17:20</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
           <t>18:05</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="4" t="n">
         <v>45723</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -1157,35 +1100,29 @@
       <c r="E15" t="b">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>מולד: יום שישי בשעה 19:02 + 0</t>
+          <t>17:44</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>17:44</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>17:25</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
           <t>18:10</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="4" t="n">
         <v>45730</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1206,35 +1143,29 @@
       <c r="E16" t="b">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>מולד: יום שישי בשעה 19:02 + 0</t>
+          <t>17:49</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>17:49</t>
+          <t>17:52</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>17:52</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
           <t>18:15</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="4" t="n">
         <v>45737</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -1255,35 +1186,29 @@
       <c r="E17" t="b">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>מולד: יום שישי בשעה 19:02 + 0</t>
+          <t>17:54</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>17:54</t>
+          <t>17:56</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>17:56</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
           <t>18:20</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="4" t="n">
         <v>45744</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -1304,35 +1229,34 @@
       <c r="E18" t="b">
         <v>1</v>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שישי בשעה 19:02 + 0</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>מולד: יום שישי בשעה 19:02 + 0</t>
+          <t>18:58</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>18:58</t>
+          <t>19:01</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>19:01</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>18:40</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
           <t>19:25</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="4" t="n">
         <v>45751</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -1353,39 +1277,34 @@
       <c r="E19" t="b">
         <v>0</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>19:06</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>2025-04-07 18:09</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>מולד: יום שני בשעה 20:30 + 2</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>19:03</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>19:06</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>18:45</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="4" t="n">
         <v>45758</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -1406,35 +1325,29 @@
       <c r="E20" t="b">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>מולד: יום שני בשעה 20:30 + 2</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>18:50</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
           <t>19:35</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="4" t="n">
         <v>45765</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -1455,35 +1368,29 @@
       <c r="E21" t="b">
         <v>0</v>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>מולד: יום שני בשעה 20:30 + 2</t>
+          <t>19:13</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>19:13</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>18:55</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
           <t>19:40</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="4" t="n">
         <v>45772</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -1504,35 +1411,34 @@
       <c r="E22" t="b">
         <v>1</v>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שני בשעה 20:30 + 2</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>מולד: יום שני בשעה 20:30 + 2</t>
+          <t>19:18</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>19:18</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
           <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="4" t="n">
         <v>45779</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1553,35 +1459,29 @@
       <c r="E23" t="b">
         <v>0</v>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>מולד: יום שלישי בשעה 9:14 + 3</t>
+          <t>19:23</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>19:23</t>
+          <t>19:26</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>19:26</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>19:05</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
           <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="4" t="n">
         <v>45786</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1602,35 +1502,29 @@
       <c r="E24" t="b">
         <v>0</v>
       </c>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>מולד: יום שלישי בשעה 9:14 + 3</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:31</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>19:10</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
           <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="4" t="n">
         <v>45793</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1651,35 +1545,29 @@
       <c r="E25" t="b">
         <v>0</v>
       </c>
-      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>מולד: יום שלישי בשעה 9:14 + 3</t>
+          <t>19:33</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>19:33</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>19:15</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
           <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="4" t="n">
         <v>45800</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1700,35 +1588,34 @@
       <c r="E26" t="b">
         <v>1</v>
       </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שלישי בשעה 9:14 + 3</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>מולד: יום שלישי בשעה 9:14 + 3</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>19:15</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
           <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="4" t="n">
         <v>45807</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1749,35 +1636,29 @@
       <c r="E27" t="b">
         <v>0</v>
       </c>
-      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>מולד: יום חמישי בשעה 21:58 + 4</t>
+          <t>19:41</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>19:41</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>19:20</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
           <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="4" t="n">
         <v>45814</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1798,35 +1679,29 @@
       <c r="E28" t="b">
         <v>0</v>
       </c>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>מולד: יום חמישי בשעה 21:58 + 4</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:47</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>19:47</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="4" t="n">
         <v>45821</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1847,35 +1722,29 @@
       <c r="E29" t="b">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>מולד: יום חמישי בשעה 21:58 + 4</t>
+          <t>19:48</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>19:48</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="4" t="n">
         <v>45828</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1896,10 +1765,14 @@
       <c r="E30" t="b">
         <v>1</v>
       </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום חמישי בשעה 21:58 + 4</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>מולד: יום חמישי בשעה 21:58 + 4</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1909,173 +1782,151 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>קרח</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20:33</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45835</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>קרח</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>19:33</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="4" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>חוקת</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>20:33</t>
         </is>
       </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>מולד: יום שישי בשעה 10:42 + 5</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45842</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>חוקת</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>19:32</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>20:33</t>
-        </is>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>2025-07-08 02:09</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>מולד: יום שישי בשעה 10:42 + 5</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>19:49</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>בלק</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20:31</t>
+        </is>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>19:46</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>בלק</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>19:31</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>20:31</t>
-        </is>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>מולד: יום שישי בשעה 10:42 + 5</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>19:48</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>19:46</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>20:10</t>
-        </is>
-      </c>
-    </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="4" t="n">
         <v>45856</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -2096,231 +1947,206 @@
       <c r="E34" t="b">
         <v>1</v>
       </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שישי בשעה 10:42 + 5</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>מולד: יום שישי בשעה 10:42 + 5</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>מטות-מסעי</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>19:24</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20:23</t>
+        </is>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>19:38</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>דברים</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>19:19</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20:17</t>
+        </is>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ואתחנן</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>19:13</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>עקב</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>19:06</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20:02</t>
+        </is>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>19:17</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>19:43</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>20:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45863</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>מטות-מסעי</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>19:24</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>20:23</t>
-        </is>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>מולד: יום שישי בשעה 10:42 + 5</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>19:41</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>19:38</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>19:20</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>20:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>דברים</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>19:19</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>20:17</t>
-        </is>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>מולד: יום ראשון בשעה 23:26 + 6</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>19:35</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>19:32</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>19:10</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>19:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ואתחנן</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>19:13</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>20:10</t>
-        </is>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>מולד: יום ראשון בשעה 23:26 + 6</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>19:29</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>19:05</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45884</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>עקב</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>19:06</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>20:02</t>
-        </is>
-      </c>
-      <c r="E38" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>מולד: יום ראשון בשעה 23:26 + 6</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>19:22</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>19:17</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>18:55</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="4" t="n">
         <v>45891</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -2341,226 +2167,432 @@
       <c r="E39" t="b">
         <v>1</v>
       </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום ראשון בשעה 23:26 + 6</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>מולד: יום ראשון בשעה 23:26 + 6</t>
+          <t>19:14</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>19:14</t>
+          <t>19:09</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>19:09</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
+          <t>19:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>שופטים</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>18:50</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>כי-תצא</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>18:41</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45898</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>שופטים</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>18:50</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="E40" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>מולד: יום רביעי בשעה 3:21 + 13</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>19:05</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>18:56</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>18:51</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>כי-תבוא</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>18:32</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>18:47</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>18:42</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ניצבים</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>18:23</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>19:16</t>
+        </is>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>18:38</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>18:33</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>18:40</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>19:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45905</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>כי-תצא</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>18:41</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>19:35</t>
-        </is>
-      </c>
-      <c r="E41" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>מולד: יום רביעי בשעה 3:21 + 13</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>18:56</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>18:51</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>תאריך</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>פרשה</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>API_parasha_hebrew</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>שיר השירים</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>כניסת שבת</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>מנחה</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>שחרית</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>מנחה גדולה</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>תהילים קיץ</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>תהילים חורף</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>שיעור לנשים</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>שיעור פרשה</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>שיעור עם הרב</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>מנחה 2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ערבית מוצאי שבת</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ערבית חול</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>מנחה חול</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>מוצאי שבת</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>שבת מברכין</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>tekoufa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>חוקת</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>חוקת</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45912</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>כי-תבוא</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>18:32</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>19:26</t>
-        </is>
-      </c>
-      <c r="E42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>מולד: יום רביעי בשעה 3:21 + 13</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>18:47</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>18:42</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>18:20</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>19:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45919</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ניצבים</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>18:23</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>19:16</t>
-        </is>
-      </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>מולד: יום רביעי בשעה 3:21 + 13</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>18:38</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>18:33</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>19:00</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>20:33</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>2025-07-08 02:09</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="שבתות השנה" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="השבת" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,8 +19,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,14 +60,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -469,29 +470,29 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>molad</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>שקיעה Dimanche</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>שקיעה Jeudi</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>מנחה ביניים</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ערבית ביניים</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>molad</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tekoufa</t>
@@ -499,7 +500,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>45807</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -520,29 +521,29 @@
       <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>19:41</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>19:44</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>45814</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -563,29 +564,29 @@
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>19:47</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>45821</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -606,29 +607,29 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>19:48</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>45828</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -651,32 +652,32 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום חמישי בשעה 21:58 + 4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום חמישי בשעה 21:58 + 4</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>45835</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -697,29 +698,29 @@
       <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>45842</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -740,22 +741,22 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
@@ -767,7 +768,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>45849</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -788,29 +789,29 @@
       <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>19:48</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>19:46</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>45856</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -833,32 +834,32 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שישי בשעה 10:42 + 5</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>19:43</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שישי בשעה 10:42 + 5</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>45863</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -879,29 +880,29 @@
       <c r="E10" t="b">
         <v>0</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>19:41</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>19:38</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>45870</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -922,29 +923,29 @@
       <c r="E11" t="b">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>19:32</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>45877</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -965,29 +966,29 @@
       <c r="E12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>19:29</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>45884</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -1008,29 +1009,29 @@
       <c r="E13" t="b">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>19:22</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>19:17</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>45891</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -1053,32 +1054,32 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום ראשון בשעה 23:26 + 6</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>19:14</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>19:09</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום ראשון בשעה 23:26 + 6</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="4" t="n">
         <v>45898</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -1099,29 +1100,29 @@
       <c r="E15" t="b">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <v>45905</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1142,29 +1143,29 @@
       <c r="E16" t="b">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>18:56</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>18:51</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <v>45912</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -1185,29 +1186,29 @@
       <c r="E17" t="b">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>18:47</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>18:42</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>18:20</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <v>45919</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -1228,29 +1229,29 @@
       <c r="E18" t="b">
         <v>0</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>18:38</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>18:33</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <v>45926</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -1271,29 +1272,29 @@
       <c r="E19" t="b">
         <v>0</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>18:29</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>18:24</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>18:05</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="4" t="n">
         <v>45933</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -1314,22 +1315,22 @@
       <c r="E20" t="b">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>18:20</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>17:55</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
@@ -1341,7 +1342,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="4" t="n">
         <v>45947</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -1364,32 +1365,32 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום רביעי בשעה 0:54 + 8</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>18:03</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>17:59</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>17:40</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>18:25</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום רביעי בשעה 0:54 + 8</t>
-        </is>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="4" t="n">
         <v>45954</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -1410,29 +1411,29 @@
       <c r="E22" t="b">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>16:56</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>16:52</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="4" t="n">
         <v>45961</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1453,29 +1454,29 @@
       <c r="E23" t="b">
         <v>0</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>16:49</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>16:46</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>16:25</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="4" t="n">
         <v>45968</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1496,29 +1497,29 @@
       <c r="E24" t="b">
         <v>0</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>16:44</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>16:41</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="4" t="n">
         <v>45975</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1541,32 +1542,32 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום חמישי בשעה 13:38 + 9</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>16:39</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>16:38</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום חמישי בשעה 13:38 + 9</t>
-        </is>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="4" t="n">
         <v>45982</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1587,29 +1588,29 @@
       <c r="E26" t="b">
         <v>0</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>16:37</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="4" t="n">
         <v>45989</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1630,29 +1631,29 @@
       <c r="E27" t="b">
         <v>0</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>16:55</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="4" t="n">
         <v>45996</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1673,29 +1674,29 @@
       <c r="E28" t="b">
         <v>0</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="4" t="n">
         <v>46003</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1718,32 +1719,32 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שבת בשעה 2:22 + 10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>16:37</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>16:38</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שבת בשעה 2:22 + 10</t>
-        </is>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="4" t="n">
         <v>46010</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1766,32 +1767,32 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שבת בשעה 2:22 + 10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>16:42</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שבת בשעה 2:22 + 10</t>
-        </is>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="4" t="n">
         <v>46017</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1812,29 +1813,29 @@
       <c r="E31" t="b">
         <v>0</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>16:44</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>16:46</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>16:25</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="4" t="n">
         <v>46024</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1855,22 +1856,22 @@
       <c r="E32" t="b">
         <v>0</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>16:49</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>16:52</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
@@ -1882,7 +1883,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="4" t="n">
         <v>46031</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1903,29 +1904,29 @@
       <c r="E33" t="b">
         <v>0</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>16:54</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>16:58</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="4" t="n">
         <v>46038</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1948,32 +1949,32 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום ראשון בשעה 15:06 + 11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>17:01</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>17:04</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>17:25</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום ראשון בשעה 15:06 + 11</t>
-        </is>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="4" t="n">
         <v>46045</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1994,29 +1995,29 @@
       <c r="E35" t="b">
         <v>0</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>17:07</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>17:11</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>16:45</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="4" t="n">
         <v>46052</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -2037,29 +2038,29 @@
       <c r="E36" t="b">
         <v>0</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>17:14</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>17:17</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>16:55</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>17:40</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="4" t="n">
         <v>46059</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -2080,29 +2081,29 @@
       <c r="E37" t="b">
         <v>0</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>17:24</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>17:45</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="4" t="n">
         <v>46066</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -2125,32 +2126,32 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שלישי בשעה 3:50 + 12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>17:26</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>17:50</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שלישי בשעה 3:50 + 12</t>
-        </is>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="4" t="n">
         <v>46073</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -2171,29 +2172,29 @@
       <c r="E39" t="b">
         <v>0</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>17:32</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>17:55</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="4" t="n">
         <v>46080</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -2214,29 +2215,29 @@
       <c r="E40" t="b">
         <v>0</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>17:38</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>17:41</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>18:05</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="4" t="n">
         <v>46087</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -2257,29 +2258,29 @@
       <c r="E41" t="b">
         <v>0</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>17:43</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>17:46</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>17:25</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>18:10</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="4" t="n">
         <v>46094</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -2302,32 +2303,32 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שלישי בשעה 3:50 + 12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>17:48</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>17:51</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שלישי בשעה 3:50 + 12</t>
-        </is>
-      </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="4" t="n">
         <v>46101</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -2348,29 +2349,29 @@
       <c r="E43" t="b">
         <v>0</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>17:53</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>17:55</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="4" t="n">
         <v>46108</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -2391,29 +2392,29 @@
       <c r="E44" t="b">
         <v>0</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>18:58</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="4" t="n">
         <v>46122</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -2436,32 +2437,32 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שישי בשעה 5:18 + 14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>19:07</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>18:45</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שישי בשעה 5:18 + 14</t>
-        </is>
-      </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="4" t="n">
         <v>46129</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -2482,29 +2483,29 @@
       <c r="E46" t="b">
         <v>0</v>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>19:12</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="4" t="n">
         <v>46136</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -2525,29 +2526,29 @@
       <c r="E47" t="b">
         <v>0</v>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>19:17</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>19:40</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="4" t="n">
         <v>46143</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -2568,29 +2569,29 @@
       <c r="E48" t="b">
         <v>0</v>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>19:22</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="4" t="n">
         <v>46150</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -2611,29 +2612,29 @@
       <c r="E49" t="b">
         <v>0</v>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>19:27</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="4" t="n">
         <v>46157</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -2656,32 +2657,32 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שבת בשעה 18:02 + 15</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>19:32</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>19:34</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שבת בשעה 18:02 + 15</t>
-        </is>
-      </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="4" t="n">
         <v>46164</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -2702,29 +2703,29 @@
       <c r="E51" t="b">
         <v>0</v>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>19:36</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>19:39</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="4" t="n">
         <v>46171</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -2745,29 +2746,29 @@
       <c r="E52" t="b">
         <v>0</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>19:41</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>19:43</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="4" t="n">
         <v>46178</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -2788,29 +2789,29 @@
       <c r="E53" t="b">
         <v>0</v>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>19:44</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>19:46</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="4" t="n">
         <v>46185</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -2833,32 +2834,32 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שני בשעה 6:46 + 16</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>19:47</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שני בשעה 6:46 + 16</t>
-        </is>
-      </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="4" t="n">
         <v>46192</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -2879,29 +2880,29 @@
       <c r="E55" t="b">
         <v>0</v>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="4" t="n">
         <v>46199</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -2922,29 +2923,29 @@
       <c r="E56" t="b">
         <v>0</v>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="4" t="n">
         <v>46206</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -2965,22 +2966,22 @@
       <c r="E57" t="b">
         <v>0</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
@@ -2992,7 +2993,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="4" t="n">
         <v>46213</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -3015,32 +3016,32 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום שלישי בשעה 19:30 + 17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>19:48</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>19:47</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שלישי בשעה 19:30 + 17</t>
-        </is>
-      </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="4" t="n">
         <v>46220</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -3061,29 +3062,29 @@
       <c r="E59" t="b">
         <v>0</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>19:46</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>19:43</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="4" t="n">
         <v>46227</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -3104,29 +3105,29 @@
       <c r="E60" t="b">
         <v>0</v>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>19:42</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>19:39</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="4" t="n">
         <v>46234</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -3147,29 +3148,29 @@
       <c r="E61" t="b">
         <v>0</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>19:36</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>19:33</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="4" t="n">
         <v>46241</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -3192,32 +3193,32 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t xml:space="preserve"> יום חמישי בשעה 8:15 + 0</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>19:26</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום חמישי בשעה 8:15 + 0</t>
-        </is>
-      </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="4" t="n">
         <v>46248</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -3238,29 +3239,29 @@
       <c r="E63" t="b">
         <v>0</v>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>19:23</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>19:19</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="4" t="n">
         <v>46255</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -3281,29 +3282,29 @@
       <c r="E64" t="b">
         <v>0</v>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>19:11</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="4" t="n">
         <v>46262</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -3324,29 +3325,29 @@
       <c r="E65" t="b">
         <v>0</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>19:07</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>19:02</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="4" t="n">
         <v>46269</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -3367,29 +3368,29 @@
       <c r="E66" t="b">
         <v>0</v>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>18:58</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>18:53</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>18:35</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="4" t="n">
         <v>46283</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -3410,22 +3411,22 @@
       <c r="E67" t="b">
         <v>0</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>18:34</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
@@ -3558,7 +3559,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <v>45842</v>
       </c>
       <c r="B2" t="inlineStr">

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,21 +501,21 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>45807</v>
+        <v>45849</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>במדבר</t>
+          <t>בלק</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:23</t>
+          <t>19:31</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>20:31</t>
         </is>
       </c>
       <c r="E2" t="b">
@@ -523,46 +523,51 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:41</t>
+          <t>19:48</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>45814</v>
+        <v>45856</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>נשא</t>
+          <t>פינחס</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:26</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20:28</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שישי בשעה 10:42 + 5</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -571,7 +576,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>19:47</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -581,27 +586,27 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>45821</v>
+        <v>45863</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>בהעלותך</t>
+          <t>מטות-מסעי</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:24</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20:31</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="E4" t="b">
@@ -609,90 +614,85 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19:48</t>
+          <t>19:41</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:38</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>45828</v>
+        <v>45870</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>שלח</t>
+          <t>דברים</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>19:19</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20:17</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>19:32</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20:33</t>
-        </is>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום חמישי בשעה 21:58 + 4</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>45835</v>
+        <v>45877</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>קרח</t>
+          <t>ואתחנן</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:33</t>
+          <t>19:13</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20:33</t>
+          <t>20:10</t>
         </is>
       </c>
       <c r="E6" t="b">
@@ -700,42 +700,42 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>19:50</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>45842</v>
+        <v>45884</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>חוקת</t>
+          <t>עקב</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20:33</t>
+          <t>20:02</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -743,138 +743,133 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:17</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20:10</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2025-07-08 02:09</t>
+          <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>45849</v>
+        <v>45891</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>בלק</t>
+          <t>ראה</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>18:59</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20:31</t>
+          <t>19:54</t>
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום ראשון בשעה 23:26 + 6</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19:48</t>
+          <t>19:14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>19:09</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>19:35</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>45856</v>
+        <v>45898</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>פינחס</t>
+          <t>שופטים</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שישי בשעה 10:42 + 5</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>19:25</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>45863</v>
+        <v>45905</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>מטות-מסעי</t>
+          <t>כי־תצא</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:24</t>
+          <t>18:41</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -882,42 +877,42 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19:41</t>
+          <t>18:56</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>19:38</t>
+          <t>18:51</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>19:20</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>45870</v>
+        <v>45912</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>דברים</t>
+          <t>כי־תבוא</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:19</t>
+          <t>18:32</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20:17</t>
+          <t>19:26</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -925,42 +920,42 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>18:47</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>19:10</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>45877</v>
+        <v>45919</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ואתחנן</t>
+          <t>נצבים</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:13</t>
+          <t>18:23</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -968,42 +963,42 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>18:38</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>45884</v>
+        <v>45926</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>עקב</t>
+          <t>וילך</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20:02</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -1011,133 +1006,138 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>19:17</t>
+          <t>18:24</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>18:05</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:50</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>45891</v>
+        <v>45933</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ראה</t>
+          <t>האזינו</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18:59</t>
+          <t>18:05</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>19:54</t>
+          <t>18:58</t>
         </is>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום ראשון בשעה 23:26 + 6</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19:14</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>19:09</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2025-10-07 09:39</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>45898</v>
+        <v>45947</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>שופטים</t>
+          <t>בראשית</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום רביעי בשעה 0:54 + 8</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>18:25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>45905</v>
+        <v>45954</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>פרשת כי־תצא</t>
+          <t>נח</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18:41</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>18:34</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -1145,42 +1145,42 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18:56</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>18:51</t>
+          <t>16:52</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>17:20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>45912</v>
+        <v>45961</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>פרשת כי־תבוא</t>
+          <t>לך־לך</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18:32</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19:26</t>
+          <t>17:28</t>
         </is>
       </c>
       <c r="E17" t="b">
@@ -1188,42 +1188,42 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18:47</t>
+          <t>16:49</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>16:46</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>45919</v>
+        <v>45968</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>פרשת נצבים</t>
+          <t>וירא</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18:23</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="E18" t="b">
@@ -1231,85 +1231,90 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18:38</t>
+          <t>16:44</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:05</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>45926</v>
+        <v>45975</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>פרשת וילך</t>
+          <t>חיי שרה</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>16:23</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>17:19</t>
         </is>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום חמישי בשעה 13:38 + 9</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>18:24</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>18:05</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>45933</v>
+        <v>45982</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>פרשת האזינו</t>
+          <t>תולדות</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18:05</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>18:58</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="E20" t="b">
@@ -1317,95 +1322,85 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>16:37</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>18:40</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2025-10-07 09:39</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>45947</v>
+        <v>45989</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>פרשת בראשית</t>
+          <t>ויצא</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום רביעי בשעה 0:54 + 8</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18:03</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>16:55</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>45954</v>
+        <v>45996</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>פרשת נח</t>
+          <t>וישלח</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>18:34</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="E22" t="b">
@@ -1413,98 +1408,108 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>16:52</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>45961</v>
+        <v>46003</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>פרשת לך־לך</t>
+          <t>וישב</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>16:19</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>17:28</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שבת בשעה 2:22 + 10</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16:49</t>
+          <t>16:37</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>16:46</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>45968</v>
+        <v>46010</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>פרשת וירא</t>
+          <t>מקץ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שבת בשעה 2:22 + 10</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>16:44</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:42</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1520,69 +1525,64 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>45975</v>
+        <v>46017</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>פרשת חיי שרה</t>
+          <t>ויגש</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>17:19</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום חמישי בשעה 13:38 + 9</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>16:44</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:46</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>45982</v>
+        <v>46024</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>פרשת תולדות</t>
+          <t>ויחי</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>17:28</t>
         </is>
       </c>
       <c r="E26" t="b">
@@ -1590,42 +1590,47 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>16:37</t>
+          <t>16:49</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>16:36</t>
+          <t>16:52</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2026-01-06 16:09</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>45989</v>
+        <v>46031</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>פרשת ויצא</t>
+          <t>שמות</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:34</t>
         </is>
       </c>
       <c r="E27" t="b">
@@ -1633,272 +1638,267 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t>16:54</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>16:58</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>16:35</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>16:15</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>17:20</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>45996</v>
+        <v>46038</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>פרשת וישלח</t>
+          <t>וארא</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום ראשון בשעה 15:06 + 11</t>
+        </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>16:36</t>
+          <t>17:04</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>46003</v>
+        <v>46045</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>פרשת וישב</t>
+          <t>בא</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:19</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שבת בשעה 2:22 + 10</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>16:37</t>
+          <t>17:07</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>17:11</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:35</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>46010</v>
+        <v>46052</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>פרשת מקץ</t>
+          <t>בשלח</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:52</t>
         </is>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שבת בשעה 2:22 + 10</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>17:14</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>16:42</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:40</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>46017</v>
+        <v>46059</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>פרשת ויגש</t>
+          <t>יתרו</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>17:58</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>17:24</t>
         </is>
       </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>16:44</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>16:46</t>
-        </is>
-      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>17:45</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>46024</v>
+        <v>46066</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>פרשת ויחי</t>
+          <t>משפטים</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:07</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17:28</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שלישי בשעה 3:50 + 12</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>16:49</t>
+          <t>17:26</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>16:52</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>2026-01-06 16:09</t>
+          <t>17:50</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>46031</v>
+        <v>46073</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>פרשת שמות</t>
+          <t>תרומה</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>17:13</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17:34</t>
+          <t>18:09</t>
         </is>
       </c>
       <c r="E33" t="b">
@@ -1906,176 +1906,176 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:55</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>46038</v>
+        <v>46080</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>פרשת וארא</t>
+          <t>תצוה</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום ראשון בשעה 15:06 + 11</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>17:04</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>18:05</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>46045</v>
+        <v>46087</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>פרשת בא</t>
+          <t>כי תשא</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>18:19</t>
+        </is>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>17:43</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>17:46</t>
         </is>
       </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>17:07</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>17:11</t>
-        </is>
-      </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>18:10</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>46052</v>
+        <v>46094</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>פרשת בשלח</t>
+          <t>ויקהל-פקודי</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>17:52</t>
+          <t>18:24</t>
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שלישי בשעה 3:50 + 12</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>17:14</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>17:51</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>18:15</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>46059</v>
+        <v>46101</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>פרשת יתרו</t>
+          <t>ויקרא</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>17:34</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17:58</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="E37" t="b">
@@ -2083,133 +2083,133 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:53</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>18:15</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>46066</v>
+        <v>46108</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>פרשת משפטים</t>
+          <t>צו</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>17:07</t>
+          <t>18:39</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>18:03</t>
+          <t>19:34</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שלישי בשעה 3:50 + 12</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17:26</t>
+          <t>18:58</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>19:20</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>46073</v>
+        <v>46122</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>פרשת תרומה</t>
+          <t>שמיני</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>17:13</t>
+          <t>18:48</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שישי בשעה 5:18 + 14</t>
+        </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>19:30</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>46080</v>
+        <v>46129</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>פרשת תצוה</t>
+          <t>תזריע-מצרע</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>18:53</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="E40" t="b">
@@ -2217,42 +2217,42 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>19:12</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>18:05</t>
+          <t>19:35</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>46087</v>
+        <v>46136</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>פרשת כי תשא</t>
+          <t>אחרי מות-קדשים</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:58</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>19:55</t>
         </is>
       </c>
       <c r="E41" t="b">
@@ -2260,90 +2260,85 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>17:43</t>
+          <t>19:17</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>19:40</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>46094</v>
+        <v>46143</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>פרשת ויקהל-פקודי</t>
+          <t>אמור</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>19:03</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>18:24</t>
+          <t>20:01</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שלישי בשעה 3:50 + 12</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>17:51</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>46101</v>
+        <v>46150</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>פרשת ויקרא</t>
+          <t>בהר-בחקתי</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>17:34</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>20:07</t>
         </is>
       </c>
       <c r="E43" t="b">
@@ -2351,133 +2346,133 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>17:53</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>46108</v>
+        <v>46157</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>פרשת צו</t>
+          <t>במדבר</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>18:39</t>
+          <t>19:13</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>20:12</t>
+        </is>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שבת בשעה 18:02 + 15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>19:34</t>
         </is>
       </c>
-      <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>18:58</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>46122</v>
+        <v>46164</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>פרשת שמיני</t>
+          <t>נשא</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>18:48</t>
+          <t>19:18</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:18</t>
         </is>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שישי בשעה 5:18 + 14</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>19:36</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:39</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
-        <v>46129</v>
+        <v>46171</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>פרשת תזריע-מצרע</t>
+          <t>בהעלתך</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>18:53</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="E46" t="b">
@@ -2485,42 +2480,42 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>19:12</t>
+          <t>19:41</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>46136</v>
+        <v>46178</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>פרשת אחרי מות-קדשים</t>
+          <t>שלח־לך</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>18:58</t>
+          <t>19:26</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="E47" t="b">
@@ -2528,85 +2523,90 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19:17</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>46143</v>
+        <v>46185</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>פרשת אמור</t>
+          <t>קורח</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>19:03</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>20:01</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שני בשעה 6:46 + 16</t>
+        </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>19:47</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>46150</v>
+        <v>46192</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>פרשת בהר-בחקתי</t>
+          <t>חקת</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:31</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>20:07</t>
+          <t>20:33</t>
         </is>
       </c>
       <c r="E49" t="b">
@@ -2614,90 +2614,85 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>19:05</t>
-        </is>
-      </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="n">
-        <v>46157</v>
+        <v>46199</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>פרשת במדבר</t>
+          <t>בלק</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>19:13</t>
+          <t>19:33</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>20:12</t>
+          <t>20:34</t>
         </is>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שבת בשעה 18:02 + 15</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>46164</v>
+        <v>46206</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>פרשת נשא</t>
+          <t>פינחס</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>19:18</t>
+          <t>19:33</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>20:18</t>
+          <t>20:33</t>
         </is>
       </c>
       <c r="E51" t="b">
@@ -2705,85 +2700,95 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>19:36</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>19:39</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2026-07-08 08:09</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>46171</v>
+        <v>46213</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>פרשת בהעלתך</t>
+          <t>מטות-מסעי</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>19:31</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>20:31</t>
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שלישי בשעה 19:30 + 17</t>
+        </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>19:41</t>
+          <t>19:48</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:47</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>46178</v>
+        <v>46220</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>פרשת שלח־לך</t>
+          <t>דברים</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>19:26</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>20:28</t>
         </is>
       </c>
       <c r="E53" t="b">
@@ -2791,12 +2796,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2812,69 +2817,64 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
-        <v>46185</v>
+        <v>46227</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>פרשת קורח</t>
+          <t>ואתחנן</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:24</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שני בשעה 6:46 + 16</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>19:47</t>
+          <t>19:42</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:39</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="n">
-        <v>46192</v>
+        <v>46234</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>פרשת חקת</t>
+          <t>עקב</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>20:33</t>
+          <t>20:18</t>
         </is>
       </c>
       <c r="E55" t="b">
@@ -2882,85 +2882,90 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:36</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:33</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="n">
-        <v>46199</v>
+        <v>46241</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>פרשת בלק</t>
+          <t>ראה</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>19:33</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>20:34</t>
+          <t>20:11</t>
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום חמישי בשעה 8:15 + 0</t>
+        </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
           <t>19:50</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="n">
-        <v>46206</v>
+        <v>46248</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>פרשת פינחס</t>
+          <t>שופטים</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>19:33</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>20:33</t>
+          <t>20:04</t>
         </is>
       </c>
       <c r="E57" t="b">
@@ -2968,95 +2973,85 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:23</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:19</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>20:10</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>2026-07-08 08:09</t>
+          <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="n">
-        <v>46213</v>
+        <v>46255</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>פרשת מטות-מסעי</t>
+          <t>כי־תצא</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>20:31</t>
+          <t>19:55</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שלישי בשעה 19:30 + 17</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>19:48</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>19:47</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>19:35</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="n">
-        <v>46220</v>
+        <v>46262</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>פרשת דברים</t>
+          <t>כי־תבוא</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>18:52</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>20:28</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="E59" t="b">
@@ -3064,42 +3059,42 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:02</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>19:30</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="n">
-        <v>46227</v>
+        <v>46269</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>פרשת ואתחנן</t>
+          <t>נצבים-וילך</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>20:24</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="E60" t="b">
@@ -3107,42 +3102,42 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>19:42</t>
+          <t>18:58</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>19:39</t>
+          <t>18:53</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
+          <t>18:35</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
           <t>19:20</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="n">
-        <v>46234</v>
+        <v>46283</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>פרשת עקב</t>
+          <t>האזינו</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>20:18</t>
+          <t>19:18</t>
         </is>
       </c>
       <c r="E61" t="b">
@@ -3150,42 +3145,42 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>19:36</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>19:33</t>
+          <t>18:34</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="n">
-        <v>46241</v>
+        <v>46304</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>פרשת ראה</t>
+          <t>בראשית</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>20:11</t>
+          <t>18:51</t>
         </is>
       </c>
       <c r="E62" t="b">
@@ -3193,47 +3188,47 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> יום חמישי בשעה 8:15 + 0</t>
+          <t xml:space="preserve"> יום ראשון בשעה 9:43 + 2</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:13</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>19:26</t>
+          <t>18:08</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>18:35</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="n">
-        <v>46248</v>
+        <v>46311</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>פרשת שופטים</t>
+          <t>נח</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>17:49</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>20:04</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="E63" t="b">
@@ -3241,42 +3236,42 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>19:23</t>
+          <t>18:04</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>19:19</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:25</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="n">
-        <v>46255</v>
+        <v>46318</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>פרשת כי־תצא</t>
+          <t>לך־לך</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>18:36</t>
         </is>
       </c>
       <c r="E64" t="b">
@@ -3284,42 +3279,42 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>16:57</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>17:20</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="n">
-        <v>46262</v>
+        <v>46325</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>פרשת כי־תבוא</t>
+          <t>וירא</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>18:52</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E65" t="b">
@@ -3327,108 +3322,4209 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>16:50</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>19:02</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="n">
-        <v>46269</v>
+        <v>46332</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>פרשת נצבים-וילך</t>
+          <t>חיי שרה</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>16:28</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שלישי בשעה 22:27 + 3</t>
+        </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>18:58</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>18:53</t>
+          <t>16:42</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>17:05</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="n">
-        <v>46283</v>
+        <v>46339</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>פרשת האזינו</t>
+          <t>תולדות</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>16:24</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>16:38</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="n">
+        <v>46346</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ויצא</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>16:37</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="n">
+        <v>46353</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>וישלח</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>16:18</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>17:16</t>
+        </is>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="n">
+        <v>46360</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>וישב</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>16:17</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>17:16</t>
+        </is>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום חמישי בשעה 11:11 + 4</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="n">
+        <v>46367</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>מקץ</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>16:18</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>16:38</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="n">
+        <v>46374</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ויגש</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>16:21</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>17:19</t>
+        </is>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>16:39</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>16:41</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="n">
+        <v>46381</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ויחי</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>16:24</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>17:23</t>
+        </is>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>16:43</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>16:46</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="n">
+        <v>46388</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>שמות</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>16:29</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>17:28</t>
+        </is>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שישי בשעה 23:55 + 5</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>16:48</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>16:51</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2027-01-06 22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="n">
+        <v>46395</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>וארא</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>16:34</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>17:33</t>
+        </is>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>16:53</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>16:57</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="n">
+        <v>46402</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>בא</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>17:39</t>
+        </is>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="n">
+        <v>46409</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>בשלח</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>16:47</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>17:06</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="n">
+        <v>46416</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>יתרו</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>16:53</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>17:13</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>17:16</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="n">
+        <v>46423</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>משפטים</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>16:59</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>17:56</t>
+        </is>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום ראשון בשעה 12:39 + 6</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>17:19</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>17:22</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="n">
+        <v>46430</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>תרומה</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>17:06</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>18:02</t>
+        </is>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>17:28</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="n">
+        <v>46437</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>תצוה</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>17:12</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>18:08</t>
+        </is>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>17:31</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>17:34</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>17:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n">
+        <v>46444</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>כי תשא</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>18:13</t>
+        </is>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>17:37</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="n">
+        <v>46451</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ויקהל</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>17:23</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>18:18</t>
+        </is>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שלישי בשעה 1:23 + 7</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>17:42</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>18:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n">
+        <v>46458</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>פקודי</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>17:28</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>18:23</t>
+        </is>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>17:47</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="n">
+        <v>46465</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ויקרא</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>17:33</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>18:28</t>
+        </is>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>17:52</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>17:55</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="n">
+        <v>46472</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>צו</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>18:38</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>18:57</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>18:59</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="n">
+        <v>46479</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>שמיני</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>18:43</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>19:38</t>
+        </is>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שני בשעה 22:56 + 2</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>19:01</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>19:04</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2027-04-08 06:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="n">
+        <v>46486</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>תזריע</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>18:47</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>19:06</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>19:09</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="n">
+        <v>46493</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>מצרע</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>18:52</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>19:11</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>19:14</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="n">
+        <v>46507</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>אחרי מות</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>19:02</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שישי בשעה 2:51 + 9</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>19:21</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>19:24</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="n">
+        <v>46514</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>קדשים</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>19:07</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>20:06</t>
+        </is>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="n">
+        <v>46521</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>אמור</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>19:12</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>20:11</t>
+        </is>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="n">
+        <v>46528</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>בהר</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>19:17</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>20:17</t>
+        </is>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>19:36</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>19:38</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="n">
+        <v>46535</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>בחקתי</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>19:21</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>20:22</t>
+        </is>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>19:42</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="n">
+        <v>46542</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>במדבר</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>20:26</t>
+        </is>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שבת בשעה 15:35 + 10</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>19:46</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="n">
+        <v>46549</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>נשא</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>19:47</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="n">
+        <v>46556</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>בהעלתך</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>20:32</t>
+        </is>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="n">
+        <v>46563</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>שלח־לך</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>20:33</t>
+        </is>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="n">
+        <v>46570</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>קורח</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>20:33</t>
+        </is>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שני בשעה 4:19 + 11</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>2027-07-08 14:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="n">
+        <v>46577</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>חקת</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>20:32</t>
+        </is>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>19:47</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="n">
+        <v>46584</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>בלק</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>20:29</t>
+        </is>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>19:46</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="n">
+        <v>46591</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>פינחס</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>20:25</t>
+        </is>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>19:42</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="n">
+        <v>46598</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>מטות-מסעי</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>19:21</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שלישי בשעה 17:03 + 12</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>19:37</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="n">
+        <v>46605</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>דברים</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>19:16</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>20:12</t>
+        </is>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="n">
+        <v>46612</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ואתחנן</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>19:09</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>19:24</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="n">
+        <v>46619</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>עקב</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>19:01</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>19:57</t>
+        </is>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>19:17</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>19:12</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="n">
+        <v>46626</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ראה</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>18:53</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום חמישי בשעה 5:47 + 13</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>19:08</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="n">
+        <v>46633</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>שופטים</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>19:39</t>
+        </is>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>18:54</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="n">
+        <v>46640</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>כי־תצא</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>18:36</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>18:51</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
           <t>18:25</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="n">
+        <v>46647</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>כי־תבוא</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>18:26</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>18:41</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>18:36</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="n">
+        <v>46654</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>נצבים-וילך</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>18:17</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>18:32</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>18:27</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>18:05</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="n">
+        <v>46668</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>האזינו</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>17:59</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>18:52</t>
+        </is>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>18:14</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>18:09</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="n">
+        <v>46689</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>בראשית</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>17:36</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום ראשון בשעה 7:15 + 15</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>16:51</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>16:48</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="n">
+        <v>46696</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>נח</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>16:29</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>16:43</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="n">
+        <v>46703</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>לך־לך</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>16:24</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>16:41</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>16:39</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="n">
+        <v>46710</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>וירא</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>16:21</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>16:38</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="n">
+        <v>46717</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>חיי שרה</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>16:18</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>17:16</t>
+        </is>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שלישי בשעה 19:59 + 16</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="n">
+        <v>46724</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>תולדות</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>16:17</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="n">
+        <v>46731</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ויצא</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>16:18</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>17:16</t>
+        </is>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>16:37</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="n">
+        <v>46738</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>וישלח</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>17:19</t>
+        </is>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>16:38</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="n">
+        <v>46745</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>וישב</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>16:23</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>17:22</t>
+        </is>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום חמישי בשעה 8:43 + 17</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>16:42</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="n">
+        <v>46752</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>מקץ</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>16:28</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>17:27</t>
+        </is>
+      </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>16:47</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="n">
+        <v>46759</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ויגש</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>16:33</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>16:52</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>16:56</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>2028-01-07 04:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="n">
+        <v>46766</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ויחי</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>16:39</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>16:58</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="n">
+        <v>46773</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>שמות</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>17:43</t>
+        </is>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שישי בשעה 21:28 + 0</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>17:09</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="n">
+        <v>46780</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>וארא</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>16:52</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>17:49</t>
+        </is>
+      </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>17:11</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="n">
+        <v>46787</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>בא</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>16:58</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>17:55</t>
+        </is>
+      </c>
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>17:21</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="n">
+        <v>46794</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>בשלח</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>18:01</t>
+        </is>
+      </c>
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>17:24</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>17:27</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="n">
+        <v>46801</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>יתרו</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>17:11</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>18:07</t>
+        </is>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>17:33</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>17:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="n">
+        <v>46808</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>משפטים</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>17:16</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>18:12</t>
+        </is>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום ראשון בשעה 10:12 + 1</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>17:36</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>17:39</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="n">
+        <v>46815</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>תרומה</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>17:22</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>18:17</t>
+        </is>
+      </c>
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>17:41</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>17:44</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>18:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="n">
+        <v>46822</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>תצוה</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>17:27</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>18:22</t>
+        </is>
+      </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>17:46</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>17:49</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="n">
+        <v>46829</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>כי תשא</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>18:27</t>
+        </is>
+      </c>
+      <c r="E133" t="b">
+        <v>0</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>17:54</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="n">
+        <v>46836</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ויקהל-פקודי</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>18:37</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום ראשון בשעה 10:12 + 1</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>18:56</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>18:59</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="n">
+        <v>46843</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ויקרא</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>18:42</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>19:37</t>
+        </is>
+      </c>
+      <c r="E135" t="b">
+        <v>0</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>19:01</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="n">
+        <v>46850</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>צו</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>18:46</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="E136" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>19:08</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>2028-04-07 12:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="n">
+        <v>46864</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>שמיני</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>18:56</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>19:53</t>
+        </is>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום רביעי בשעה 11:40 + 3</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
         <is>
           <t>19:18</t>
         </is>
       </c>
-      <c r="E67" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>18:40</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="n">
+        <v>46871</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>תזריע-מצרע</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>19:01</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>19:59</t>
+        </is>
+      </c>
+      <c r="E138" t="b">
+        <v>0</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="4" t="n">
+        <v>46878</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>אחרי מות-קדשים</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>19:06</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="E139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="4" t="n">
+        <v>46885</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>אמור</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>19:11</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="4" t="n">
+        <v>46892</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>בהר-בחקתי</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>19:16</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>20:16</t>
+        </is>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום חמישי בשעה 0:24 + 4</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>19:37</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="4" t="n">
+        <v>46899</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>במדבר</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>20:21</t>
+        </is>
+      </c>
+      <c r="E142" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>19:39</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>19:42</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="4" t="n">
+        <v>46906</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>נשא</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>20:26</t>
+        </is>
+      </c>
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="4" t="n">
+        <v>46913</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>בהעלתך</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>20:29</t>
+        </is>
+      </c>
+      <c r="E144" t="b">
+        <v>0</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>19:46</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="n">
+        <v>46920</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>שלח־לך</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>20:32</t>
+        </is>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שבת בשעה 13:08 + 5</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="4" t="n">
+        <v>46927</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>קורח</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>20:33</t>
+        </is>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שבת בשעה 13:08 + 5</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="4" t="n">
+        <v>46934</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>חקת</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>20:33</t>
+        </is>
+      </c>
+      <c r="E147" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="4" t="n">
+        <v>46941</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>בלק</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>20:32</t>
+        </is>
+      </c>
+      <c r="E148" t="b">
+        <v>0</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>2028-07-07 20:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="n">
+        <v>46948</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>פינחס</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>20:29</t>
+        </is>
+      </c>
+      <c r="E149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>19:47</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="4" t="n">
+        <v>46955</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>מטות-מסעי</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>19:27</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>20:25</t>
+        </is>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום ראשון בשעה 1:52 + 6</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="4" t="n">
+        <v>46962</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>דברים</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
+      <c r="E151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>19:38</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="4" t="n">
+        <v>46969</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ואתחנן</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>19:17</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>20:14</t>
+        </is>
+      </c>
+      <c r="E152" t="b">
+        <v>0</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="4" t="n">
+        <v>46976</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>עקב</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>20:06</t>
+        </is>
+      </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="4" t="n">
+        <v>46983</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ראה</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>19:58</t>
+        </is>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> יום שלישי בשעה 14:36 + 7</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>19:18</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>19:14</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="4" t="n">
+        <v>46990</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>שופטים</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="E155" t="b">
+        <v>0</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="4" t="n">
+        <v>46997</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>כי־תצא</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>18:46</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="E156" t="b">
+        <v>0</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>19:01</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>18:56</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="4" t="n">
+        <v>47004</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>כי־תבוא</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>18:37</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="E157" t="b">
+        <v>0</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>18:52</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>18:47</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>18:25</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="4" t="n">
+        <v>47011</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>נצבים-וילך</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>18:28</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>19:21</t>
+        </is>
+      </c>
+      <c r="E158" t="b">
+        <v>0</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>18:43</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>18:38</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="4" t="n">
+        <v>47018</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>האזינו</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>18:19</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>19:12</t>
+        </is>
+      </c>
+      <c r="E159" t="b">
+        <v>0</v>
+      </c>
+      <c r="G159" t="inlineStr">
         <is>
           <t>18:34</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>18:15</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>19:00</t>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>18:28</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>18:55</t>
         </is>
       </c>
     </row>
@@ -3560,36 +7656,36 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>45842</v>
+        <v>45856</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>18/07/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>חוקת</t>
+          <t>פינחס</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>חוקת</t>
+          <t>פינחס</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3619,49 +7715,45 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>20:33</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>לא</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>2025-07-08 02:09</t>
-        </is>
-      </c>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -19,8 +19,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,14 +60,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -469,29 +470,29 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>molad</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>שקיעה Dimanche</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>שקיעה Jeudi</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>מנחה ביניים</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ערבית ביניים</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>molad</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tekoufa</t>
@@ -499,7 +500,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>45849</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -520,29 +521,29 @@
       <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>19:48</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>19:46</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>45856</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -565,32 +566,32 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שישי בשעה 10:42 + 5</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>19:43</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שישי בשעה 10:42 + 5</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>45863</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -611,29 +612,29 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>19:41</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>19:38</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>45870</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -654,29 +655,29 @@
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>19:32</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>45877</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -697,29 +698,29 @@
       <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>19:29</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>45884</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -740,29 +741,29 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>19:22</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>19:17</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>45891</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -785,32 +786,32 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 23:26 + 6</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>19:14</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>19:09</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום ראשון בשעה 23:26 + 6</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>45898</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -831,29 +832,29 @@
       <c r="E9" t="b">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>45905</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -874,29 +875,29 @@
       <c r="E10" t="b">
         <v>0</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>18:56</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>18:51</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>45912</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -917,29 +918,29 @@
       <c r="E11" t="b">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>18:47</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>18:42</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>18:20</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>45919</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -960,29 +961,29 @@
       <c r="E12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>18:38</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>18:33</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>45926</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -1003,29 +1004,29 @@
       <c r="E13" t="b">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>18:29</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>18:24</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>18:05</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>45933</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -1046,22 +1047,22 @@
       <c r="E14" t="b">
         <v>0</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>18:20</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>17:55</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
@@ -1073,7 +1074,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="4" t="n">
         <v>45947</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -1096,32 +1097,32 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום רביעי בשעה 0:54 + 8</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>18:03</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>17:59</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>17:40</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>18:25</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום רביעי בשעה 0:54 + 8</t>
-        </is>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <v>45954</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1142,29 +1143,29 @@
       <c r="E16" t="b">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>16:56</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>16:52</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <v>45961</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -1185,29 +1186,29 @@
       <c r="E17" t="b">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>16:49</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>16:46</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>16:25</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <v>45968</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -1228,29 +1229,29 @@
       <c r="E18" t="b">
         <v>0</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>16:44</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>16:41</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <v>45975</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -1273,32 +1274,32 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 13:38 + 9</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>16:39</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>16:38</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום חמישי בשעה 13:38 + 9</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="4" t="n">
         <v>45982</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -1319,29 +1320,29 @@
       <c r="E20" t="b">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>16:37</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="4" t="n">
         <v>45989</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -1362,29 +1363,29 @@
       <c r="E21" t="b">
         <v>0</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>16:55</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="4" t="n">
         <v>45996</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -1405,29 +1406,29 @@
       <c r="E22" t="b">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="4" t="n">
         <v>46003</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1450,32 +1451,32 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 2:22 + 10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>16:37</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>16:38</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שבת בשעה 2:22 + 10</t>
-        </is>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="4" t="n">
         <v>46010</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1498,32 +1499,32 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 2:22 + 10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>16:42</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שבת בשעה 2:22 + 10</t>
-        </is>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="4" t="n">
         <v>46017</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1544,29 +1545,29 @@
       <c r="E25" t="b">
         <v>0</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>16:44</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>16:46</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>16:25</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="4" t="n">
         <v>46024</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1587,22 +1588,22 @@
       <c r="E26" t="b">
         <v>0</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>16:49</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>16:52</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
@@ -1614,7 +1615,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="4" t="n">
         <v>46031</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1635,29 +1636,29 @@
       <c r="E27" t="b">
         <v>0</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>16:54</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>16:58</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="4" t="n">
         <v>46038</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1680,32 +1681,32 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 15:06 + 11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>17:01</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>17:04</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>17:25</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום ראשון בשעה 15:06 + 11</t>
-        </is>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="4" t="n">
         <v>46045</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1726,29 +1727,29 @@
       <c r="E29" t="b">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>17:07</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>17:11</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>16:45</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="4" t="n">
         <v>46052</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1769,29 +1770,29 @@
       <c r="E30" t="b">
         <v>0</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>17:14</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>17:17</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>16:55</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>17:40</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="4" t="n">
         <v>46059</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1812,29 +1813,29 @@
       <c r="E31" t="b">
         <v>0</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>17:24</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>17:45</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="4" t="n">
         <v>46066</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1857,32 +1858,32 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 3:50 + 12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>17:26</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>17:50</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שלישי בשעה 3:50 + 12</t>
-        </is>
-      </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="4" t="n">
         <v>46073</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1903,29 +1904,29 @@
       <c r="E33" t="b">
         <v>0</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>17:32</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>17:55</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="4" t="n">
         <v>46080</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1946,29 +1947,29 @@
       <c r="E34" t="b">
         <v>0</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>17:38</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>17:41</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>18:05</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="4" t="n">
         <v>46087</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1989,29 +1990,29 @@
       <c r="E35" t="b">
         <v>0</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>17:43</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>17:46</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>17:25</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>18:10</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="4" t="n">
         <v>46094</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -2034,32 +2035,32 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 3:50 + 12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>17:48</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>17:51</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שלישי בשעה 3:50 + 12</t>
-        </is>
-      </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="4" t="n">
         <v>46101</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -2080,29 +2081,29 @@
       <c r="E37" t="b">
         <v>0</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>17:53</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>17:55</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="4" t="n">
         <v>46108</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -2123,29 +2124,29 @@
       <c r="E38" t="b">
         <v>0</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>18:58</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="4" t="n">
         <v>46115</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -2166,22 +2167,22 @@
       <c r="E39" t="b">
         <v>0</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>19:02</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
@@ -2193,7 +2194,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="4" t="n">
         <v>46122</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -2216,32 +2217,32 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שישי בשעה 5:18 + 14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>19:07</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>18:45</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שישי בשעה 5:18 + 14</t>
-        </is>
-      </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="4" t="n">
         <v>46129</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -2262,29 +2263,29 @@
       <c r="E41" t="b">
         <v>0</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>19:12</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="4" t="n">
         <v>46136</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -2305,29 +2306,29 @@
       <c r="E42" t="b">
         <v>0</v>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>19:17</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>19:40</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="4" t="n">
         <v>46143</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -2348,29 +2349,29 @@
       <c r="E43" t="b">
         <v>0</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>19:22</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="4" t="n">
         <v>46150</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -2391,29 +2392,29 @@
       <c r="E44" t="b">
         <v>0</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>19:27</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="4" t="n">
         <v>46157</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -2436,32 +2437,32 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 18:02 + 15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>19:32</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>19:34</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שבת בשעה 18:02 + 15</t>
-        </is>
-      </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="4" t="n">
         <v>46164</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -2482,29 +2483,29 @@
       <c r="E46" t="b">
         <v>0</v>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>19:36</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>19:39</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="4" t="n">
         <v>46171</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -2525,29 +2526,29 @@
       <c r="E47" t="b">
         <v>0</v>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>19:41</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>19:43</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="4" t="n">
         <v>46178</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -2568,29 +2569,29 @@
       <c r="E48" t="b">
         <v>0</v>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>19:44</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>19:46</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="4" t="n">
         <v>46185</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -2613,32 +2614,32 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שני בשעה 6:46 + 16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>19:47</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שני בשעה 6:46 + 16</t>
-        </is>
-      </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="4" t="n">
         <v>46192</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -2659,29 +2660,29 @@
       <c r="E50" t="b">
         <v>0</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="4" t="n">
         <v>46199</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -2702,29 +2703,29 @@
       <c r="E51" t="b">
         <v>0</v>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="4" t="n">
         <v>46206</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -2745,22 +2746,22 @@
       <c r="E52" t="b">
         <v>0</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
@@ -2772,7 +2773,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="4" t="n">
         <v>46213</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -2795,32 +2796,32 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 19:30 + 17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>19:48</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>19:47</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שלישי בשעה 19:30 + 17</t>
-        </is>
-      </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="4" t="n">
         <v>46220</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -2841,29 +2842,29 @@
       <c r="E54" t="b">
         <v>0</v>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>19:46</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>19:43</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="4" t="n">
         <v>46227</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -2884,29 +2885,29 @@
       <c r="E55" t="b">
         <v>0</v>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>19:42</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>19:39</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="4" t="n">
         <v>46234</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -2927,29 +2928,29 @@
       <c r="E56" t="b">
         <v>0</v>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>19:36</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>19:33</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="4" t="n">
         <v>46241</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -2972,32 +2973,32 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 8:15 + 0</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>19:26</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום חמישי בשעה 8:15 + 0</t>
-        </is>
-      </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="4" t="n">
         <v>46248</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -3018,29 +3019,29 @@
       <c r="E58" t="b">
         <v>0</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>19:23</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>19:19</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="4" t="n">
         <v>46255</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -3061,29 +3062,29 @@
       <c r="E59" t="b">
         <v>0</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>19:11</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="4" t="n">
         <v>46262</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -3104,29 +3105,29 @@
       <c r="E60" t="b">
         <v>0</v>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>19:07</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>19:02</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="4" t="n">
         <v>46269</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -3147,29 +3148,29 @@
       <c r="E61" t="b">
         <v>0</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>18:58</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>18:53</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>18:35</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="4" t="n">
         <v>46283</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -3190,29 +3191,29 @@
       <c r="E62" t="b">
         <v>0</v>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>18:34</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="4" t="n">
         <v>46283</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -3233,29 +3234,29 @@
       <c r="E63" t="b">
         <v>0</v>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>18:34</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="4" t="n">
         <v>46304</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -3278,32 +3279,32 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 9:43 + 2</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>18:13</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>18:08</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>17:50</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>18:35</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום ראשון בשעה 9:43 + 2</t>
-        </is>
-      </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="4" t="n">
         <v>46311</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -3324,29 +3325,29 @@
       <c r="E65" t="b">
         <v>0</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>18:04</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>17:40</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>18:25</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="4" t="n">
         <v>46318</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -3367,29 +3368,29 @@
       <c r="E66" t="b">
         <v>0</v>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>16:57</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>16:53</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="4" t="n">
         <v>46325</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -3410,29 +3411,29 @@
       <c r="E67" t="b">
         <v>0</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>16:50</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>16:47</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>16:25</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="4" t="n">
         <v>46332</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -3455,32 +3456,32 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 22:27 + 3</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>16:45</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>16:42</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שלישי בשעה 22:27 + 3</t>
-        </is>
-      </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="4" t="n">
         <v>46339</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -3501,29 +3502,29 @@
       <c r="E69" t="b">
         <v>0</v>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>16:38</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="4" t="n">
         <v>46346</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -3544,29 +3545,29 @@
       <c r="E70" t="b">
         <v>0</v>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>16:37</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="4" t="n">
         <v>46353</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -3587,29 +3588,29 @@
       <c r="E71" t="b">
         <v>0</v>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>16:55</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="4" t="n">
         <v>46360</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -3632,32 +3633,32 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 11:11 + 4</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום חמישי בשעה 11:11 + 4</t>
-        </is>
-      </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="n">
+      <c r="A73" s="4" t="n">
         <v>46367</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -3678,29 +3679,29 @@
       <c r="E73" t="b">
         <v>0</v>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>16:38</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n">
+      <c r="A74" s="4" t="n">
         <v>46374</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -3721,29 +3722,29 @@
       <c r="E74" t="b">
         <v>0</v>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>16:39</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>16:41</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="4" t="n">
         <v>46381</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -3764,29 +3765,29 @@
       <c r="E75" t="b">
         <v>0</v>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>16:43</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>16:46</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>16:25</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="4" t="n">
         <v>46388</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -3809,29 +3810,29 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שישי בשעה 23:55 + 5</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>16:48</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>16:51</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שישי בשעה 23:55 + 5</t>
-        </is>
-      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>2027-01-06 22:09</t>
@@ -3839,7 +3840,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="n">
+      <c r="A77" s="4" t="n">
         <v>46395</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -3860,29 +3861,29 @@
       <c r="E77" t="b">
         <v>0</v>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>16:53</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>16:57</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="n">
+      <c r="A78" s="4" t="n">
         <v>46402</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -3903,29 +3904,29 @@
       <c r="E78" t="b">
         <v>0</v>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>17:03</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>17:25</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="n">
+      <c r="A79" s="4" t="n">
         <v>46409</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -3946,29 +3947,29 @@
       <c r="E79" t="b">
         <v>0</v>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>17:06</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>16:45</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="n">
+      <c r="A80" s="4" t="n">
         <v>46416</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -3989,29 +3990,29 @@
       <c r="E80" t="b">
         <v>0</v>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>17:13</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>17:16</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>16:55</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>17:40</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="n">
+      <c r="A81" s="4" t="n">
         <v>46423</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -4034,32 +4035,32 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 12:39 + 6</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>17:19</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>17:22</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>17:45</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום ראשון בשעה 12:39 + 6</t>
-        </is>
-      </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="n">
+      <c r="A82" s="4" t="n">
         <v>46430</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -4080,29 +4081,29 @@
       <c r="E82" t="b">
         <v>0</v>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>17:25</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>17:28</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>17:50</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="n">
+      <c r="A83" s="4" t="n">
         <v>46437</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -4123,29 +4124,29 @@
       <c r="E83" t="b">
         <v>0</v>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>17:31</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>17:34</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>17:55</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="n">
+      <c r="A84" s="4" t="n">
         <v>46444</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -4166,29 +4167,29 @@
       <c r="E84" t="b">
         <v>0</v>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>17:37</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>17:40</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="n">
+      <c r="A85" s="4" t="n">
         <v>46451</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -4211,32 +4212,32 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 1:23 + 7</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>17:42</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>17:45</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>18:05</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שלישי בשעה 1:23 + 7</t>
-        </is>
-      </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="n">
+      <c r="A86" s="4" t="n">
         <v>46458</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -4257,29 +4258,29 @@
       <c r="E86" t="b">
         <v>0</v>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>17:47</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>17:50</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>17:25</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>18:10</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="n">
+      <c r="A87" s="4" t="n">
         <v>46465</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -4300,29 +4301,29 @@
       <c r="E87" t="b">
         <v>0</v>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>17:52</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>17:55</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="n">
+      <c r="A88" s="4" t="n">
         <v>46472</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -4343,29 +4344,29 @@
       <c r="E88" t="b">
         <v>0</v>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>18:57</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>18:59</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>18:35</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="n">
+      <c r="A89" s="4" t="n">
         <v>46479</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -4388,29 +4389,29 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שני בשעה 22:56 + 2</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>19:01</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>19:04</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שני בשעה 22:56 + 2</t>
-        </is>
-      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>2027-04-08 06:39</t>
@@ -4418,7 +4419,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="n">
+      <c r="A90" s="4" t="n">
         <v>46486</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -4439,29 +4440,29 @@
       <c r="E90" t="b">
         <v>0</v>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>19:06</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>19:09</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>18:45</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="n">
+      <c r="A91" s="4" t="n">
         <v>46493</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -4482,29 +4483,29 @@
       <c r="E91" t="b">
         <v>0</v>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>19:11</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>19:14</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="n">
+      <c r="A92" s="4" t="n">
         <v>46501</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -4525,29 +4526,29 @@
       <c r="E92" t="b">
         <v>0</v>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>19:17</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>19:40</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="n">
+      <c r="A93" s="4" t="n">
         <v>46507</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -4570,32 +4571,32 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שישי בשעה 2:51 + 9</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>19:21</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>19:24</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שישי בשעה 2:51 + 9</t>
-        </is>
-      </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="n">
+      <c r="A94" s="4" t="n">
         <v>46514</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -4616,29 +4617,29 @@
       <c r="E94" t="b">
         <v>0</v>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>19:26</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>19:29</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="n">
+      <c r="A95" s="4" t="n">
         <v>46521</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -4659,29 +4660,29 @@
       <c r="E95" t="b">
         <v>0</v>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>19:31</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>19:34</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="n">
+      <c r="A96" s="4" t="n">
         <v>46528</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -4702,29 +4703,29 @@
       <c r="E96" t="b">
         <v>0</v>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>19:36</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>19:38</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="n">
+      <c r="A97" s="4" t="n">
         <v>46535</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -4745,29 +4746,29 @@
       <c r="E97" t="b">
         <v>0</v>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>19:40</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>19:42</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="n">
+      <c r="A98" s="4" t="n">
         <v>46542</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -4790,32 +4791,32 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 15:35 + 10</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>19:44</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>19:46</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שבת בשעה 15:35 + 10</t>
-        </is>
-      </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="n">
+      <c r="A99" s="4" t="n">
         <v>46549</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -4836,29 +4837,29 @@
       <c r="E99" t="b">
         <v>0</v>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>19:47</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>19:48</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="n">
+      <c r="A100" s="4" t="n">
         <v>46556</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -4879,29 +4880,29 @@
       <c r="E100" t="b">
         <v>0</v>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="n">
+      <c r="A101" s="4" t="n">
         <v>46563</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -4922,29 +4923,29 @@
       <c r="E101" t="b">
         <v>0</v>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="n">
+      <c r="A102" s="4" t="n">
         <v>46570</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -4967,29 +4968,29 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שני בשעה 4:19 + 11</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שני בשעה 4:19 + 11</t>
-        </is>
-      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>2027-07-08 14:09</t>
@@ -4997,7 +4998,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="n">
+      <c r="A103" s="4" t="n">
         <v>46577</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -5018,29 +5019,29 @@
       <c r="E103" t="b">
         <v>0</v>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>19:47</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="n">
+      <c r="A104" s="4" t="n">
         <v>46584</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -5061,29 +5062,29 @@
       <c r="E104" t="b">
         <v>0</v>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>19:46</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>19:44</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="n">
+      <c r="A105" s="4" t="n">
         <v>46591</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -5104,29 +5105,29 @@
       <c r="E105" t="b">
         <v>0</v>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>19:42</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>19:40</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="n">
+      <c r="A106" s="4" t="n">
         <v>46598</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -5149,32 +5150,32 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 17:03 + 12</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
           <t>19:37</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>19:34</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שלישי בשעה 17:03 + 12</t>
-        </is>
-      </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="n">
+      <c r="A107" s="4" t="n">
         <v>46605</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -5195,29 +5196,29 @@
       <c r="E107" t="b">
         <v>0</v>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>19:31</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>19:28</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="n">
+      <c r="A108" s="4" t="n">
         <v>46612</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -5238,29 +5239,29 @@
       <c r="E108" t="b">
         <v>0</v>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>19:24</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="n">
+      <c r="A109" s="4" t="n">
         <v>46619</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -5281,29 +5282,29 @@
       <c r="E109" t="b">
         <v>0</v>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>19:17</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>19:12</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>19:40</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="n">
+      <c r="A110" s="4" t="n">
         <v>46626</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -5326,32 +5327,32 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 5:47 + 13</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
           <t>19:08</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>19:03</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>18:45</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום חמישי בשעה 5:47 + 13</t>
-        </is>
-      </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="n">
+      <c r="A111" s="4" t="n">
         <v>46633</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -5372,29 +5373,29 @@
       <c r="E111" t="b">
         <v>0</v>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>18:54</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>18:35</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="n">
+      <c r="A112" s="4" t="n">
         <v>46640</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -5415,29 +5416,29 @@
       <c r="E112" t="b">
         <v>0</v>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>18:51</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>18:45</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>18:25</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="n">
+      <c r="A113" s="4" t="n">
         <v>46647</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -5458,29 +5459,29 @@
       <c r="E113" t="b">
         <v>0</v>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>18:41</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>18:36</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="n">
+      <c r="A114" s="4" t="n">
         <v>46654</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -5501,29 +5502,29 @@
       <c r="E114" t="b">
         <v>0</v>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>18:32</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>18:27</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>18:05</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="n">
+      <c r="A115" s="4" t="n">
         <v>46661</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -5544,22 +5545,22 @@
       <c r="E115" t="b">
         <v>0</v>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>18:23</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>18:18</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>18:45</t>
         </is>
@@ -5571,7 +5572,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="n">
+      <c r="A116" s="4" t="n">
         <v>46668</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -5592,29 +5593,29 @@
       <c r="E116" t="b">
         <v>0</v>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>18:14</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>18:09</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>17:50</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>18:35</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="n">
+      <c r="A117" s="4" t="n">
         <v>46675</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -5635,29 +5636,29 @@
       <c r="E117" t="b">
         <v>0</v>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>18:06</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>18:01</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>17:40</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="n">
+      <c r="A118" s="4" t="n">
         <v>46689</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -5680,32 +5681,32 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 7:15 + 15</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
           <t>16:51</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>16:48</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום ראשון בשעה 7:15 + 15</t>
-        </is>
-      </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="n">
+      <c r="A119" s="4" t="n">
         <v>46696</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -5726,29 +5727,29 @@
       <c r="E119" t="b">
         <v>0</v>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>16:45</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>16:43</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>16:25</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="n">
+      <c r="A120" s="4" t="n">
         <v>46703</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -5769,29 +5770,29 @@
       <c r="E120" t="b">
         <v>0</v>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>16:41</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>16:39</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="n">
+      <c r="A121" s="4" t="n">
         <v>46710</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -5812,29 +5813,29 @@
       <c r="E121" t="b">
         <v>0</v>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>16:38</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="n">
+      <c r="A122" s="4" t="n">
         <v>46717</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -5857,32 +5858,32 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 19:59 + 16</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
+      <c r="J122" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שלישי בשעה 19:59 + 16</t>
-        </is>
-      </c>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="n">
+      <c r="A123" s="4" t="n">
         <v>46724</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -5903,29 +5904,29 @@
       <c r="E123" t="b">
         <v>0</v>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>16:55</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="n">
+      <c r="A124" s="4" t="n">
         <v>46731</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -5946,29 +5947,29 @@
       <c r="E124" t="b">
         <v>0</v>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>16:37</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="n">
+      <c r="A125" s="4" t="n">
         <v>46738</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -5989,29 +5990,29 @@
       <c r="E125" t="b">
         <v>0</v>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>16:38</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr">
+      <c r="J125" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="n">
+      <c r="A126" s="4" t="n">
         <v>46745</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -6034,32 +6035,32 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 8:43 + 17</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
           <t>16:42</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>16:45</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום חמישי בשעה 8:43 + 17</t>
-        </is>
-      </c>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="n">
+      <c r="A127" s="4" t="n">
         <v>46752</v>
       </c>
       <c r="B127" t="inlineStr">
@@ -6080,29 +6081,29 @@
       <c r="E127" t="b">
         <v>0</v>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>16:47</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>16:50</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>16:25</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
+      <c r="J127" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="n">
+      <c r="A128" s="4" t="n">
         <v>46759</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -6123,22 +6124,22 @@
       <c r="E128" t="b">
         <v>0</v>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>16:52</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>16:56</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
+      <c r="J128" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
@@ -6150,7 +6151,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="n">
+      <c r="A129" s="4" t="n">
         <v>46766</v>
       </c>
       <c r="B129" t="inlineStr">
@@ -6171,29 +6172,29 @@
       <c r="E129" t="b">
         <v>0</v>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>16:58</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>17:02</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr">
+      <c r="J129" t="inlineStr">
         <is>
           <t>17:25</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="n">
+      <c r="A130" s="4" t="n">
         <v>46773</v>
       </c>
       <c r="B130" t="inlineStr">
@@ -6216,32 +6217,32 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שישי בשעה 21:28 + 0</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
           <t>17:05</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>17:09</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>16:45</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
+      <c r="J130" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שישי בשעה 21:28 + 0</t>
-        </is>
-      </c>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="n">
+      <c r="A131" s="4" t="n">
         <v>46780</v>
       </c>
       <c r="B131" t="inlineStr">
@@ -6262,29 +6263,29 @@
       <c r="E131" t="b">
         <v>0</v>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>17:11</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>16:50</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr">
+      <c r="J131" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="n">
+      <c r="A132" s="4" t="n">
         <v>46787</v>
       </c>
       <c r="B132" t="inlineStr">
@@ -6305,29 +6306,29 @@
       <c r="E132" t="b">
         <v>0</v>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>17:18</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>17:21</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>17:45</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="n">
+      <c r="A133" s="4" t="n">
         <v>46794</v>
       </c>
       <c r="B133" t="inlineStr">
@@ -6348,29 +6349,29 @@
       <c r="E133" t="b">
         <v>0</v>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>17:24</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>17:27</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>17:50</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="n">
+      <c r="A134" s="4" t="n">
         <v>46801</v>
       </c>
       <c r="B134" t="inlineStr">
@@ -6391,29 +6392,29 @@
       <c r="E134" t="b">
         <v>0</v>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>17:33</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
+      <c r="J134" t="inlineStr">
         <is>
           <t>17:55</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="n">
+      <c r="A135" s="4" t="n">
         <v>46808</v>
       </c>
       <c r="B135" t="inlineStr">
@@ -6436,32 +6437,32 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 10:12 + 1</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
           <t>17:36</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>17:39</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr">
+      <c r="J135" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום ראשון בשעה 10:12 + 1</t>
-        </is>
-      </c>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="n">
+      <c r="A136" s="4" t="n">
         <v>46815</v>
       </c>
       <c r="B136" t="inlineStr">
@@ -6482,29 +6483,29 @@
       <c r="E136" t="b">
         <v>0</v>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>17:41</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>17:44</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr">
+      <c r="J136" t="inlineStr">
         <is>
           <t>18:05</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="n">
+      <c r="A137" s="4" t="n">
         <v>46822</v>
       </c>
       <c r="B137" t="inlineStr">
@@ -6525,29 +6526,29 @@
       <c r="E137" t="b">
         <v>0</v>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>17:46</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>17:49</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="I137" t="inlineStr">
         <is>
           <t>17:25</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
+      <c r="J137" t="inlineStr">
         <is>
           <t>18:10</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="n">
+      <c r="A138" s="4" t="n">
         <v>46829</v>
       </c>
       <c r="B138" t="inlineStr">
@@ -6568,29 +6569,29 @@
       <c r="E138" t="b">
         <v>0</v>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>17:51</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>17:54</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
+      <c r="J138" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="n">
+      <c r="A139" s="4" t="n">
         <v>46836</v>
       </c>
       <c r="B139" t="inlineStr">
@@ -6613,32 +6614,32 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 10:12 + 1</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
           <t>18:56</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>18:59</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>18:35</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום ראשון בשעה 10:12 + 1</t>
-        </is>
-      </c>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="n">
+      <c r="A140" s="4" t="n">
         <v>46843</v>
       </c>
       <c r="B140" t="inlineStr">
@@ -6659,29 +6660,29 @@
       <c r="E140" t="b">
         <v>0</v>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>19:01</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>19:03</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="n">
+      <c r="A141" s="4" t="n">
         <v>46850</v>
       </c>
       <c r="B141" t="inlineStr">
@@ -6702,22 +6703,22 @@
       <c r="E141" t="b">
         <v>0</v>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>19:08</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>18:45</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
@@ -6729,7 +6730,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="n">
+      <c r="A142" s="4" t="n">
         <v>46864</v>
       </c>
       <c r="B142" t="inlineStr">
@@ -6752,32 +6753,32 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום רביעי בשעה 11:40 + 3</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>19:18</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
+      <c r="J142" t="inlineStr">
         <is>
           <t>19:40</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום רביעי בשעה 11:40 + 3</t>
-        </is>
-      </c>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="n">
+      <c r="A143" s="4" t="n">
         <v>46871</v>
       </c>
       <c r="B143" t="inlineStr">
@@ -6798,29 +6799,29 @@
       <c r="E143" t="b">
         <v>0</v>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>19:23</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="n">
+      <c r="A144" s="4" t="n">
         <v>46878</v>
       </c>
       <c r="B144" t="inlineStr">
@@ -6841,29 +6842,29 @@
       <c r="E144" t="b">
         <v>0</v>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>19:28</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
+      <c r="J144" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="n">
+      <c r="A145" s="4" t="n">
         <v>46885</v>
       </c>
       <c r="B145" t="inlineStr">
@@ -6884,29 +6885,29 @@
       <c r="E145" t="b">
         <v>0</v>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>19:33</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="n">
+      <c r="A146" s="4" t="n">
         <v>46892</v>
       </c>
       <c r="B146" t="inlineStr">
@@ -6929,32 +6930,32 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 0:24 + 4</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>19:37</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="I146" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr">
+      <c r="J146" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום חמישי בשעה 0:24 + 4</t>
-        </is>
-      </c>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="n">
+      <c r="A147" s="4" t="n">
         <v>46899</v>
       </c>
       <c r="B147" t="inlineStr">
@@ -6975,29 +6976,29 @@
       <c r="E147" t="b">
         <v>0</v>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>19:39</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>19:42</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="I147" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
+      <c r="J147" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="n">
+      <c r="A148" s="4" t="n">
         <v>46906</v>
       </c>
       <c r="B148" t="inlineStr">
@@ -7018,29 +7019,29 @@
       <c r="E148" t="b">
         <v>0</v>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>19:43</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="I148" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
+      <c r="J148" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="n">
+      <c r="A149" s="4" t="n">
         <v>46913</v>
       </c>
       <c r="B149" t="inlineStr">
@@ -7061,29 +7062,29 @@
       <c r="E149" t="b">
         <v>0</v>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>19:46</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>19:48</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="I149" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
+      <c r="J149" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="n">
+      <c r="A150" s="4" t="n">
         <v>46920</v>
       </c>
       <c r="B150" t="inlineStr">
@@ -7106,32 +7107,32 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 13:08 + 5</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="I150" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
+      <c r="J150" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שבת בשעה 13:08 + 5</t>
-        </is>
-      </c>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="n">
+      <c r="A151" s="4" t="n">
         <v>46927</v>
       </c>
       <c r="B151" t="inlineStr">
@@ -7154,32 +7155,32 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 13:08 + 5</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="I151" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
+      <c r="J151" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שבת בשעה 13:08 + 5</t>
-        </is>
-      </c>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="n">
+      <c r="A152" s="4" t="n">
         <v>46934</v>
       </c>
       <c r="B152" t="inlineStr">
@@ -7200,29 +7201,29 @@
       <c r="E152" t="b">
         <v>0</v>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="I152" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
+      <c r="J152" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="3" t="n">
+      <c r="A153" s="4" t="n">
         <v>46941</v>
       </c>
       <c r="B153" t="inlineStr">
@@ -7243,22 +7244,22 @@
       <c r="E153" t="b">
         <v>0</v>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>19:48</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="I153" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr">
+      <c r="J153" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
@@ -7270,7 +7271,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="n">
+      <c r="A154" s="4" t="n">
         <v>46948</v>
       </c>
       <c r="B154" t="inlineStr">
@@ -7291,29 +7292,29 @@
       <c r="E154" t="b">
         <v>0</v>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>19:47</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="I154" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
+      <c r="J154" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="n">
+      <c r="A155" s="4" t="n">
         <v>46955</v>
       </c>
       <c r="B155" t="inlineStr">
@@ -7336,32 +7337,32 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 1:52 + 6</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
           <t>19:43</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>19:41</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="I155" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="I155" t="inlineStr">
+      <c r="J155" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
       </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום ראשון בשעה 1:52 + 6</t>
-        </is>
-      </c>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="n">
+      <c r="A156" s="4" t="n">
         <v>46962</v>
       </c>
       <c r="B156" t="inlineStr">
@@ -7382,29 +7383,29 @@
       <c r="E156" t="b">
         <v>0</v>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>19:38</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="I156" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr">
+      <c r="J156" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="n">
+      <c r="A157" s="4" t="n">
         <v>46969</v>
       </c>
       <c r="B157" t="inlineStr">
@@ -7425,29 +7426,29 @@
       <c r="E157" t="b">
         <v>0</v>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>19:33</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>19:29</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="I157" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr">
+      <c r="J157" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="n">
+      <c r="A158" s="4" t="n">
         <v>46976</v>
       </c>
       <c r="B158" t="inlineStr">
@@ -7468,29 +7469,29 @@
       <c r="E158" t="b">
         <v>0</v>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>19:26</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t>19:22</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="I158" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr">
+      <c r="J158" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="n">
+      <c r="A159" s="4" t="n">
         <v>46983</v>
       </c>
       <c r="B159" t="inlineStr">
@@ -7513,32 +7514,32 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 14:36 + 7</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
           <t>19:18</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>19:14</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="I159" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr">
+      <c r="J159" t="inlineStr">
         <is>
           <t>19:40</t>
         </is>
       </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> יום שלישי בשעה 14:36 + 7</t>
-        </is>
-      </c>
     </row>
     <row r="160">
-      <c r="A160" s="3" t="n">
+      <c r="A160" s="4" t="n">
         <v>46990</v>
       </c>
       <c r="B160" t="inlineStr">
@@ -7559,29 +7560,29 @@
       <c r="E160" t="b">
         <v>0</v>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="I160" t="inlineStr">
         <is>
           <t>18:45</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr">
+      <c r="J160" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="n">
+      <c r="A161" s="4" t="n">
         <v>46997</v>
       </c>
       <c r="B161" t="inlineStr">
@@ -7602,29 +7603,29 @@
       <c r="E161" t="b">
         <v>0</v>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>19:01</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>18:56</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="I161" t="inlineStr">
         <is>
           <t>18:35</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr">
+      <c r="J161" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="n">
+      <c r="A162" s="4" t="n">
         <v>47004</v>
       </c>
       <c r="B162" t="inlineStr">
@@ -7645,29 +7646,29 @@
       <c r="E162" t="b">
         <v>0</v>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>18:52</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>18:47</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="I162" t="inlineStr">
         <is>
           <t>18:25</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
+      <c r="J162" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="n">
+      <c r="A163" s="4" t="n">
         <v>47011</v>
       </c>
       <c r="B163" t="inlineStr">
@@ -7688,29 +7689,29 @@
       <c r="E163" t="b">
         <v>0</v>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>18:43</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>18:38</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="I163" t="inlineStr">
         <is>
           <t>18:20</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr">
+      <c r="J163" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="n">
+      <c r="A164" s="4" t="n">
         <v>47018</v>
       </c>
       <c r="B164" t="inlineStr">
@@ -7731,22 +7732,22 @@
       <c r="E164" t="b">
         <v>0</v>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>18:34</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>18:28</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="I164" t="inlineStr">
         <is>
           <t>18:10</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr">
+      <c r="J164" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>
@@ -7879,37 +7880,37 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>45933</v>
+      <c r="A2" s="5" t="n">
+        <v>45856</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>03/10/2025</t>
+          <t>18/07/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>האזינו</t>
+          <t>פינחס</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>האזינו</t>
+          <t>פינחס</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>18:05</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18:05</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -7939,49 +7940,45 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>18:58</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>לא</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>2025-10-07 09:39</t>
-        </is>
-      </c>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K164"/>
+  <dimension ref="A1:K168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1075,112 +1075,112 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>45947</v>
+        <v>45940</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>בראשית</t>
+          <t>סוכות</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:56</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>18:51</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום רביעי בשעה 0:54 + 8</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18:03</t>
+          <t>18:11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>18:06</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>18:35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>45954</v>
+        <v>45947</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>נח</t>
+          <t>בראשית</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>17:48</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18:42</t>
+        </is>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום רביעי בשעה 0:54 + 8</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>17:59</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>17:40</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>18:34</t>
-        </is>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>16:56</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>16:52</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>18:25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>45961</v>
+        <v>45954</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>לך־לך</t>
+          <t>נח</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>17:28</t>
+          <t>18:34</t>
         </is>
       </c>
       <c r="E17" t="b">
@@ -1188,42 +1188,42 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16:49</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>16:46</t>
+          <t>16:52</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>17:20</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>45968</v>
+        <v>45961</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>וירא</t>
+          <t>לך־לך</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:28</t>
         </is>
       </c>
       <c r="E18" t="b">
@@ -1231,60 +1231,55 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>16:44</t>
+          <t>16:49</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:46</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>45975</v>
+        <v>45968</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>חיי שרה</t>
+          <t>וירא</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>17:19</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום חמישי בשעה 13:38 + 9</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>16:44</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1294,45 +1289,50 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:05</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>45982</v>
+        <v>45975</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>תולדות</t>
+          <t>חיי שרה</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>16:23</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17:19</t>
+        </is>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 13:38 + 9</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>16:39</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>16:38</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>16:20</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>17:17</t>
-        </is>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>16:37</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>16:36</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>16:15</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1343,21 +1343,21 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>45989</v>
+        <v>45982</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ויצא</t>
+          <t>תולדות</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="E21" t="b">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>16:37</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1380,17 +1380,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>45996</v>
+        <v>45989</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>וישלח</t>
+          <t>ויצא</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="E22" t="b">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>16:36</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1423,45 +1423,40 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:55</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>46003</v>
+        <v>45996</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>וישב</t>
+          <t>וישלח</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:19</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שבת בשעה 2:22 + 10</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16:37</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1477,21 +1472,21 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>46010</v>
+        <v>46003</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>מקץ</t>
+          <t>וישב</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>16:19</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="E24" t="b">
@@ -1504,85 +1499,90 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>16:37</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>16:42</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>46017</v>
+        <v>46010</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ויגש</t>
+          <t>מקץ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 2:22 + 10</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>16:44</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>16:46</t>
+          <t>16:42</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>17:05</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>46024</v>
+        <v>46017</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ויחי</t>
+          <t>ויגש</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>17:28</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="E26" t="b">
@@ -1590,47 +1590,42 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>16:49</t>
+          <t>16:44</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>16:52</t>
+          <t>16:46</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2026-01-06 16:09</t>
+          <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>46031</v>
+        <v>46024</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>שמות</t>
+          <t>ויחי</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17:34</t>
+          <t>17:28</t>
         </is>
       </c>
       <c r="E27" t="b">
@@ -1638,133 +1633,138 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:49</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>16:52</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2026-01-06 16:09</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>46038</v>
+        <v>46031</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>וארא</t>
+          <t>שמות</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>17:34</t>
         </is>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום ראשון בשעה 15:06 + 11</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>17:04</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>17:20</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>46045</v>
+        <v>46038</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>בא</t>
+          <t>וארא</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 15:06 + 11</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>17:07</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>17:11</t>
+          <t>17:04</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>17:25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>46052</v>
+        <v>46045</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>בשלח</t>
+          <t>בא</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17:52</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="E30" t="b">
@@ -1772,42 +1772,42 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>17:14</t>
+          <t>17:07</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>17:11</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>17:35</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>46059</v>
+        <v>46052</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>יתרו</t>
+          <t>בשלח</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17:58</t>
+          <t>17:52</t>
         </is>
       </c>
       <c r="E31" t="b">
@@ -1815,133 +1815,133 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:14</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>46066</v>
+        <v>46059</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>משפטים</t>
+          <t>יתרו</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:07</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>18:03</t>
+          <t>17:58</t>
         </is>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שלישי בשעה 3:50 + 12</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>17:26</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>17:45</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>46073</v>
+        <v>46066</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>תרומה</t>
+          <t>משפטים</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:13</t>
+          <t>17:07</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 3:50 + 12</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:26</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:50</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>46080</v>
+        <v>46073</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>תצוה</t>
+          <t>תרומה</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>17:13</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>18:09</t>
         </is>
       </c>
       <c r="E34" t="b">
@@ -1949,42 +1949,42 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>18:05</t>
+          <t>17:55</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>46087</v>
+        <v>46080</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>כי תשא</t>
+          <t>תצוה</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="E35" t="b">
@@ -1992,108 +1992,108 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>17:43</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>18:05</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>46094</v>
+        <v>46087</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ויקהל-פקודי</t>
+          <t>כי תשא</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>18:24</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שלישי בשעה 3:50 + 12</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:43</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>17:51</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>18:10</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>46101</v>
+        <v>46094</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ויקרא</t>
+          <t>ויקהל-פקודי</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:34</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>18:29</t>
+          <t>18:24</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 3:50 + 12</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>17:53</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:51</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2104,21 +2104,21 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>46108</v>
+        <v>46101</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>צו</t>
+          <t>ויקרא</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18:39</t>
+          <t>17:34</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>18:29</t>
         </is>
       </c>
       <c r="E38" t="b">
@@ -2126,181 +2126,181 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18:58</t>
+          <t>17:53</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>18:15</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>46115</v>
+        <v>46108</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>פסח</t>
+          <t>צו</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>18:39</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>19:39</t>
-        </is>
-      </c>
-      <c r="E39" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>19:02</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>19:05</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>18:40</t>
-        </is>
-      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>2026-04-08 00:39</t>
+          <t>19:20</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>46122</v>
+        <v>46115</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>שמיני</t>
+          <t>פסח</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>18:48</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:39</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שישי בשעה 5:18 + 14</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>19:02</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2026-04-08 00:39</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>46129</v>
+        <v>46122</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>תזריע-מצרע</t>
+          <t>שמיני</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>18:53</t>
+          <t>18:48</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שישי בשעה 5:18 + 14</t>
+        </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19:12</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:30</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>46136</v>
+        <v>46129</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>אחרי מות-קדשים</t>
+          <t>תזריע-מצרע</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>18:58</t>
+          <t>18:53</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="E42" t="b">
@@ -2308,42 +2308,42 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>19:17</t>
+          <t>19:12</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:35</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>46143</v>
+        <v>46136</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>אמור</t>
+          <t>אחרי מות-קדשים</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>19:03</t>
+          <t>18:58</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>20:01</t>
+          <t>19:55</t>
         </is>
       </c>
       <c r="E43" t="b">
@@ -2351,42 +2351,42 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>19:17</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>46150</v>
+        <v>46143</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>בהר-בחקתי</t>
+          <t>אמור</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:03</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>20:07</t>
+          <t>20:01</t>
         </is>
       </c>
       <c r="E44" t="b">
@@ -2394,133 +2394,133 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>46157</v>
+        <v>46150</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>במדבר</t>
+          <t>בהר-בחקתי</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>19:13</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>20:12</t>
+          <t>20:07</t>
         </is>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שבת בשעה 18:02 + 15</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
-        <v>46164</v>
+        <v>46157</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>נשא</t>
+          <t>במדבר</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>19:18</t>
+          <t>19:13</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>20:18</t>
+          <t>20:12</t>
         </is>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 18:02 + 15</t>
+        </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>19:36</t>
+          <t>19:32</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>19:39</t>
+          <t>19:34</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>46171</v>
+        <v>46164</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>בהעלתך</t>
+          <t>נשא</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>19:18</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>20:18</t>
         </is>
       </c>
       <c r="E47" t="b">
@@ -2528,42 +2528,42 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19:41</t>
+          <t>19:36</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:39</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>46178</v>
+        <v>46171</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>שלח־לך</t>
+          <t>בהעלתך</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>19:26</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="E48" t="b">
@@ -2571,60 +2571,55 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>19:41</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>46185</v>
+        <v>46178</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>קורח</t>
+          <t>שלח־לך</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:26</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שני בשעה 6:46 + 16</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>19:47</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2640,39 +2635,44 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="n">
-        <v>46192</v>
+        <v>46185</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>חקת</t>
+          <t>קורח</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>20:33</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שני בשעה 6:46 + 16</t>
+        </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
+          <t>19:47</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2683,21 +2683,21 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>46199</v>
+        <v>46192</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>בלק</t>
+          <t>חקת</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>19:33</t>
+          <t>19:31</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>20:34</t>
+          <t>20:33</t>
         </is>
       </c>
       <c r="E51" t="b">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2726,11 +2726,11 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>46206</v>
+        <v>46199</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>פינחס</t>
+          <t>בלק</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>20:33</t>
+          <t>20:34</t>
         </is>
       </c>
       <c r="E52" t="b">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2764,92 +2764,92 @@
       <c r="J52" t="inlineStr">
         <is>
           <t>20:10</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>2026-07-08 08:09</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>46213</v>
+        <v>46206</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>מטות-מסעי</t>
+          <t>פינחס</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>19:33</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>20:31</t>
+          <t>20:33</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שלישי בשעה 19:30 + 17</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>19:48</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>19:47</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>20:10</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2026-07-08 08:09</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
-        <v>46220</v>
+        <v>46213</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>דברים</t>
+          <t>מטות-מסעי</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:31</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>20:28</t>
+          <t>20:31</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 19:30 + 17</t>
+        </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>19:48</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:47</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2865,241 +2865,241 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="n">
-        <v>46227</v>
+        <v>46220</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ואתחנן</t>
+          <t>דברים</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>20:28</t>
+        </is>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>19:46</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>20:24</t>
-        </is>
-      </c>
-      <c r="E55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>19:42</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>19:39</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>19:20</t>
-        </is>
-      </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="n">
-        <v>46234</v>
+        <v>46227</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>עקב</t>
+          <t>ואתחנן</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>20:24</t>
+        </is>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>19:42</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>19:39</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>20:18</t>
-        </is>
-      </c>
-      <c r="E56" t="b">
-        <v>0</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>19:36</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>19:33</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>19:15</t>
-        </is>
-      </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="n">
-        <v>46241</v>
+        <v>46234</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ראה</t>
+          <t>עקב</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>20:18</t>
+        </is>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>19:36</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>20:11</t>
-        </is>
-      </c>
-      <c r="E57" t="b">
-        <v>1</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום חמישי בשעה 8:15 + 0</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>19:26</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>19:05</t>
-        </is>
-      </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="n">
-        <v>46248</v>
+        <v>46241</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>שופטים</t>
+          <t>ראה</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>20:04</t>
+          <t>20:11</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 8:15 + 0</t>
+        </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>19:23</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>19:19</t>
+          <t>19:26</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="n">
-        <v>46255</v>
+        <v>46248</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>כי־תצא</t>
+          <t>שופטים</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>19:08</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>20:04</t>
+        </is>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>19:19</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>19:55</t>
-        </is>
-      </c>
-      <c r="E59" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>19:15</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>19:11</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>18:50</t>
-        </is>
-      </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="n">
-        <v>46262</v>
+        <v>46255</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>כי־תבוא</t>
+          <t>כי־תצא</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>18:52</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>19:55</t>
         </is>
       </c>
       <c r="E60" t="b">
@@ -3107,42 +3107,42 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>19:02</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:35</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="n">
-        <v>46269</v>
+        <v>46262</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>נצבים-וילך</t>
+          <t>כי־תבוא</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>18:52</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="E61" t="b">
@@ -3150,42 +3150,42 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>18:58</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>18:53</t>
+          <t>19:02</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:30</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="n">
-        <v>46283</v>
+        <v>46269</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>האזינו</t>
+          <t>נצבים-וילך</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>19:18</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="E62" t="b">
@@ -3193,42 +3193,42 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>18:58</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>18:34</t>
+          <t>18:53</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:20</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="n">
-        <v>46283</v>
+        <v>46276</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>סוכות</t>
+          <t>נצבים-וילך</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>18:13</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>19:09</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="E63" t="b">
@@ -3236,90 +3236,85 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>18:49</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>18:34</t>
+          <t>18:44</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:10</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="n">
-        <v>46304</v>
+        <v>46283</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>בראשית</t>
+          <t>האזינו</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>18:51</t>
+          <t>19:18</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום ראשון בשעה 9:43 + 2</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>18:13</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>18:08</t>
+          <t>18:34</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>19:00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="n">
-        <v>46311</v>
+        <v>46290</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>נח</t>
+          <t>סוכות</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>17:49</t>
+          <t>18:13</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:09</t>
         </is>
       </c>
       <c r="E65" t="b">
@@ -3327,42 +3322,42 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>18:04</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>18:05</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>18:50</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="n">
-        <v>46318</v>
+        <v>46297</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>לך־לך</t>
+          <t>וזאת הברכה</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>18:36</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E66" t="b">
@@ -3370,176 +3365,181 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16:57</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>18:16</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2026-10-07 15:39</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="n">
-        <v>46325</v>
+        <v>46304</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>וירא</t>
+          <t>בראשית</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>17:57</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>18:51</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 9:43 + 2</t>
+        </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>16:50</t>
+          <t>18:13</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>18:08</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>18:35</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="n">
-        <v>46332</v>
+        <v>46311</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>חיי שרה</t>
+          <t>נח</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>16:28</t>
+          <t>17:49</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שלישי בשעה 22:27 + 3</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>18:04</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>16:42</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>18:25</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="n">
-        <v>46339</v>
+        <v>46318</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>תולדות</t>
+          <t>לך־לך</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>18:36</t>
+        </is>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>16:57</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>16:53</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
           <t>17:20</t>
-        </is>
-      </c>
-      <c r="E69" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>16:40</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>16:38</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>16:20</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="n">
-        <v>46346</v>
+        <v>46325</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ויצא</t>
+          <t>וירא</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -3547,108 +3547,108 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>16:37</t>
+          <t>16:50</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>16:36</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="n">
-        <v>46353</v>
+        <v>46332</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>וישלח</t>
+          <t>חיי שרה</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:28</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 22:27 + 3</t>
+        </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>16:42</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>17:05</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="n">
-        <v>46360</v>
+        <v>46339</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>וישב</t>
+          <t>תולדות</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום חמישי בשעה 11:11 + 4</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>16:36</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3659,16 +3659,16 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="n">
-        <v>46367</v>
+        <v>46346</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>מקץ</t>
+          <t>ויצא</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3681,12 +3681,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
+          <t>16:37</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
           <t>16:36</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>16:38</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3702,21 +3702,21 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="n">
-        <v>46374</v>
+        <v>46353</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ויגש</t>
+          <t>וישלח</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>17:19</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="E74" t="b">
@@ -3724,138 +3724,133 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:55</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="n">
-        <v>46381</v>
+        <v>46360</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ויחי</t>
+          <t>וישב</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 11:11 + 4</t>
+        </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>16:46</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="n">
-        <v>46388</v>
+        <v>46367</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>שמות</t>
+          <t>מקץ</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>17:28</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שישי בשעה 23:55 + 5</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>2027-01-06 22:09</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="n">
-        <v>46395</v>
+        <v>46374</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>וארא</t>
+          <t>ויגש</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>17:19</t>
         </is>
       </c>
       <c r="E77" t="b">
@@ -3863,42 +3858,42 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>16:57</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:05</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="n">
-        <v>46402</v>
+        <v>46381</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>בא</t>
+          <t>ויחי</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="E78" t="b">
@@ -3906,219 +3901,224 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>16:46</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="n">
-        <v>46409</v>
+        <v>46388</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>בשלח</t>
+          <t>שמות</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:28</t>
         </is>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שישי בשעה 23:55 + 5</t>
+        </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2027-01-06 22:09</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="n">
-        <v>46416</v>
+        <v>46395</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>יתרו</t>
+          <t>וארא</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>16:34</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>17:33</t>
+        </is>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>16:53</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>17:51</t>
-        </is>
-      </c>
-      <c r="E80" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>17:13</t>
-        </is>
-      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>16:57</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>17:20</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="n">
-        <v>46423</v>
+        <v>46402</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>משפטים</t>
+          <t>בא</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>17:56</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום ראשון בשעה 12:39 + 6</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>17:19</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:25</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="n">
-        <v>46430</v>
+        <v>46409</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>תרומה</t>
+          <t>בשלח</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>16:47</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>17:06</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>18:02</t>
-        </is>
-      </c>
-      <c r="E82" t="b">
-        <v>0</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>17:25</t>
-        </is>
-      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>17:28</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>17:30</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="n">
-        <v>46437</v>
+        <v>46416</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>תצוה</t>
+          <t>יתרו</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>17:12</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>18:08</t>
+          <t>17:51</t>
         </is>
       </c>
       <c r="E83" t="b">
@@ -4126,133 +4126,133 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>17:13</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>17:34</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:40</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="n">
-        <v>46444</v>
+        <v>46423</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>כי תשא</t>
+          <t>משפטים</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>18:13</t>
+          <t>17:56</t>
         </is>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 12:39 + 6</t>
+        </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>17:37</t>
+          <t>17:19</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:45</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="n">
-        <v>46451</v>
+        <v>46430</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ויקהל</t>
+          <t>תרומה</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>18:18</t>
+          <t>18:02</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שלישי בשעה 1:23 + 7</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>17:42</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:28</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>18:05</t>
+          <t>17:50</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="n">
-        <v>46458</v>
+        <v>46437</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>פקודי</t>
+          <t>תצוה</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>17:28</t>
+          <t>17:12</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>18:23</t>
+          <t>18:08</t>
         </is>
       </c>
       <c r="E86" t="b">
@@ -4260,42 +4260,42 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>17:34</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>17:55</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="n">
-        <v>46465</v>
+        <v>46444</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ויקרא</t>
+          <t>כי תשא</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>18:28</t>
+          <t>18:13</t>
         </is>
       </c>
       <c r="E87" t="b">
@@ -4303,138 +4303,133 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>17:52</t>
+          <t>17:37</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="n">
-        <v>46472</v>
+        <v>46451</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>צו</t>
+          <t>ויקהל</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>18:38</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>19:33</t>
+          <t>18:18</t>
         </is>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 1:23 + 7</t>
+        </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>18:57</t>
+          <t>17:42</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>18:59</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>18:05</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="n">
-        <v>46479</v>
+        <v>46458</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>שמיני</t>
+          <t>פקודי</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>17:28</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>19:38</t>
+          <t>18:23</t>
         </is>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שני בשעה 22:56 + 2</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>19:01</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>19:04</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>2027-04-08 06:39</t>
+          <t>18:10</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="n">
-        <v>46486</v>
+        <v>46465</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>תזריע</t>
+          <t>ויקרא</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>18:47</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>18:28</t>
         </is>
       </c>
       <c r="E90" t="b">
@@ -4442,42 +4437,42 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>17:52</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>19:09</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:15</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="n">
-        <v>46493</v>
+        <v>46472</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>מצרע</t>
+          <t>צו</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>18:52</t>
+          <t>18:38</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:33</t>
         </is>
       </c>
       <c r="E91" t="b">
@@ -4485,133 +4480,138 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>18:57</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>19:14</t>
+          <t>18:59</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:20</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="n">
-        <v>46501</v>
+        <v>46479</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>פסח</t>
+          <t>שמיני</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>19:54</t>
+          <t>19:38</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שני בשעה 22:56 + 2</t>
+        </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>19:17</t>
+          <t>19:01</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:04</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2027-04-08 06:39</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="n">
-        <v>46507</v>
+        <v>46486</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>אחרי מות</t>
+          <t>תזריע</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>19:02</t>
+          <t>18:47</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שישי בשעה 2:51 + 9</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>19:24</t>
+          <t>19:09</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:30</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="n">
-        <v>46514</v>
+        <v>46493</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>קדשים</t>
+          <t>מצרע</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>18:52</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>20:06</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="E94" t="b">
@@ -4619,42 +4619,42 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>19:26</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:14</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:35</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="n">
-        <v>46521</v>
+        <v>46501</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>אמור</t>
+          <t>פסח</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>19:12</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>20:11</t>
+          <t>19:54</t>
         </is>
       </c>
       <c r="E95" t="b">
@@ -4662,85 +4662,90 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>19:17</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>19:40</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="n">
-        <v>46528</v>
+        <v>46507</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>בהר</t>
+          <t>אחרי מות</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>19:17</t>
+          <t>19:02</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>20:17</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שישי בשעה 2:51 + 9</t>
+        </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>19:36</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>19:38</t>
+          <t>19:24</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="n">
-        <v>46535</v>
+        <v>46514</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>בחקתי</t>
+          <t>קדשים</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>20:22</t>
+          <t>20:06</t>
         </is>
       </c>
       <c r="E97" t="b">
@@ -4748,90 +4753,85 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:26</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>19:42</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="n">
-        <v>46542</v>
+        <v>46521</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>במדבר</t>
+          <t>אמור</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:12</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>20:26</t>
+          <t>20:11</t>
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שבת בשעה 15:35 + 10</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>19:31</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>19:34</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="n">
-        <v>46549</v>
+        <v>46528</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>נשא</t>
+          <t>בהר</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:17</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:17</t>
         </is>
       </c>
       <c r="E99" t="b">
@@ -4839,42 +4839,42 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>19:47</t>
+          <t>19:36</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>19:48</t>
+          <t>19:38</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="n">
-        <v>46556</v>
+        <v>46535</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>בהעלתך</t>
+          <t>בחקתי</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>20:32</t>
+          <t>20:22</t>
         </is>
       </c>
       <c r="E100" t="b">
@@ -4882,60 +4882,65 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:42</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="n">
-        <v>46563</v>
+        <v>46542</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>שלח־לך</t>
+          <t>במדבר</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>20:33</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 15:35 + 10</t>
+        </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -4946,69 +4951,59 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="n">
-        <v>46570</v>
+        <v>46549</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>קורח</t>
+          <t>נשא</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>19:33</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>20:33</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שני בשעה 4:19 + 11</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:47</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:48</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
           <t>20:10</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>2027-07-08 14:09</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="n">
-        <v>46577</v>
+        <v>46556</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>חקת</t>
+          <t>בהעלתך</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>19:31</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5026,12 +5021,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>19:47</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5042,21 +5037,21 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="n">
-        <v>46584</v>
+        <v>46563</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>בלק</t>
+          <t>שלח־לך</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:32</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>20:29</t>
+          <t>20:33</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -5064,17 +5059,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5085,112 +5080,117 @@
     </row>
     <row r="105">
       <c r="A105" s="4" t="n">
-        <v>46591</v>
+        <v>46570</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>פינחס</t>
+          <t>קורח</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>19:26</t>
+          <t>19:33</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>20:25</t>
+          <t>20:33</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שני בשעה 4:19 + 11</t>
+        </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>19:42</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>2027-07-08 14:09</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="4" t="n">
-        <v>46598</v>
+        <v>46577</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>מטות-מסעי</t>
+          <t>חקת</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>19:32</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>20:19</t>
+          <t>20:32</t>
         </is>
       </c>
       <c r="E106" t="b">
-        <v>1</v>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שלישי בשעה 17:03 + 12</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>19:34</t>
+          <t>19:47</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="n">
-        <v>46605</v>
+        <v>46584</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>דברים</t>
+          <t>בלק</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>20:12</t>
+          <t>20:29</t>
         </is>
       </c>
       <c r="E107" t="b">
@@ -5198,176 +5198,176 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="n">
-        <v>46612</v>
+        <v>46591</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ואתחנן</t>
+          <t>פינחס</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>19:09</t>
+          <t>19:26</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
+          <t>20:25</t>
+        </is>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>19:42</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
           <t>20:05</t>
-        </is>
-      </c>
-      <c r="E108" t="b">
-        <v>0</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>19:24</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>19:20</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="n">
-        <v>46619</v>
+        <v>46598</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>עקב</t>
+          <t>מטות-מסעי</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>19:01</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>19:57</t>
+          <t>20:19</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 17:03 + 12</t>
+        </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>19:17</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>19:12</t>
+          <t>19:34</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="4" t="n">
-        <v>46626</v>
+        <v>46605</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ראה</t>
+          <t>דברים</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>18:53</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>19:48</t>
+          <t>20:12</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>1</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום חמישי בשעה 5:47 + 13</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:31</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>19:03</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="4" t="n">
-        <v>46633</v>
+        <v>46612</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>שופטים</t>
+          <t>ואתחנן</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>19:09</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>19:39</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="E111" t="b">
@@ -5375,42 +5375,42 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
+          <t>19:24</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>18:54</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>18:35</t>
-        </is>
-      </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="4" t="n">
-        <v>46640</v>
+        <v>46619</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>כי־תצא</t>
+          <t>עקב</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>18:36</t>
+          <t>19:01</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:57</t>
         </is>
       </c>
       <c r="E112" t="b">
@@ -5418,85 +5418,90 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>18:51</t>
+          <t>19:17</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>19:12</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:40</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="n">
-        <v>46647</v>
+        <v>46626</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>כי־תבוא</t>
+          <t>ראה</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>18:26</t>
+          <t>18:53</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:48</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 5:47 + 13</t>
+        </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>18:41</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>18:36</t>
+          <t>19:03</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:30</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="n">
-        <v>46654</v>
+        <v>46633</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>נצבים-וילך</t>
+          <t>שופטים</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>18:17</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:39</t>
         </is>
       </c>
       <c r="E114" t="b">
@@ -5504,42 +5509,42 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>18:32</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>18:05</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>19:20</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="n">
-        <v>46661</v>
+        <v>46640</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ראש=השנה</t>
+          <t>כי־תצא</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>18:05</t>
+          <t>18:36</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>19:01</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="E115" t="b">
@@ -5547,47 +5552,42 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>18:23</t>
+          <t>18:51</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>18:18</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>18:45</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>2027-10-07 21:39</t>
+          <t>19:15</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="4" t="n">
-        <v>46668</v>
+        <v>46647</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>האזינו</t>
+          <t>כי־תבוא</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>18:26</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>18:52</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="E116" t="b">
@@ -5595,28 +5595,28 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>18:41</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>18:36</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>19:05</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="n">
-        <v>46675</v>
+        <v>46654</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -5625,12 +5625,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>18:17</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>18:44</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="E117" t="b">
@@ -5638,90 +5638,90 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>18:06</t>
+          <t>18:32</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>18:01</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>18:05</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:55</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="4" t="n">
-        <v>46689</v>
+        <v>46661</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>בראשית</t>
+          <t>ראש=השנה</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>17:36</t>
+          <t>18:05</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:01</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום ראשון בשעה 7:15 + 15</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>18:23</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>18:18</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>2027-10-07 21:39</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="n">
-        <v>46696</v>
+        <v>46668</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>נח</t>
+          <t>האזינו</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>18:52</t>
         </is>
       </c>
       <c r="E119" t="b">
@@ -5729,42 +5729,42 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>18:09</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>18:35</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="4" t="n">
-        <v>46703</v>
+        <v>46675</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>לך־לך</t>
+          <t>נצבים-וילך</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>18:44</t>
         </is>
       </c>
       <c r="E120" t="b">
@@ -5772,42 +5772,42 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>18:06</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>18:30</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="n">
-        <v>46710</v>
+        <v>46682</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>וירא</t>
+          <t>וזאת הברכה</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>17:44</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>18:38</t>
         </is>
       </c>
       <c r="E121" t="b">
@@ -5815,42 +5815,42 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>17:58</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>16:36</t>
+          <t>17:54</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:20</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="4" t="n">
-        <v>46717</v>
+        <v>46689</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>חיי שרה</t>
+          <t>בראשית</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>17:36</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="E122" t="b">
@@ -5858,47 +5858,47 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שלישי בשעה 19:59 + 16</t>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 7:15 + 15</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>16:36</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="4" t="n">
-        <v>46724</v>
+        <v>46696</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>תולדות</t>
+          <t>נח</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -5906,42 +5906,42 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>17:05</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="4" t="n">
-        <v>46731</v>
+        <v>46703</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ויצא</t>
+          <t>לך־לך</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -5949,42 +5949,42 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>16:36</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>16:37</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:05</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="4" t="n">
-        <v>46738</v>
+        <v>46710</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>וישלח</t>
+          <t>וירא</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>17:19</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="E125" t="b">
@@ -5997,12 +5997,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6013,21 +6013,21 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="n">
-        <v>46745</v>
+        <v>46717</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>וישב</t>
+          <t>חיי שרה</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -6035,47 +6035,47 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום חמישי בשעה 8:43 + 17</t>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 19:59 + 16</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>16:42</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="4" t="n">
-        <v>46752</v>
+        <v>46724</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>מקץ</t>
+          <t>תולדות</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>16:28</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="E127" t="b">
@@ -6083,42 +6083,42 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>16:50</t>
+          <t>16:35</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>16:55</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="4" t="n">
-        <v>46759</v>
+        <v>46731</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ויגש</t>
+          <t>ויצא</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="E128" t="b">
@@ -6126,47 +6126,42 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>16:52</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:37</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>17:20</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>2028-01-07 04:09</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="4" t="n">
-        <v>46766</v>
+        <v>46738</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ויחי</t>
+          <t>וישלח</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:19</t>
         </is>
       </c>
       <c r="E129" t="b">
@@ -6174,42 +6169,42 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="4" t="n">
-        <v>46773</v>
+        <v>46745</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>שמות</t>
+          <t>וישב</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:23</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>17:43</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="E130" t="b">
@@ -6217,47 +6212,47 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שישי בשעה 21:28 + 0</t>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 8:43 + 17</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
+          <t>16:42</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
           <t>17:05</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>17:09</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>17:30</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="4" t="n">
-        <v>46780</v>
+        <v>46752</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>וארא</t>
+          <t>מקץ</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>16:52</t>
+          <t>16:28</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>17:49</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="E131" t="b">
@@ -6265,42 +6260,42 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>17:11</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:50</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>16:50</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>17:10</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="4" t="n">
-        <v>46787</v>
+        <v>46759</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>בא</t>
+          <t>ויגש</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E132" t="b">
@@ -6308,42 +6303,47 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>16:52</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>17:21</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>2028-01-07 04:09</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="4" t="n">
-        <v>46794</v>
+        <v>46766</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>בשלח</t>
+          <t>ויחי</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>18:01</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E133" t="b">
@@ -6351,133 +6351,133 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>17:27</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>17:25</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="4" t="n">
-        <v>46801</v>
+        <v>46773</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>יתרו</t>
+          <t>שמות</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>17:11</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>18:07</t>
+          <t>17:43</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שישי בשעה 21:28 + 0</t>
+        </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>17:09</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
           <t>17:30</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>17:33</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>17:10</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>17:55</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="4" t="n">
-        <v>46808</v>
+        <v>46780</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>משפטים</t>
+          <t>וארא</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>16:52</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>18:12</t>
+          <t>17:49</t>
         </is>
       </c>
       <c r="E135" t="b">
-        <v>1</v>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום ראשון בשעה 10:12 + 1</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>17:36</t>
+          <t>17:11</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:50</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:35</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="4" t="n">
-        <v>46815</v>
+        <v>46787</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>תרומה</t>
+          <t>בא</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>18:17</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="E136" t="b">
@@ -6485,85 +6485,85 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>17:44</t>
+          <t>17:21</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>18:05</t>
+          <t>17:45</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="4" t="n">
-        <v>46822</v>
+        <v>46794</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>תצוה</t>
+          <t>בשלח</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>18:01</t>
+        </is>
+      </c>
+      <c r="E137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>17:24</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
           <t>17:27</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>18:22</t>
-        </is>
-      </c>
-      <c r="E137" t="b">
-        <v>0</v>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>17:46</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>17:49</t>
-        </is>
-      </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>17:50</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="4" t="n">
-        <v>46829</v>
+        <v>46801</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>כי תשא</t>
+          <t>יתרו</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:11</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:07</t>
         </is>
       </c>
       <c r="E138" t="b">
@@ -6571,42 +6571,42 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>17:51</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>17:54</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>17:55</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="4" t="n">
-        <v>46836</v>
+        <v>46808</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ויקהל-פקודי</t>
+          <t>משפטים</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>18:37</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>18:12</t>
         </is>
       </c>
       <c r="E139" t="b">
@@ -6619,42 +6619,42 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>18:56</t>
+          <t>17:36</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>18:59</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="4" t="n">
-        <v>46843</v>
+        <v>46815</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ויקרא</t>
+          <t>תרומה</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>18:17</t>
         </is>
       </c>
       <c r="E140" t="b">
@@ -6662,42 +6662,42 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>19:01</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>19:03</t>
+          <t>17:44</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>18:05</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="4" t="n">
-        <v>46850</v>
+        <v>46822</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>צו</t>
+          <t>תצוה</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>18:46</t>
+          <t>17:27</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>18:22</t>
         </is>
       </c>
       <c r="E141" t="b">
@@ -6705,138 +6705,133 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>17:49</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>2028-04-07 12:39</t>
+          <t>18:10</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="4" t="n">
-        <v>46864</v>
+        <v>46829</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>שמיני</t>
+          <t>כי תשא</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>18:56</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>19:53</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="E142" t="b">
-        <v>1</v>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום רביעי בשעה 11:40 + 3</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>17:51</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>19:18</t>
+          <t>17:54</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>18:15</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="4" t="n">
-        <v>46871</v>
+        <v>46836</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>תזריע-מצרע</t>
+          <t>ויקהל-פקודי</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>19:01</t>
+          <t>18:37</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>19:59</t>
+          <t>19:32</t>
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 10:12 + 1</t>
+        </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
+          <t>18:56</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>18:59</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
           <t>19:20</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>19:23</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="4" t="n">
-        <v>46878</v>
+        <v>46843</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>אחרי מות-קדשים</t>
+          <t>ויקרא</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="E144" t="b">
@@ -6844,42 +6839,42 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
+          <t>19:01</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
           <t>19:25</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>19:28</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>19:05</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="4" t="n">
-        <v>46885</v>
+        <v>46850</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>אמור</t>
+          <t>צו</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>18:46</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="E145" t="b">
@@ -6887,42 +6882,47 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>19:08</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>19:33</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>19:10</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>19:55</t>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>2028-04-07 12:39</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="4" t="n">
-        <v>46892</v>
+        <v>46864</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>בהר-בחקתי</t>
+          <t>שמיני</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>18:56</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>20:16</t>
+          <t>19:53</t>
         </is>
       </c>
       <c r="E146" t="b">
@@ -6930,133 +6930,133 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום חמישי בשעה 0:24 + 4</t>
+          <t xml:space="preserve"> המולד ביום רביעי בשעה 11:40 + 3</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>19:18</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:40</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="4" t="n">
-        <v>46899</v>
+        <v>46871</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>במדבר</t>
+          <t>תזריע-מצרע</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>19:01</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>19:59</t>
+        </is>
+      </c>
+      <c r="E147" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>20:21</t>
-        </is>
-      </c>
-      <c r="E147" t="b">
-        <v>0</v>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>19:39</t>
-        </is>
-      </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>19:42</t>
+          <t>19:23</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="4" t="n">
-        <v>46906</v>
+        <v>46878</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>נשא</t>
+          <t>אחרי מות-קדשים</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>19:06</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="E148" t="b">
+        <v>0</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>20:26</t>
-        </is>
-      </c>
-      <c r="E148" t="b">
-        <v>0</v>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>19:43</t>
-        </is>
-      </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="4" t="n">
-        <v>46913</v>
+        <v>46885</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>בהעלתך</t>
+          <t>אמור</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>20:29</t>
+          <t>20:10</t>
         </is>
       </c>
       <c r="E149" t="b">
@@ -7064,42 +7064,42 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>19:48</t>
+          <t>19:33</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="4" t="n">
-        <v>46920</v>
+        <v>46892</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>שלח־לך</t>
+          <t>בהר-בחקתי</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>20:32</t>
+          <t>20:16</t>
         </is>
       </c>
       <c r="E150" t="b">
@@ -7107,95 +7107,90 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שבת בשעה 13:08 + 5</t>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 0:24 + 4</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="4" t="n">
-        <v>46927</v>
+        <v>46899</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>קורח</t>
+          <t>במדבר</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>20:33</t>
+          <t>20:21</t>
         </is>
       </c>
       <c r="E151" t="b">
-        <v>1</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שבת בשעה 13:08 + 5</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:39</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:42</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="4" t="n">
-        <v>46934</v>
+        <v>46906</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>חקת</t>
+          <t>נשא</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>19:33</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>20:33</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="E152" t="b">
@@ -7203,42 +7198,42 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="4" t="n">
-        <v>46941</v>
+        <v>46913</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>בלק</t>
+          <t>בהעלתך</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>20:32</t>
+          <t>20:29</t>
         </is>
       </c>
       <c r="E153" t="b">
@@ -7246,7 +7241,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7256,55 +7251,55 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
           <t>20:10</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>2028-07-07 20:09</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="4" t="n">
-        <v>46948</v>
+        <v>46920</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>פינחס</t>
+          <t>שלח־לך</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>20:32</t>
+        </is>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 13:08 + 5</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
           <t>19:30</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>20:29</t>
-        </is>
-      </c>
-      <c r="E154" t="b">
-        <v>0</v>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>19:47</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>19:25</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7315,21 +7310,21 @@
     </row>
     <row r="155">
       <c r="A155" s="4" t="n">
-        <v>46955</v>
+        <v>46927</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>מטות-מסעי</t>
+          <t>קורח</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>19:32</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>20:25</t>
+          <t>20:33</t>
         </is>
       </c>
       <c r="E155" t="b">
@@ -7337,47 +7332,47 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום ראשון בשעה 1:52 + 6</t>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 13:08 + 5</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>19:41</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="4" t="n">
-        <v>46962</v>
+        <v>46934</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>דברים</t>
+          <t>חקת</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>19:33</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:33</t>
         </is>
       </c>
       <c r="E156" t="b">
@@ -7385,42 +7380,42 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>19:38</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="4" t="n">
-        <v>46969</v>
+        <v>46941</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ואתחנן</t>
+          <t>בלק</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>19:17</t>
+          <t>19:32</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>20:14</t>
+          <t>20:32</t>
         </is>
       </c>
       <c r="E157" t="b">
@@ -7428,42 +7423,47 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>19:33</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:48</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>2028-07-07 20:09</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="4" t="n">
-        <v>46976</v>
+        <v>46948</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>עקב</t>
+          <t>פינחס</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>20:06</t>
+          <t>20:29</t>
         </is>
       </c>
       <c r="E158" t="b">
@@ -7471,42 +7471,42 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>19:26</t>
+          <t>19:47</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="4" t="n">
-        <v>46983</v>
+        <v>46955</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ראה</t>
+          <t>מטות-מסעי</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>19:03</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>19:58</t>
+          <t>20:25</t>
         </is>
       </c>
       <c r="E159" t="b">
@@ -7514,47 +7514,47 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שלישי בשעה 14:36 + 7</t>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 1:52 + 6</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>19:18</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>19:14</t>
+          <t>19:41</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="4" t="n">
-        <v>46990</v>
+        <v>46962</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>שופטים</t>
+          <t>דברים</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="E160" t="b">
@@ -7562,42 +7562,42 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:38</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="4" t="n">
-        <v>46997</v>
+        <v>46969</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>כי־תצא</t>
+          <t>ואתחנן</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>18:46</t>
+          <t>19:17</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>20:14</t>
         </is>
       </c>
       <c r="E161" t="b">
@@ -7605,42 +7605,42 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>19:01</t>
+          <t>19:33</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>18:56</t>
+          <t>19:29</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="4" t="n">
-        <v>47004</v>
+        <v>46976</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>כי־תבוא</t>
+          <t>עקב</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>18:37</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>20:06</t>
         </is>
       </c>
       <c r="E162" t="b">
@@ -7648,106 +7648,283 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>18:52</t>
+          <t>19:26</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>18:47</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="4" t="n">
-        <v>47011</v>
+        <v>46983</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>נצבים-וילך</t>
+          <t>ראה</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>18:28</t>
+          <t>19:03</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>19:58</t>
         </is>
       </c>
       <c r="E163" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 14:36 + 7</t>
+        </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:18</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>18:38</t>
+          <t>19:14</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:40</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="4" t="n">
+        <v>46990</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>שופטים</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="E164" t="b">
+        <v>0</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="4" t="n">
+        <v>46997</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>כי־תצא</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>18:46</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="E165" t="b">
+        <v>0</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>19:01</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>18:56</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="4" t="n">
+        <v>47004</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>כי־תבוא</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>18:37</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="E166" t="b">
+        <v>0</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>18:52</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>18:47</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>18:25</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="4" t="n">
+        <v>47011</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>נצבים-וילך</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>18:28</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>19:21</t>
+        </is>
+      </c>
+      <c r="E167" t="b">
+        <v>0</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>18:43</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>18:38</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="4" t="n">
         <v>47018</v>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>האזינו</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>18:19</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>19:12</t>
         </is>
       </c>
-      <c r="E164" t="b">
-        <v>0</v>
-      </c>
-      <c r="G164" t="inlineStr">
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
+      <c r="G168" t="inlineStr">
         <is>
           <t>18:34</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>18:28</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr">
+      <c r="I168" t="inlineStr">
         <is>
           <t>18:10</t>
         </is>
       </c>
-      <c r="J164" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שישי בשעה 10:42 + 5</t>
+          <t xml:space="preserve"> המולד ביום שישי בשעה 10:42 + 5 חלקים</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום ראשון בשעה 23:26 + 6</t>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 23:26 + 6 חלקים</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום רביעי בשעה 0:54 + 8</t>
+          <t xml:space="preserve"> המולד ביום רביעי בשעה 0:54 + 8 חלקים</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום חמישי בשעה 13:38 + 9</t>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 13:38 + 9 חלקים</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שבת בשעה 2:22 + 10</t>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 2:22 + 10 חלקים</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שבת בשעה 2:22 + 10</t>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 2:22 + 10 חלקים</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום ראשון בשעה 15:06 + 11</t>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 15:06 + 11 חלקים</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שלישי בשעה 3:50 + 12</t>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 3:50 + 12 חלקים</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שלישי בשעה 3:50 + 12</t>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 3:50 + 12 חלקים</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שישי בשעה 5:18 + 14</t>
+          <t xml:space="preserve"> המולד ביום שישי בשעה 5:18 + 14 חלקים</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שבת בשעה 18:02 + 15</t>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 18:02 + 15 חלקים</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שני בשעה 6:46 + 16</t>
+          <t xml:space="preserve"> המולד ביום שני בשעה 6:46 + 16 חלקים</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שלישי בשעה 19:30 + 17</t>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 19:30 + 17 חלקים</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום חמישי בשעה 8:15 + 0</t>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 8:15 + 0 חלקים</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום ראשון בשעה 9:43 + 2</t>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 9:43 + 2 חלקים</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שלישי בשעה 22:27 + 3</t>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 22:27 + 3 חלקים</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום חמישי בשעה 11:11 + 4</t>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 11:11 + 4 חלקים</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שישי בשעה 23:55 + 5</t>
+          <t xml:space="preserve"> המולד ביום שישי בשעה 23:55 + 5 חלקים</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום ראשון בשעה 12:39 + 6</t>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 12:39 + 6 חלקים</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שלישי בשעה 1:23 + 7</t>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 1:23 + 7 חלקים</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שני בשעה 22:56 + 2</t>
+          <t xml:space="preserve"> המולד ביום שני בשעה 22:56 + 2 חלקים</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שישי בשעה 2:51 + 9</t>
+          <t xml:space="preserve"> המולד ביום שישי בשעה 2:51 + 9 חלקים</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שבת בשעה 15:35 + 10</t>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 15:35 + 10 חלקים</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שני בשעה 4:19 + 11</t>
+          <t xml:space="preserve"> המולד ביום שני בשעה 4:19 + 11 חלקים</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שלישי בשעה 17:03 + 12</t>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 17:03 + 12 חלקים</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום חמישי בשעה 5:47 + 13</t>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 5:47 + 13 חלקים</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום ראשון בשעה 7:15 + 15</t>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 7:15 + 15 חלקים</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שלישי בשעה 19:59 + 16</t>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 19:59 + 16 חלקים</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום חמישי בשעה 8:43 + 17</t>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 8:43 + 17 חלקים</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שישי בשעה 21:28 + 0</t>
+          <t xml:space="preserve"> המולד ביום שישי בשעה 21:28 + 0 חלקים</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום ראשון בשעה 10:12 + 1</t>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 10:12 + 1 חלקים</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום ראשון בשעה 10:12 + 1</t>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 10:12 + 1 חלקים</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6930,7 +6930,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום רביעי בשעה 11:40 + 3</t>
+          <t xml:space="preserve"> המולד ביום רביעי בשעה 11:40 + 3 חלקים</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום חמישי בשעה 0:24 + 4</t>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 0:24 + 4 חלקים</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שבת בשעה 13:08 + 5</t>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 13:08 + 5 חלקים</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שבת בשעה 13:08 + 5</t>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 13:08 + 5 חלקים</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום ראשון בשעה 1:52 + 6</t>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 1:52 + 6 חלקים</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -7691,7 +7691,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> המולד ביום שלישי בשעה 14:36 + 7</t>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 14:36 + 7 חלקים</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K168"/>
+  <dimension ref="A1:K274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>נצבים-וילך</t>
+          <t>ראש-השנה</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4640,7 +4640,7 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="n">
-        <v>46501</v>
+        <v>46500</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -4662,12 +4662,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>19:17</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:19</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6908,112 +6908,112 @@
     </row>
     <row r="146">
       <c r="A146" s="4" t="n">
-        <v>46864</v>
+        <v>46857</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>שמיני</t>
+          <t>פסח</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>18:56</t>
+          <t>18:48</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>19:53</t>
+          <t>19:48</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>1</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום רביעי בשעה 11:40 + 3 חלקים</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>19:18</t>
+          <t>19:13</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:35</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="4" t="n">
-        <v>46871</v>
+        <v>46864</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>תזריע-מצרע</t>
+          <t>שמיני</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>19:01</t>
+          <t>18:56</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>19:59</t>
+          <t>19:53</t>
         </is>
       </c>
       <c r="E147" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום רביעי בשעה 11:40 + 3 חלקים</t>
+        </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>19:23</t>
+          <t>19:18</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:40</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="4" t="n">
-        <v>46878</v>
+        <v>46871</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>אחרי מות-קדשים</t>
+          <t>תזריע-מצרע</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>19:01</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>19:59</t>
         </is>
       </c>
       <c r="E148" t="b">
@@ -7021,42 +7021,42 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:23</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:45</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="4" t="n">
-        <v>46885</v>
+        <v>46878</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>אמור</t>
+          <t>אחרי מות-קדשים</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="E149" t="b">
@@ -7064,133 +7064,133 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>19:33</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="4" t="n">
-        <v>46892</v>
+        <v>46885</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>בהר-בחקתי</t>
+          <t>אמור</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>20:16</t>
+          <t>20:10</t>
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום חמישי בשעה 0:24 + 4 חלקים</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>19:33</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="4" t="n">
-        <v>46899</v>
+        <v>46892</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>במדבר</t>
+          <t>בהר-בחקתי</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>20:21</t>
+          <t>20:16</t>
         </is>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 0:24 + 4 חלקים</t>
+        </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>19:39</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>19:42</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="4" t="n">
-        <v>46906</v>
+        <v>46899</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>נשא</t>
+          <t>במדבר</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>20:26</t>
+          <t>20:21</t>
         </is>
       </c>
       <c r="E152" t="b">
@@ -7198,17 +7198,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:39</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:42</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7219,21 +7219,21 @@
     </row>
     <row r="153">
       <c r="A153" s="4" t="n">
-        <v>46913</v>
+        <v>46906</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>בהעלתך</t>
+          <t>נשא</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>20:29</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="E153" t="b">
@@ -7241,12 +7241,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>19:48</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -7256,50 +7256,45 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="4" t="n">
-        <v>46920</v>
+        <v>46913</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>שלח־לך</t>
+          <t>בהעלתך</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>20:32</t>
+          <t>20:29</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>1</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שבת בשעה 13:08 + 5 חלקים</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:48</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7310,21 +7305,21 @@
     </row>
     <row r="155">
       <c r="A155" s="4" t="n">
-        <v>46927</v>
+        <v>46920</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>קורח</t>
+          <t>שלח־לך</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>19:31</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>20:33</t>
+          <t>20:32</t>
         </is>
       </c>
       <c r="E155" t="b">
@@ -7337,7 +7332,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:49</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7358,16 +7353,16 @@
     </row>
     <row r="156">
       <c r="A156" s="4" t="n">
-        <v>46934</v>
+        <v>46927</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>חקת</t>
+          <t>קורח</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>19:33</t>
+          <t>19:32</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7376,7 +7371,12 @@
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 13:08 + 5 חלקים</t>
+        </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7401,21 +7401,21 @@
     </row>
     <row r="157">
       <c r="A157" s="4" t="n">
-        <v>46941</v>
+        <v>46934</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>בלק</t>
+          <t>חקת</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>19:32</t>
+          <t>19:33</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>20:32</t>
+          <t>20:33</t>
         </is>
       </c>
       <c r="E157" t="b">
@@ -7423,12 +7423,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>19:49</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>19:48</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -7439,165 +7439,165 @@
       <c r="J157" t="inlineStr">
         <is>
           <t>20:10</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>2028-07-07 20:09</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="4" t="n">
-        <v>46948</v>
+        <v>46941</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>פינחס</t>
+          <t>בלק</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>20:32</t>
+        </is>
+      </c>
+      <c r="E158" t="b">
+        <v>0</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>20:29</t>
-        </is>
-      </c>
-      <c r="E158" t="b">
-        <v>0</v>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>19:47</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>19:25</t>
-        </is>
-      </c>
       <c r="J158" t="inlineStr">
         <is>
           <t>20:10</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>2028-07-07 20:09</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="4" t="n">
-        <v>46955</v>
+        <v>46948</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>מטות-מסעי</t>
+          <t>פינחס</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>20:25</t>
+          <t>20:29</t>
         </is>
       </c>
       <c r="E159" t="b">
-        <v>1</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום ראשון בשעה 1:52 + 6 חלקים</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>19:43</t>
+          <t>19:47</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>19:41</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>20:10</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="4" t="n">
-        <v>46962</v>
+        <v>46955</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>דברים</t>
+          <t>מטות-מסעי</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>19:22</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:25</t>
         </is>
       </c>
       <c r="E160" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 1:52 + 6 חלקים</t>
+        </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>19:38</t>
+          <t>19:43</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:41</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:05</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="4" t="n">
-        <v>46969</v>
+        <v>46962</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ואתחנן</t>
+          <t>דברים</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>19:17</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>20:14</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="E161" t="b">
@@ -7605,176 +7605,176 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>19:33</t>
+          <t>19:38</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>19:29</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="4" t="n">
-        <v>46976</v>
+        <v>46969</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>עקב</t>
+          <t>ואתחנן</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>19:17</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>20:14</t>
+        </is>
+      </c>
+      <c r="E162" t="b">
+        <v>0</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>20:06</t>
-        </is>
-      </c>
-      <c r="E162" t="b">
-        <v>0</v>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>19:26</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>19:22</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:55</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="4" t="n">
-        <v>46983</v>
+        <v>46976</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ראה</t>
+          <t>עקב</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>19:03</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>19:58</t>
+          <t>20:06</t>
         </is>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> המולד ביום שלישי בשעה 14:36 + 7 חלקים</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>19:18</t>
+          <t>19:26</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>19:14</t>
+          <t>19:22</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:50</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="4" t="n">
-        <v>46990</v>
+        <v>46983</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>שופטים</t>
+          <t>ראה</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>19:58</t>
+        </is>
+      </c>
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 14:36 + 7 חלקים</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>19:18</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>19:14</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
           <t>18:55</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>19:50</t>
-        </is>
-      </c>
-      <c r="E164" t="b">
-        <v>0</v>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>19:10</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>19:05</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>18:45</t>
-        </is>
-      </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:40</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="4" t="n">
-        <v>46997</v>
+        <v>46990</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>כי־תצא</t>
+          <t>שופטים</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>18:46</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="E165" t="b">
@@ -7782,42 +7782,42 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>19:01</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>18:56</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>18:35</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>19:30</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="4" t="n">
-        <v>47004</v>
+        <v>46997</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>כי־תבוא</t>
+          <t>כי־תצא</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>18:37</t>
+          <t>18:46</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="E166" t="b">
@@ -7825,42 +7825,42 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>18:52</t>
+          <t>19:01</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>18:47</t>
+          <t>18:56</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:25</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="4" t="n">
-        <v>47011</v>
+        <v>47004</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>נצבים-וילך</t>
+          <t>כי־תבוא</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>18:28</t>
+          <t>18:37</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>19:31</t>
         </is>
       </c>
       <c r="E167" t="b">
@@ -7868,65 +7868,4778 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>18:52</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>18:38</t>
+          <t>18:47</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:15</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="4" t="n">
+        <v>47011</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>נצבים-וילך</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>18:28</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>19:21</t>
+        </is>
+      </c>
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>18:43</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>18:38</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="4" t="n">
         <v>47018</v>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>האזינו</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>18:19</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>19:12</t>
         </is>
       </c>
-      <c r="E168" t="b">
-        <v>0</v>
-      </c>
-      <c r="G168" t="inlineStr">
+      <c r="E169" t="b">
+        <v>0</v>
+      </c>
+      <c r="G169" t="inlineStr">
         <is>
           <t>18:34</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t>18:28</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
+      <c r="I169" t="inlineStr">
         <is>
           <t>18:10</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr">
+      <c r="J169" t="inlineStr">
         <is>
           <t>18:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="4" t="n">
+        <v>47025</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>יום הכיפורים</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>18:07</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="E170" t="b">
+        <v>0</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>18:24</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>18:19</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="4" t="n">
+        <v>47032</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>סוכות</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>17:58</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>18:54</t>
+        </is>
+      </c>
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>18:16</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>18:11</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>2028-10-07 03:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="4" t="n">
+        <v>47039</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>בראשית</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>17:52</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>18:46</t>
+        </is>
+      </c>
+      <c r="E172" t="b">
+        <v>1</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שישי בשעה 16:04 + 9 חלקים</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>18:07</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="4" t="n">
+        <v>47046</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>נח</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>17:44</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>18:38</t>
+        </is>
+      </c>
+      <c r="E173" t="b">
+        <v>0</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>17:59</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>17:55</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="4" t="n">
+        <v>47053</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>לך־לך</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>17:37</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>18:31</t>
+        </is>
+      </c>
+      <c r="E174" t="b">
+        <v>0</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>16:52</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>16:49</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="4" t="n">
+        <v>47060</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>וירא</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>17:26</t>
+        </is>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>16:46</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>16:43</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="4" t="n">
+        <v>47067</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>חיי שרה</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>17:21</t>
+        </is>
+      </c>
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>16:42</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>16:39</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="4" t="n">
+        <v>47074</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>תולדות</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>16:21</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="E177" t="b">
+        <v>1</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 4:48 + 10 חלקים</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>16:38</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>16:37</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="4" t="n">
+        <v>47081</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ויצא</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>16:19</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>17:16</t>
+        </is>
+      </c>
+      <c r="E178" t="b">
+        <v>0</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="4" t="n">
+        <v>47088</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>וישלח</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>16:18</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="4" t="n">
+        <v>47095</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>וישב</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>16:18</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>17:16</t>
+        </is>
+      </c>
+      <c r="E180" t="b">
+        <v>0</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>16:37</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="4" t="n">
+        <v>47102</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>מקץ</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="E181" t="b">
+        <v>1</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שני בשעה 17:32 + 11 חלקים</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>16:38</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="4" t="n">
+        <v>47109</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ויגש</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>16:23</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>17:22</t>
+        </is>
+      </c>
+      <c r="E182" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>16:41</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>16:44</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="4" t="n">
+        <v>47116</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ויחי</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>16:27</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>17:26</t>
+        </is>
+      </c>
+      <c r="E183" t="b">
+        <v>0</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>16:46</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>16:49</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="4" t="n">
+        <v>47123</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>שמות</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>16:32</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>17:31</t>
+        </is>
+      </c>
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>16:51</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>2029-01-06 10:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="4" t="n">
+        <v>47130</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>וארא</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>16:38</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>17:36</t>
+        </is>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 6:16 + 12 חלקים</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>16:57</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>17:01</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="4" t="n">
+        <v>47137</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>בא</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>16:44</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>17:42</t>
+        </is>
+      </c>
+      <c r="E186" t="b">
+        <v>0</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>17:04</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>17:07</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="4" t="n">
+        <v>47144</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>בשלח</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>16:51</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>17:48</t>
+        </is>
+      </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>17:14</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="4" t="n">
+        <v>47151</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>יתרו</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>16:57</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>17:54</t>
+        </is>
+      </c>
+      <c r="E188" t="b">
+        <v>0</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="4" t="n">
+        <v>47158</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>משפטים</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>17:04</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E189" t="b">
+        <v>1</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 19:00 + 13 חלקים</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>17:23</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>17:26</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="4" t="n">
+        <v>47165</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>תרומה</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>18:06</t>
+        </is>
+      </c>
+      <c r="E190" t="b">
+        <v>0</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>17:29</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>17:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="4" t="n">
+        <v>47172</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>תצוה</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>18:11</t>
+        </is>
+      </c>
+      <c r="E191" t="b">
+        <v>0</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="4" t="n">
+        <v>47179</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>כי תשא</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>17:21</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>18:17</t>
+        </is>
+      </c>
+      <c r="E192" t="b">
+        <v>0</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>17:43</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>18:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="4" t="n">
+        <v>47186</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ויקהל-פקודי</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>17:26</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>18:22</t>
+        </is>
+      </c>
+      <c r="E193" t="b">
+        <v>1</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 19:00 + 13 חלקים</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>17:48</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="4" t="n">
+        <v>47193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ויקרא</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>17:31</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>18:27</t>
+        </is>
+      </c>
+      <c r="E194" t="b">
+        <v>0</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>17:53</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="4" t="n">
+        <v>47200</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>צו</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>18:36</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="E195" t="b">
+        <v>0</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="4" t="n">
+        <v>47207</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>פסח</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>18:36</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>19:38</t>
+        </is>
+      </c>
+      <c r="E196" t="b">
+        <v>0</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="4" t="n">
+        <v>47214</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>שמיני</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>18:46</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>19:42</t>
+        </is>
+      </c>
+      <c r="E197" t="b">
+        <v>0</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>19:07</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>2029-04-07 18:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="4" t="n">
+        <v>47221</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>תזריע-מצרע</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>19:47</t>
+        </is>
+      </c>
+      <c r="E198" t="b">
+        <v>1</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 20:28 + 15 חלקים</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>19:09</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>19:12</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="4" t="n">
+        <v>47228</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>אחרי מות-קדשים</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>19:52</t>
+        </is>
+      </c>
+      <c r="E199" t="b">
+        <v>0</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>19:14</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>19:17</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="4" t="n">
+        <v>47235</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>אמור</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>19:58</t>
+        </is>
+      </c>
+      <c r="E200" t="b">
+        <v>0</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>19:19</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="4" t="n">
+        <v>47242</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>בהר</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>20:04</t>
+        </is>
+      </c>
+      <c r="E201" t="b">
+        <v>0</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>19:24</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>19:27</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="4" t="n">
+        <v>47249</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>בחקתי</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>20:09</t>
+        </is>
+      </c>
+      <c r="E202" t="b">
+        <v>1</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שני בשעה 9:12 + 16 חלקים</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="4" t="n">
+        <v>47256</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>במדבר</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="E203" t="b">
+        <v>0</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>19:37</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="4" t="n">
+        <v>47263</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>נשא</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
+      <c r="E204" t="b">
+        <v>0</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>19:39</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="4" t="n">
+        <v>47270</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>בהעלתך</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>19:24</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>20:25</t>
+        </is>
+      </c>
+      <c r="E205" t="b">
+        <v>0</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="4" t="n">
+        <v>47277</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>שלח־לך</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>19:27</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>20:29</t>
+        </is>
+      </c>
+      <c r="E206" t="b">
+        <v>1</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום רביעי בשעה 21:56 + 17 חלקים</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>19:46</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>19:47</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="4" t="n">
+        <v>47284</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>קורח</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>20:32</t>
+        </is>
+      </c>
+      <c r="E207" t="b">
+        <v>0</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="4" t="n">
+        <v>47291</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>חקת</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>20:33</t>
+        </is>
+      </c>
+      <c r="E208" t="b">
+        <v>0</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="4" t="n">
+        <v>47298</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>בלק</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>20:34</t>
+        </is>
+      </c>
+      <c r="E209" t="b">
+        <v>0</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="4" t="n">
+        <v>47305</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>פינחס</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>20:32</t>
+        </is>
+      </c>
+      <c r="E210" t="b">
+        <v>1</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 10:41 + 0 חלקים</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>2029-07-08 02:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="4" t="n">
+        <v>47312</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>מטות-מסעי</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="E211" t="b">
+        <v>0</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>19:47</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="4" t="n">
+        <v>47319</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>דברים</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>19:27</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>20:26</t>
+        </is>
+      </c>
+      <c r="E212" t="b">
+        <v>0</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="4" t="n">
+        <v>47326</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ואתחנן</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>20:21</t>
+        </is>
+      </c>
+      <c r="E213" t="b">
+        <v>0</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>19:39</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>19:36</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="4" t="n">
+        <v>47333</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>עקב</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>19:18</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="E214" t="b">
+        <v>1</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 23:25 + 1 חלקים</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="4" t="n">
+        <v>47340</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>ראה</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>19:11</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>20:08</t>
+        </is>
+      </c>
+      <c r="E215" t="b">
+        <v>1</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 23:25 + 1 חלקים</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>19:27</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="4" t="n">
+        <v>47347</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>שופטים</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>19:04</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E216" t="b">
+        <v>0</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="4" t="n">
+        <v>47354</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>כי־תצא</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>18:56</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>19:51</t>
+        </is>
+      </c>
+      <c r="E217" t="b">
+        <v>0</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>19:11</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>19:07</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="4" t="n">
+        <v>47361</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>כי־תבוא</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>18:48</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>19:42</t>
+        </is>
+      </c>
+      <c r="E218" t="b">
+        <v>0</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="4" t="n">
+        <v>47368</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>נצבים</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>18:39</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="E219" t="b">
+        <v>0</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>18:54</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>18:49</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="4" t="n">
+        <v>47375</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>וילך</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="E220" t="b">
+        <v>0</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>18:39</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="4" t="n">
+        <v>47382</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>האזינו</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>19:14</t>
+        </is>
+      </c>
+      <c r="E221" t="b">
+        <v>0</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="4" t="n">
+        <v>47389</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>סוכות</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>18:08</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="E222" t="b">
+        <v>0</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>18:26</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>18:21</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="4" t="n">
+        <v>47396</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>בראשית</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>18:02</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>18:56</t>
+        </is>
+      </c>
+      <c r="E223" t="b">
+        <v>1</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 0:53 + 3 חלקים</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>18:17</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>18:12</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>2029-10-07 09:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="4" t="n">
+        <v>47403</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>נח</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>17:53</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>18:47</t>
+        </is>
+      </c>
+      <c r="E224" t="b">
+        <v>0</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>18:09</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>18:04</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="4" t="n">
+        <v>47410</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>לך־לך</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>18:39</t>
+        </is>
+      </c>
+      <c r="E225" t="b">
+        <v>0</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>18:01</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>17:57</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>18:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="4" t="n">
+        <v>47417</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>וירא</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>18:32</t>
+        </is>
+      </c>
+      <c r="E226" t="b">
+        <v>0</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>16:54</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="4" t="n">
+        <v>47424</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>חיי שרה</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>16:31</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>17:27</t>
+        </is>
+      </c>
+      <c r="E227" t="b">
+        <v>1</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום רביעי בשעה 13:37 + 4 חלקים</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>16:47</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>16:44</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="4" t="n">
+        <v>47431</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>תולדות</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>16:26</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>17:22</t>
+        </is>
+      </c>
+      <c r="E228" t="b">
+        <v>0</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>16:42</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="4" t="n">
+        <v>47438</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>ויצא</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>16:22</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="E229" t="b">
+        <v>0</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>16:39</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>16:37</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="4" t="n">
+        <v>47445</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>וישלח</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>16:19</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>17:16</t>
+        </is>
+      </c>
+      <c r="E230" t="b">
+        <v>0</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="4" t="n">
+        <v>47452</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>וישב</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>16:18</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="E231" t="b">
+        <v>1</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 2:21 + 5 חלקים</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="4" t="n">
+        <v>47459</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>מקץ</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>16:18</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>17:16</t>
+        </is>
+      </c>
+      <c r="E232" t="b">
+        <v>0</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="4" t="n">
+        <v>47466</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>ויגש</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>16:19</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="E233" t="b">
+        <v>0</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>16:37</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>16:39</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="4" t="n">
+        <v>47473</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>ויחי</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>16:22</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>17:21</t>
+        </is>
+      </c>
+      <c r="E234" t="b">
+        <v>0</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>16:41</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>16:43</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="4" t="n">
+        <v>47480</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>שמות</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>16:26</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="E235" t="b">
+        <v>1</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שישי בשעה 15:05 + 6 חלקים</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>16:48</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="4" t="n">
+        <v>47487</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>וארא</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>16:31</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="E236" t="b">
+        <v>0</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>16:54</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>2030-01-06 16:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="4" t="n">
+        <v>47494</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>בא</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>16:37</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="E237" t="b">
+        <v>0</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>16:56</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="4" t="n">
+        <v>47501</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>בשלח</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>16:43</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>17:41</t>
+        </is>
+      </c>
+      <c r="E238" t="b">
+        <v>0</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>17:06</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="4" t="n">
+        <v>47508</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>יתרו</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>17:47</t>
+        </is>
+      </c>
+      <c r="E239" t="b">
+        <v>0</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>17:09</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>17:13</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="4" t="n">
+        <v>47515</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>משפטים</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>16:56</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>17:53</t>
+        </is>
+      </c>
+      <c r="E240" t="b">
+        <v>1</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום ראשון בשעה 3:49 + 7 חלקים</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>17:16</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>17:19</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="4" t="n">
+        <v>47522</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>תרומה</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>17:59</t>
+        </is>
+      </c>
+      <c r="E241" t="b">
+        <v>0</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>17:22</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="4" t="n">
+        <v>47529</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>תצוה</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>17:09</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>18:05</t>
+        </is>
+      </c>
+      <c r="E242" t="b">
+        <v>0</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>17:28</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>17:31</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>17:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="4" t="n">
+        <v>47536</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>כי תשא</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>17:14</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+      <c r="E243" t="b">
+        <v>0</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>17:34</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>17:37</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="4" t="n">
+        <v>47543</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>ויקהל</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>18:16</t>
+        </is>
+      </c>
+      <c r="E244" t="b">
+        <v>1</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 16:33 + 8 חלקים</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>17:39</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>17:42</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>18:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="4" t="n">
+        <v>47550</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>פקודי</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>18:21</t>
+        </is>
+      </c>
+      <c r="E245" t="b">
+        <v>0</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>17:44</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>17:47</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="4" t="n">
+        <v>47557</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>ויקרא</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>18:26</t>
+        </is>
+      </c>
+      <c r="E246" t="b">
+        <v>0</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>17:49</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>17:52</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="4" t="n">
+        <v>47564</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>צו</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>18:31</t>
+        </is>
+      </c>
+      <c r="E247" t="b">
+        <v>0</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>17:54</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>17:57</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="4" t="n">
+        <v>47571</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>שמיני</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>19:36</t>
+        </is>
+      </c>
+      <c r="E248" t="b">
+        <v>1</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שני בשעה 14:06 + 3 חלקים</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>18:59</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>19:02</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="4" t="n">
+        <v>47578</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>תזריע</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
+      </c>
+      <c r="E249" t="b">
+        <v>0</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>19:04</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>19:06</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>2030-04-08 00:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="4" t="n">
+        <v>47585</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>מצרע</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>19:46</t>
+        </is>
+      </c>
+      <c r="E250" t="b">
+        <v>0</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>19:09</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>19:11</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="4" t="n">
+        <v>47592</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>פסח</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>18:51</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>19:51</t>
+        </is>
+      </c>
+      <c r="E251" t="b">
+        <v>0</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>19:13</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>19:16</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="4" t="n">
+        <v>47599</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>אחרי מות</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>18:59</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>19:57</t>
+        </is>
+      </c>
+      <c r="E252" t="b">
+        <v>1</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שישי בשעה 18:01 + 10 חלקים</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>19:18</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>19:21</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="4" t="n">
+        <v>47606</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>קדשים</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>19:04</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>20:03</t>
+        </is>
+      </c>
+      <c r="E253" t="b">
+        <v>0</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>19:26</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="4" t="n">
+        <v>47613</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>אמור</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>19:09</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>20:08</t>
+        </is>
+      </c>
+      <c r="E254" t="b">
+        <v>0</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="4" t="n">
+        <v>47620</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>בהר</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>19:14</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>20:14</t>
+        </is>
+      </c>
+      <c r="E255" t="b">
+        <v>0</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>19:36</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="4" t="n">
+        <v>47627</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>בחקתי</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>19:19</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="E256" t="b">
+        <v>0</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>19:38</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="4" t="n">
+        <v>47634</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>במדבר</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>20:24</t>
+        </is>
+      </c>
+      <c r="E257" t="b">
+        <v>1</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שבת בשעה 6:45 + 11 חלקים</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>19:42</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="4" t="n">
+        <v>47641</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>נשא</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>19:27</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>20:28</t>
+        </is>
+      </c>
+      <c r="E258" t="b">
+        <v>0</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>19:47</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="4" t="n">
+        <v>47648</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>בהעלתך</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>20:31</t>
+        </is>
+      </c>
+      <c r="E259" t="b">
+        <v>0</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="4" t="n">
+        <v>47655</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>שלח־לך</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>20:33</t>
+        </is>
+      </c>
+      <c r="E260" t="b">
+        <v>0</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="4" t="n">
+        <v>47662</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>קורח</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>20:34</t>
+        </is>
+      </c>
+      <c r="E261" t="b">
+        <v>1</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שני בשעה 19:29 + 12 חלקים</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="4" t="n">
+        <v>47669</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>חקת</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>20:33</t>
+        </is>
+      </c>
+      <c r="E262" t="b">
+        <v>0</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>19:49</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>2030-07-08 08:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="4" t="n">
+        <v>47676</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>בלק</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>20:31</t>
+        </is>
+      </c>
+      <c r="E263" t="b">
+        <v>0</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>19:48</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>19:46</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="4" t="n">
+        <v>47683</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>פינחס</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>20:27</t>
+        </is>
+      </c>
+      <c r="E264" t="b">
+        <v>0</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>19:42</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="4" t="n">
+        <v>47690</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>מטות-מסעי</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>19:24</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>20:22</t>
+        </is>
+      </c>
+      <c r="E265" t="b">
+        <v>1</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום שלישי בשעה 8:13 + 13 חלקים</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>19:37</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="4" t="n">
+        <v>47697</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>דברים</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>19:19</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>20:16</t>
+        </is>
+      </c>
+      <c r="E266" t="b">
+        <v>0</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="4" t="n">
+        <v>47704</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>ואתחנן</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>19:13</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>20:09</t>
+        </is>
+      </c>
+      <c r="E267" t="b">
+        <v>0</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>19:24</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="4" t="n">
+        <v>47711</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>עקב</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>19:06</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>20:01</t>
+        </is>
+      </c>
+      <c r="E268" t="b">
+        <v>0</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>19:21</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>19:16</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="4" t="n">
+        <v>47718</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>ראה</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>19:53</t>
+        </is>
+      </c>
+      <c r="E269" t="b">
+        <v>1</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> המולד ביום חמישי בשעה 20:57 + 14 חלקים</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>19:13</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>19:08</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="4" t="n">
+        <v>47725</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>שופטים</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>18:49</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="E270" t="b">
+        <v>0</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>19:04</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>18:59</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="4" t="n">
+        <v>47732</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>כי־תצא</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+      <c r="E271" t="b">
+        <v>0</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="4" t="n">
+        <v>47739</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>כי־תבוא</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>18:31</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="E272" t="b">
+        <v>0</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>18:46</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>18:41</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="4" t="n">
+        <v>47746</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>נצבים-וילך</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>18:22</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="E273" t="b">
+        <v>0</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>18:37</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>18:32</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="4" t="n">
+        <v>47753</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>ראש=השנה</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>19:06</t>
+        </is>
+      </c>
+      <c r="E274" t="b">
+        <v>0</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>18:28</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>18:23</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>18:05</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>18:50</t>
         </is>
       </c>
     </row>
@@ -8058,36 +12771,36 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>45891</v>
+        <v>45856</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22/08/2025</t>
+          <t>18/07/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ראה</t>
+          <t>פינחס</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ראה</t>
+          <t>פינחס</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>18:59</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18:59</t>
+          <t>19:28</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -8117,37 +12830,37 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>16:50</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>19:54</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="שבתות השנה" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +470,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>molad</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>שקיעה Dimanche</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>שקיעה Jeudi</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>מנחה ביניים</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ערבית ביניים</t>
         </is>
@@ -515,20 +519,25 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
+          <t>מולד: יום שלישי בשעה 17:33 + 16</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>16:36</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
@@ -559,20 +568,25 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
+          <t>מולד: יום שלישי בשעה 17:33 + 16</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>16:37</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>16:39</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
@@ -603,20 +617,25 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>מולד: יום שלישי בשעה 17:33 + 16</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>16:43</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
@@ -647,20 +666,25 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>מולד: יום שלישי בשעה 17:33 + 16</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>16:44</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>16:47</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>16:25</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>17:10</t>
         </is>
@@ -695,20 +719,25 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>מולד: יום רביעי בשעה 6:17 + 17</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>16:50</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>16:53</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
@@ -739,20 +768,25 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>מולד: יום רביעי בשעה 6:17 + 17</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>16:56</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>16:59</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>16:35</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
@@ -783,20 +817,25 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>מולד: יום רביעי בשעה 6:17 + 17</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>17:02</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>17:06</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>16:40</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
@@ -827,20 +866,25 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>מולד: יום רביעי בשעה 6:17 + 17</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>17:08</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>17:12</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>16:50</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
@@ -871,20 +915,25 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>מולד: יום שישי בשעה 19:02 + 0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>17:15</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>17:18</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>16:55</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>17:40</t>
         </is>
@@ -915,20 +964,25 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>מולד: יום שישי בשעה 19:02 + 0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>17:21</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>17:25</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>17:45</t>
         </is>
@@ -959,20 +1013,25 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>מולד: יום שישי בשעה 19:02 + 0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>17:27</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>17:31</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>17:05</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>17:55</t>
         </is>
@@ -1003,20 +1062,25 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>מולד: יום שישי בשעה 19:02 + 0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>17:33</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>17:36</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
@@ -1047,20 +1111,25 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>מולד: יום שישי בשעה 19:02 + 0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>17:38</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>17:42</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>17:20</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>18:05</t>
         </is>
@@ -1091,20 +1160,25 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>מולד: יום שישי בשעה 19:02 + 0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>17:44</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>17:47</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>17:25</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>18:10</t>
         </is>
@@ -1135,20 +1209,25 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>מולד: יום שישי בשעה 19:02 + 0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>17:49</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>17:52</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
@@ -1179,20 +1258,25 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>מולד: יום שישי בשעה 19:02 + 0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>17:54</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>17:56</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>17:35</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>18:20</t>
         </is>
@@ -1223,20 +1307,25 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>מולד: יום שישי בשעה 19:02 + 0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>18:58</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>19:01</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
@@ -1271,20 +1360,25 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>מולד: יום שני בשעה 20:30 + 2</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>19:03</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>19:06</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>18:45</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
@@ -1315,20 +1409,25 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>מולד: יום שני בשעה 20:30 + 2</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>19:08</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>19:11</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
@@ -1359,20 +1458,25 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>מולד: יום שני בשעה 20:30 + 2</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>19:13</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>19:16</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>19:40</t>
         </is>
@@ -1403,20 +1507,25 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>מולד: יום שני בשעה 20:30 + 2</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>19:18</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>19:21</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
@@ -1447,20 +1556,25 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>מולד: יום שלישי בשעה 9:14 + 3</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>19:23</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>19:26</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
@@ -1491,20 +1605,25 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>מולד: יום שלישי בשעה 9:14 + 3</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>19:28</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>19:31</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
@@ -1535,20 +1654,25 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>מולד: יום שלישי בשעה 9:14 + 3</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>19:33</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
@@ -1579,20 +1703,25 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>מולד: יום שלישי בשעה 9:14 + 3</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>19:37</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>19:40</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
@@ -1623,20 +1752,25 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>מולד: יום חמישי בשעה 21:58 + 4</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>19:41</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>19:44</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
@@ -1667,20 +1801,25 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>מולד: יום חמישי בשעה 21:58 + 4</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>19:47</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
@@ -1711,20 +1850,25 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>מולד: יום חמישי בשעה 21:58 + 4</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>19:48</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
@@ -1755,20 +1899,25 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>מולד: יום חמישי בשעה 21:58 + 4</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
@@ -1799,20 +1948,25 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>מולד: יום שישי בשעה 10:42 + 5</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
@@ -1847,20 +2001,25 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>מולד: יום שישי בשעה 10:42 + 5</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>19:49</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
@@ -1891,20 +2050,25 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>מולד: יום שישי בשעה 10:42 + 5</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>19:48</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>19:46</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>20:10</t>
         </is>
@@ -1935,20 +2099,25 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>מולד: יום שישי בשעה 10:42 + 5</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>19:45</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>19:43</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
@@ -1979,20 +2148,25 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>מולד: יום שישי בשעה 10:42 + 5</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>19:41</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>19:38</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>20:05</t>
         </is>
@@ -2023,20 +2197,25 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>מולד: יום ראשון בשעה 23:26 + 6</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t>19:35</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>19:32</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>19:55</t>
         </is>
@@ -2067,20 +2246,25 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>מולד: יום ראשון בשעה 23:26 + 6</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>19:29</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>19:50</t>
         </is>
@@ -2111,20 +2295,25 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>מולד: יום ראשון בשעה 23:26 + 6</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
           <t>19:22</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>19:17</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>18:55</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
@@ -2155,20 +2344,25 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>מולד: יום ראשון בשעה 23:26 + 6</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>19:14</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>19:09</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>18:50</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>19:35</t>
         </is>
@@ -2199,20 +2393,25 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>מולד: יום רביעי בשעה 3:21 + 13</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
           <t>19:05</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>18:40</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>19:25</t>
         </is>
@@ -2243,20 +2442,25 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>מולד: יום רביעי בשעה 3:21 + 13</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
           <t>18:56</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>18:51</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>19:20</t>
         </is>
@@ -2287,20 +2491,25 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>מולד: יום רביעי בשעה 3:21 + 13</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>18:47</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>18:42</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>18:20</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>19:10</t>
         </is>
@@ -2331,235 +2540,27 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>מולד: יום רביעי בשעה 3:21 + 13</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
           <t>18:38</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>18:33</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>19:00</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>תאריך</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>פרשה</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>API_parasha_hebrew</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>שיר השירים</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>כניסת שבת</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>מנחה</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>שחרית</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>מנחה גדולה</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>תהילים קיץ</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>תהילים חורף</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>שיעור לנשים</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>שיעור פרשה</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>שיעור עם הרב</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>מנחה 2</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ערבית מוצאי שבת</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>ערבית חול</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>מנחה חול</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>מוצאי שבת Kodch</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>שבת מברכין</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>06/06/2025</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>נשא</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>נשא</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19:15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>19:26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>19:26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>07:45</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>17:25</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>18:10</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>18:55</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20:15</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>20:05</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>19:25</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>20:28</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Non</t>
         </is>
       </c>
     </row>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -12771,36 +12771,36 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>45863</v>
+        <v>45870</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25/07/2025</t>
+          <t>01/08/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>מטות-מסעי</t>
+          <t>דברים</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>מטות-מסעי</t>
+          <t>דברים</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19:24</t>
+          <t>19:19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:24</t>
+          <t>19:19</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -12830,37 +12830,37 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>18:05</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>20:17</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -8058,36 +8058,36 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>45856</v>
+        <v>45891</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18/07/2025</t>
+          <t>22/08/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>פינחס</t>
+          <t>ראה</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>פינחס</t>
+          <t>ראה</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>18:59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:28</t>
+          <t>18:59</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -8117,37 +8117,37 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>16:50</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>19:54</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -12771,36 +12771,36 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>45863</v>
+        <v>45884</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25/07/2025</t>
+          <t>15/08/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>מטות-מסעי</t>
+          <t>עקב</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>מטות-מסעי</t>
+          <t>עקב</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19:24</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:24</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -12830,37 +12830,37 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>18:05</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>20:02</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -12771,36 +12771,36 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>45884</v>
+        <v>45891</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>22/08/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>עקב</t>
+          <t>ראה</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>עקב</t>
+          <t>ראה</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>18:59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>18:59</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -12825,47 +12825,47 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:50</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:35</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>20:02</t>
+          <t>19:54</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>לא</t>
+          <t>כן</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -12771,36 +12771,36 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22/08/2025</t>
+          <t>19/09/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ראה</t>
+          <t>נצבים</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ראה</t>
+          <t>נצבים</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>18:59</t>
+          <t>18:23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18:59</t>
+          <t>18:23</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -12830,42 +12830,42 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>16:50</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>19:54</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>כן</t>
+          <t>לא</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -12771,36 +12771,36 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>45919</v>
+        <v>45947</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19/09/2025</t>
+          <t>17/10/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>נצבים</t>
+          <t>בראשית</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>נצבים</t>
+          <t>בראשית</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>18:23</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18:23</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -12825,47 +12825,47 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>לא</t>
+          <t>כן</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -12771,36 +12771,36 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>45870</v>
+        <v>45884</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/08/2025</t>
+          <t>15/08/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>דברים</t>
+          <t>עקב</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>דברים</t>
+          <t>עקב</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>18:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19:19</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:19</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -12830,37 +12830,37 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>20:17</t>
+          <t>20:02</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -12771,36 +12771,36 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>45884</v>
+        <v>45968</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>07/11/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>עקב</t>
+          <t>וירא</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>עקב</t>
+          <t>וירא</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18:55</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -12825,42 +12825,42 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>20:02</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -12771,36 +12771,36 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>45968</v>
+        <v>45947</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>17/10/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>וירא</t>
+          <t>בראשית</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>וירא</t>
+          <t>בראשית</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -12830,42 +12830,42 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>18:42</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>לא</t>
+          <t>כן</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -12771,36 +12771,36 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>45947</v>
+        <v>45954</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17/10/2025</t>
+          <t>24/10/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>בראשית</t>
+          <t>נח</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>בראשית</t>
+          <t>נח</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -12820,7 +12820,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -12830,42 +12830,42 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>18:34</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>כן</t>
+          <t>לא</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -12771,36 +12771,36 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>45947</v>
+        <v>45961</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17/10/2025</t>
+          <t>31/10/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>בראשית</t>
+          <t>לך־לך</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>בראשית</t>
+          <t>לך־לך</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -12810,7 +12810,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -12820,7 +12820,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -12830,42 +12830,42 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>15:10</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>15:55</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>16:25</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>17:10</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>18:25</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>17:40</t>
-        </is>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>17:28</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>כן</t>
+          <t>לא</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -12810,7 +12810,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -12771,36 +12771,36 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>45961</v>
+        <v>45982</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>31/10/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>לך־לך</t>
+          <t>תולדות</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>לך־לך</t>
+          <t>תולדות</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>16:10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>16:33</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -12825,42 +12825,42 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>17:28</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -12771,101 +12771,101 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>45982</v>
+        <v>46038</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21/11/2025</t>
+          <t>16/01/2026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>תולדות</t>
+          <t>וארא</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>תולדות</t>
+          <t>וארא</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16:41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16:41</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>16:10</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>16:20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>16:20</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>07:45</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>12:45</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>14:15</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>15:45</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>לא</t>
+          <t>כן</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="שבתות השנה" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="השבת" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="שבתות השנה" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="השבת" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12771,53 +12771,53 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>46038</v>
+        <v>46080</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16/01/2026</t>
+          <t>27/02/2026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>וארא</t>
+          <t>תצוה</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>וארא</t>
+          <t>תצוה</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>16:41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>16:41</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>07:45</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>12:45</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>15:00</t>
@@ -12830,42 +12830,42 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14:40</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>16:10</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:05</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>18:05</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>כן</t>
+          <t>לא</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="שבתות השנה" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="השבת" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="שבתות השנה" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="השבת" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,7 +20,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,7 +60,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -68,7 +68,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -12770,102 +12769,102 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
-        <v>46080</v>
+      <c r="A2" s="4" t="n">
+        <v>46066</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>27/02/2026</t>
+          <t>13/02/2026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>תצוה</t>
+          <t>משפטים</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>תצוה</t>
+          <t>משפטים</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>17:07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17:07</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>17:05</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>17:18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>17:18</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>07:45</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>12:45</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>15:10</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>15:55</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>16:40</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>18:05</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>18:05</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>17:20</t>
-        </is>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>לא</t>
+          <t>כן</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -12770,36 +12770,36 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>46066</v>
+        <v>46080</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13/02/2026</t>
+          <t>27/02/2026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>משפטים</t>
+          <t>תצוה</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>משפטים</t>
+          <t>תצוה</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>17:07</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17:07</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -12829,42 +12829,42 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:05</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:05</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>18:03</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>כן</t>
+          <t>לא</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>

--- a/output/horaires_shabbat.xlsx
+++ b/output/horaires_shabbat.xlsx
@@ -12770,101 +12770,101 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>46080</v>
+        <v>46066</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>27/02/2026</t>
+          <t>13/02/2026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>תצוה</t>
+          <t>משפטים</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>תצוה</t>
+          <t>משפטים</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>17:07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17:07</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>17:05</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>17:18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>17:18</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>07:45</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>12:45</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>15:10</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>15:55</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>16:40</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>18:05</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>18:05</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>17:20</t>
-        </is>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>18:03</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>לא</t>
+          <t>כן</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
